--- a/InputData/fuels/FoVTStCT/Fraction of Vehicle Types Subject to Carbon Tax.xlsx
+++ b/InputData/fuels/FoVTStCT/Fraction of Vehicle Types Subject to Carbon Tax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\FoVTStCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126FD5F5-8B5F-4218-8AED-61E3D8B1F267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F603B01D-53D1-4EAE-ADD8-5BCBE03F8453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29865" yWindow="3840" windowWidth="25020" windowHeight="13230" activeTab="4" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
+    <workbookView xWindow="6330" yWindow="2700" windowWidth="21600" windowHeight="10950" activeTab="4" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="CH4_to_CO2e">'[1]Cross-Page Data'!$C$12</definedName>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="122">
   <si>
     <t>Unit: dimensionless</t>
   </si>
@@ -337,30 +336,6 @@
     <t>EPS: fuels/BCTR [2012 USD]</t>
   </si>
   <si>
-    <t>BCTR BAU Carbon Tax Rate[transportation sector] : NoSettings</t>
-  </si>
-  <si>
-    <t>BCTR BAU Carbon Tax Rate[electricity sector] : NoSettings</t>
-  </si>
-  <si>
-    <t>BCTR BAU Carbon Tax Rate[residential buildings sector] : NoSettings</t>
-  </si>
-  <si>
-    <t>BCTR BAU Carbon Tax Rate[commercial buildings sector] : NoSettings</t>
-  </si>
-  <si>
-    <t>BCTR BAU Carbon Tax Rate[industry sector] : NoSettings</t>
-  </si>
-  <si>
-    <t>BCTR BAU Carbon Tax Rate[district heat and hydrogen sector] : NoSettings</t>
-  </si>
-  <si>
-    <t>BCTR BAU Carbon Tax Rate[LULUCF sector] : NoSettings</t>
-  </si>
-  <si>
-    <t>BCTR BAU Carbon Tax Rate[geoengineering sector] : NoSettings</t>
-  </si>
-  <si>
     <t>ETS 2 Price Projections</t>
   </si>
   <si>
@@ -435,6 +410,60 @@
   <si>
     <t>2026-on</t>
   </si>
+  <si>
+    <t>BCTR BAU Carbon Tax Rate[transportation sector] : nosettings</t>
+  </si>
+  <si>
+    <t>BCTR BAU Carbon Tax Rate[electricity sector] : nosettings</t>
+  </si>
+  <si>
+    <t>BCTR BAU Carbon Tax Rate[residential buildings sector] : nosettings</t>
+  </si>
+  <si>
+    <t>BCTR BAU Carbon Tax Rate[commercial buildings sector] : nosettings</t>
+  </si>
+  <si>
+    <t>BCTR BAU Carbon Tax Rate[industry sector] : nosettings</t>
+  </si>
+  <si>
+    <t>BCTR BAU Carbon Tax Rate[district heat and hydrogen sector] : nosettings</t>
+  </si>
+  <si>
+    <t>BCTR BAU Carbon Tax Rate[LULUCF sector] : nosettings</t>
+  </si>
+  <si>
+    <t>BCTR BAU Carbon Tax Rate[geoengineering sector] : nosettings</t>
+  </si>
+  <si>
+    <t>ETS2 Price [EUR 2023]</t>
+  </si>
+  <si>
+    <t>ETS1 Price [USD 2012]</t>
+  </si>
+  <si>
+    <t>ETS1 Price [EUR 2019]</t>
+  </si>
+  <si>
+    <t>ETS1 Price [EUR 2023]</t>
+  </si>
+  <si>
+    <t>DH/H2</t>
+  </si>
+  <si>
+    <t>elec</t>
+  </si>
+  <si>
+    <t>indst/tport</t>
+  </si>
+  <si>
+    <t>FF55 Policy Lever Calculations</t>
+  </si>
+  <si>
+    <t>OCCF:</t>
+  </si>
+  <si>
+    <t>2012USD to 2023EUR</t>
+  </si>
 </sst>
 </file>
 
@@ -449,7 +478,7 @@
     <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,7 +659,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -679,6 +708,9 @@
     <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -790,25 +822,25 @@
                   <c:v>73.311213204015658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.573121384209628</c:v>
+                  <c:v>53.140154415518118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.726806142856148</c:v>
+                  <c:v>60.158248164342268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79.740717770099934</c:v>
+                  <c:v>73.648472779175492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.618946176126954</c:v>
+                  <c:v>80.924799184742042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.934884535277575</c:v>
+                  <c:v>87.681794884874364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>102.92194327295809</c:v>
+                  <c:v>95.05863691084754</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112.83485811806231</c:v>
+                  <c:v>104.21419832975535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -825,7 +857,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'[5]ETS Calculations'!$F$33</c:f>
+              <c:f>'[4]ETS Calculations'!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1013,25 +1045,25 @@
                   <c:v>38.311213204015658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.573121384209628</c:v>
+                  <c:v>18.140154415518118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.726806142856148</c:v>
+                  <c:v>25.158248164342268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.740717770099934</c:v>
+                  <c:v>35.648472779175492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.618946176126954</c:v>
+                  <c:v>39.924799184742042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.934884535277575</c:v>
+                  <c:v>43.681794884874364</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.921943272958089</c:v>
+                  <c:v>48.05863691084754</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62.834858118062314</c:v>
+                  <c:v>54.214198329755348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,67 +1476,67 @@
                   <c:v>73.311213204015658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.573121384209628</c:v>
+                  <c:v>53.140154415518118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.726806142856148</c:v>
+                  <c:v>60.158248164342268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.740717770099934</c:v>
+                  <c:v>73.648472779175492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.618946176126954</c:v>
+                  <c:v>80.924799184742042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.934884535277575</c:v>
+                  <c:v>87.681794884874364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102.92194327295809</c:v>
+                  <c:v>95.05863691084754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112.83485811806231</c:v>
+                  <c:v>104.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114.83485811806231</c:v>
+                  <c:v>106.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>116.83485811806231</c:v>
+                  <c:v>108.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118.83485811806231</c:v>
+                  <c:v>110.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>120.83485811806231</c:v>
+                  <c:v>112.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>122.83485811806231</c:v>
+                  <c:v>114.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>124.83485811806231</c:v>
+                  <c:v>116.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>126.83485811806231</c:v>
+                  <c:v>118.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>128.8348581180623</c:v>
+                  <c:v>120.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>130.8348581180623</c:v>
+                  <c:v>122.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>132.8348581180623</c:v>
+                  <c:v>124.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134.8348581180623</c:v>
+                  <c:v>126.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>136.8348581180623</c:v>
+                  <c:v>128.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>138.8348581180623</c:v>
+                  <c:v>130.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>140.8348581180623</c:v>
+                  <c:v>137.91425836378113</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>147.72542009193839</c:v>
@@ -1903,85 +1935,85 @@
                   <c:v>73.311213204015658</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>61.573121384209628</c:v>
+                  <c:v>53.140154415518118</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>67.726806142856148</c:v>
+                  <c:v>60.158248164342268</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>79.740717770099934</c:v>
+                  <c:v>73.648472779175492</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>87.618946176126954</c:v>
+                  <c:v>80.924799184742042</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>94.934884535277575</c:v>
+                  <c:v>87.681794884874364</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>102.92194327295809</c:v>
+                  <c:v>95.05863691084754</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>112.83485811806231</c:v>
+                  <c:v>104.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>114.83485811806231</c:v>
+                  <c:v>106.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>116.83485811806231</c:v>
+                  <c:v>108.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>118.83485811806231</c:v>
+                  <c:v>110.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>120.83485811806231</c:v>
+                  <c:v>112.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>122.83485811806231</c:v>
+                  <c:v>114.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>124.83485811806231</c:v>
+                  <c:v>116.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>126.83485811806231</c:v>
+                  <c:v>118.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>128.8348581180623</c:v>
+                  <c:v>120.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>130.8348581180623</c:v>
+                  <c:v>122.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>132.8348581180623</c:v>
+                  <c:v>124.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>134.8348581180623</c:v>
+                  <c:v>126.21419832975535</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>136.8348581180623</c:v>
+                  <c:v>128.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>138.8348581180623</c:v>
+                  <c:v>130.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>140.8348581180623</c:v>
+                  <c:v>132.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>142.8348581180623</c:v>
+                  <c:v>134.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>144.8348581180623</c:v>
+                  <c:v>136.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>146.8348581180623</c:v>
+                  <c:v>138.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>148.8348581180623</c:v>
+                  <c:v>140.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>150.8348581180623</c:v>
+                  <c:v>142.21419832975533</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)">
-                  <c:v>152.8348581180623</c:v>
+                  <c:v>144.21419832975533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,6 +2493,370 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'fuels-FoICStCT Projections'!$B$130:$AD$130</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.67642182013043795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70721076453239906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.458359017482521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55216020667631482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71650731112690003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79345238864341761</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86382854759186822</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9344991103071596</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99993664457912901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99831491036434805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99852554656880443</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99873618277326115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99894681897771775</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99915745518217403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99936809138663063</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99957872759108735</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99978936379554395</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99894621984764731</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99915697587811791</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99936773190858852</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99957848793905879</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9997892439695294</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0305-4BDC-8DC0-B9E85A58E8F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="17054927"/>
+        <c:axId val="17055887"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="17054927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17055887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="17055887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="17054927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2502,6 +2898,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3573,6 +4009,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3734,6 +4686,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34019</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>63953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306162</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>140153</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3400EB60-2F7E-3646-A9DF-6AA21D26DF80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3943,838 +4931,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Carbon Leakage Risk"/>
-      <sheetName val="Allowance Schedule"/>
-      <sheetName val="ETS Coverage"/>
-      <sheetName val="ETS Price Projections"/>
-      <sheetName val="Calcs"/>
-      <sheetName val="FoICStCT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="50">
-          <cell r="B50">
-            <v>0.9237749814519286</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>1.2847999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="34">
-          <cell r="G34" t="str">
-            <v>Additional Carbon Tax [EUR2019]</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>2021</v>
-          </cell>
-          <cell r="D36">
-            <v>53.499312875163668</v>
-          </cell>
-          <cell r="F36">
-            <v>35</v>
-          </cell>
-          <cell r="G36">
-            <v>18.499312875163668</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>2022</v>
-          </cell>
-          <cell r="D37">
-            <v>70.777648219571262</v>
-          </cell>
-          <cell r="F37">
-            <v>35</v>
-          </cell>
-          <cell r="G37">
-            <v>35.777648219571262</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>2023</v>
-          </cell>
-          <cell r="D38">
-            <v>73.311213204015658</v>
-          </cell>
-          <cell r="F38">
-            <v>35</v>
-          </cell>
-          <cell r="G38">
-            <v>38.311213204015658</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>2024</v>
-          </cell>
-          <cell r="D39">
-            <v>61.573121384209628</v>
-          </cell>
-          <cell r="F39">
-            <v>35</v>
-          </cell>
-          <cell r="G39">
-            <v>26.573121384209628</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>2025</v>
-          </cell>
-          <cell r="D40">
-            <v>67.726806142856148</v>
-          </cell>
-          <cell r="F40">
-            <v>35</v>
-          </cell>
-          <cell r="G40">
-            <v>32.726806142856148</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>2026</v>
-          </cell>
-          <cell r="D41">
-            <v>79.740717770099934</v>
-          </cell>
-          <cell r="F41">
-            <v>38</v>
-          </cell>
-          <cell r="G41">
-            <v>41.740717770099934</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>2027</v>
-          </cell>
-          <cell r="D42">
-            <v>87.618946176126954</v>
-          </cell>
-          <cell r="F42">
-            <v>41</v>
-          </cell>
-          <cell r="G42">
-            <v>46.618946176126954</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>2028</v>
-          </cell>
-          <cell r="D43">
-            <v>94.934884535277575</v>
-          </cell>
-          <cell r="F43">
-            <v>44</v>
-          </cell>
-          <cell r="G43">
-            <v>50.934884535277575</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>2029</v>
-          </cell>
-          <cell r="D44">
-            <v>102.92194327295809</v>
-          </cell>
-          <cell r="F44">
-            <v>47</v>
-          </cell>
-          <cell r="G44">
-            <v>55.921943272958089</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>2030</v>
-          </cell>
-          <cell r="D45">
-            <v>112.83485811806231</v>
-          </cell>
-          <cell r="F45">
-            <v>50</v>
-          </cell>
-          <cell r="G45">
-            <v>62.834858118062314</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>2020</v>
-          </cell>
-          <cell r="C47">
-            <v>2021</v>
-          </cell>
-          <cell r="D47">
-            <v>2022</v>
-          </cell>
-          <cell r="E47">
-            <v>2023</v>
-          </cell>
-          <cell r="F47">
-            <v>2024</v>
-          </cell>
-          <cell r="G47">
-            <v>2025</v>
-          </cell>
-          <cell r="H47">
-            <v>2026</v>
-          </cell>
-          <cell r="I47">
-            <v>2027</v>
-          </cell>
-          <cell r="J47">
-            <v>2028</v>
-          </cell>
-          <cell r="K47">
-            <v>2029</v>
-          </cell>
-          <cell r="L47">
-            <v>2030</v>
-          </cell>
-          <cell r="M47">
-            <v>2031</v>
-          </cell>
-          <cell r="N47">
-            <v>2032</v>
-          </cell>
-          <cell r="O47">
-            <v>2033</v>
-          </cell>
-          <cell r="P47">
-            <v>2034</v>
-          </cell>
-          <cell r="Q47">
-            <v>2035</v>
-          </cell>
-          <cell r="R47">
-            <v>2036</v>
-          </cell>
-          <cell r="S47">
-            <v>2037</v>
-          </cell>
-          <cell r="T47">
-            <v>2038</v>
-          </cell>
-          <cell r="U47">
-            <v>2039</v>
-          </cell>
-          <cell r="V47">
-            <v>2040</v>
-          </cell>
-          <cell r="W47">
-            <v>2041</v>
-          </cell>
-          <cell r="X47">
-            <v>2042</v>
-          </cell>
-          <cell r="Y47">
-            <v>2043</v>
-          </cell>
-          <cell r="Z47">
-            <v>2044</v>
-          </cell>
-          <cell r="AA47">
-            <v>2045</v>
-          </cell>
-          <cell r="AB47">
-            <v>2046</v>
-          </cell>
-          <cell r="AC47">
-            <v>2047</v>
-          </cell>
-          <cell r="AD47">
-            <v>2048</v>
-          </cell>
-          <cell r="AE47">
-            <v>2049</v>
-          </cell>
-          <cell r="AF47">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>24.983873327481177</v>
-          </cell>
-          <cell r="C48">
-            <v>53.499312875163668</v>
-          </cell>
-          <cell r="D48">
-            <v>70.777648219571262</v>
-          </cell>
-          <cell r="E48">
-            <v>73.311213204015658</v>
-          </cell>
-          <cell r="F48">
-            <v>61.573121384209628</v>
-          </cell>
-          <cell r="G48">
-            <v>67.726806142856148</v>
-          </cell>
-          <cell r="H48">
-            <v>79.740717770099934</v>
-          </cell>
-          <cell r="I48">
-            <v>87.618946176126954</v>
-          </cell>
-          <cell r="J48">
-            <v>94.934884535277575</v>
-          </cell>
-          <cell r="K48">
-            <v>102.92194327295809</v>
-          </cell>
-          <cell r="L48">
-            <v>112.83485811806231</v>
-          </cell>
-          <cell r="M48">
-            <v>114.83485811806231</v>
-          </cell>
-          <cell r="N48">
-            <v>116.83485811806231</v>
-          </cell>
-          <cell r="O48">
-            <v>118.83485811806231</v>
-          </cell>
-          <cell r="P48">
-            <v>120.83485811806231</v>
-          </cell>
-          <cell r="Q48">
-            <v>122.83485811806231</v>
-          </cell>
-          <cell r="R48">
-            <v>124.83485811806231</v>
-          </cell>
-          <cell r="S48">
-            <v>126.83485811806231</v>
-          </cell>
-          <cell r="T48">
-            <v>128.8348581180623</v>
-          </cell>
-          <cell r="U48">
-            <v>130.8348581180623</v>
-          </cell>
-          <cell r="V48">
-            <v>132.8348581180623</v>
-          </cell>
-          <cell r="W48">
-            <v>134.8348581180623</v>
-          </cell>
-          <cell r="X48">
-            <v>136.8348581180623</v>
-          </cell>
-          <cell r="Y48">
-            <v>138.8348581180623</v>
-          </cell>
-          <cell r="Z48">
-            <v>140.8348581180623</v>
-          </cell>
-          <cell r="AA48">
-            <v>142.8348581180623</v>
-          </cell>
-          <cell r="AB48">
-            <v>144.8348581180623</v>
-          </cell>
-          <cell r="AC48">
-            <v>146.8348581180623</v>
-          </cell>
-          <cell r="AD48">
-            <v>148.8348581180623</v>
-          </cell>
-          <cell r="AE48">
-            <v>150.8348581180623</v>
-          </cell>
-          <cell r="AF48">
-            <v>152.8348581180623</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>2020</v>
-          </cell>
-          <cell r="B54">
-            <v>2021</v>
-          </cell>
-          <cell r="C54">
-            <v>2022</v>
-          </cell>
-          <cell r="D54">
-            <v>2023</v>
-          </cell>
-          <cell r="E54">
-            <v>2024</v>
-          </cell>
-          <cell r="F54">
-            <v>2025</v>
-          </cell>
-          <cell r="G54">
-            <v>2026</v>
-          </cell>
-          <cell r="H54">
-            <v>2027</v>
-          </cell>
-          <cell r="I54">
-            <v>2028</v>
-          </cell>
-          <cell r="J54">
-            <v>2029</v>
-          </cell>
-          <cell r="K54">
-            <v>2030</v>
-          </cell>
-          <cell r="L54">
-            <v>2031</v>
-          </cell>
-          <cell r="M54">
-            <v>2032</v>
-          </cell>
-          <cell r="N54">
-            <v>2033</v>
-          </cell>
-          <cell r="O54">
-            <v>2034</v>
-          </cell>
-          <cell r="P54">
-            <v>2035</v>
-          </cell>
-          <cell r="Q54">
-            <v>2036</v>
-          </cell>
-          <cell r="R54">
-            <v>2037</v>
-          </cell>
-          <cell r="S54">
-            <v>2038</v>
-          </cell>
-          <cell r="T54">
-            <v>2039</v>
-          </cell>
-          <cell r="U54">
-            <v>2040</v>
-          </cell>
-          <cell r="V54">
-            <v>2041</v>
-          </cell>
-          <cell r="W54">
-            <v>2042</v>
-          </cell>
-          <cell r="X54">
-            <v>2043</v>
-          </cell>
-          <cell r="Y54">
-            <v>2044</v>
-          </cell>
-          <cell r="Z54">
-            <v>2045</v>
-          </cell>
-          <cell r="AA54">
-            <v>2046</v>
-          </cell>
-          <cell r="AB54">
-            <v>2047</v>
-          </cell>
-          <cell r="AC54">
-            <v>2048</v>
-          </cell>
-          <cell r="AD54">
-            <v>2049</v>
-          </cell>
-          <cell r="AE54">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>24.983873327481177</v>
-          </cell>
-          <cell r="B55">
-            <v>35</v>
-          </cell>
-          <cell r="C55">
-            <v>35</v>
-          </cell>
-          <cell r="D55">
-            <v>35</v>
-          </cell>
-          <cell r="E55">
-            <v>35</v>
-          </cell>
-          <cell r="F55">
-            <v>35</v>
-          </cell>
-          <cell r="G55">
-            <v>38</v>
-          </cell>
-          <cell r="H55">
-            <v>41</v>
-          </cell>
-          <cell r="I55">
-            <v>44</v>
-          </cell>
-          <cell r="J55">
-            <v>47</v>
-          </cell>
-          <cell r="K55">
-            <v>50</v>
-          </cell>
-          <cell r="L55">
-            <v>52</v>
-          </cell>
-          <cell r="M55">
-            <v>54</v>
-          </cell>
-          <cell r="N55">
-            <v>56</v>
-          </cell>
-          <cell r="O55">
-            <v>58</v>
-          </cell>
-          <cell r="P55">
-            <v>60</v>
-          </cell>
-          <cell r="Q55">
-            <v>62</v>
-          </cell>
-          <cell r="R55">
-            <v>64</v>
-          </cell>
-          <cell r="S55">
-            <v>66</v>
-          </cell>
-          <cell r="T55">
-            <v>68</v>
-          </cell>
-          <cell r="U55">
-            <v>70</v>
-          </cell>
-          <cell r="V55">
-            <v>72</v>
-          </cell>
-          <cell r="W55">
-            <v>74</v>
-          </cell>
-          <cell r="X55">
-            <v>76</v>
-          </cell>
-          <cell r="Y55">
-            <v>78</v>
-          </cell>
-          <cell r="Z55">
-            <v>80</v>
-          </cell>
-          <cell r="AA55">
-            <v>82</v>
-          </cell>
-          <cell r="AB55">
-            <v>84</v>
-          </cell>
-          <cell r="AC55">
-            <v>86</v>
-          </cell>
-          <cell r="AD55">
-            <v>88</v>
-          </cell>
-          <cell r="AE55">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>0</v>
-          </cell>
-          <cell r="C90">
-            <v>0</v>
-          </cell>
-          <cell r="D90">
-            <v>0</v>
-          </cell>
-          <cell r="E90">
-            <v>0</v>
-          </cell>
-          <cell r="F90">
-            <v>0</v>
-          </cell>
-          <cell r="G90">
-            <v>8.5922699814955887</v>
-          </cell>
-          <cell r="H90">
-            <v>8.5922699814955887</v>
-          </cell>
-          <cell r="I90">
-            <v>8.5922699814955887</v>
-          </cell>
-          <cell r="J90">
-            <v>8.5922699814955887</v>
-          </cell>
-          <cell r="K90">
-            <v>18.56911486995098</v>
-          </cell>
-          <cell r="L90">
-            <v>28.545959758406376</v>
-          </cell>
-          <cell r="M90">
-            <v>38.522804646861765</v>
-          </cell>
-          <cell r="N90">
-            <v>48.499649535317161</v>
-          </cell>
-          <cell r="O90">
-            <v>58.476494423772557</v>
-          </cell>
-          <cell r="P90">
-            <v>66.515117829248467</v>
-          </cell>
-          <cell r="Q90">
-            <v>74.553741234724384</v>
-          </cell>
-          <cell r="R90">
-            <v>82.592364640200287</v>
-          </cell>
-          <cell r="S90">
-            <v>90.63098804567619</v>
-          </cell>
-          <cell r="T90">
-            <v>98.669611451152107</v>
-          </cell>
-          <cell r="U90">
-            <v>108.48077317930937</v>
-          </cell>
-          <cell r="V90">
-            <v>118.29193490746661</v>
-          </cell>
-          <cell r="W90">
-            <v>128.10309663562387</v>
-          </cell>
-          <cell r="X90">
-            <v>137.91425836378113</v>
-          </cell>
-          <cell r="Y90">
-            <v>147.72542009193839</v>
-          </cell>
-          <cell r="Z90">
-            <v>149.74742273978109</v>
-          </cell>
-          <cell r="AA90">
-            <v>151.76942538762378</v>
-          </cell>
-          <cell r="AB90">
-            <v>153.79142803546648</v>
-          </cell>
-          <cell r="AC90">
-            <v>155.81343068330918</v>
-          </cell>
-          <cell r="AD90">
-            <v>157.83543333115188</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>2022</v>
-          </cell>
-          <cell r="C111">
-            <v>2023</v>
-          </cell>
-          <cell r="D111">
-            <v>2024</v>
-          </cell>
-          <cell r="E111">
-            <v>2025</v>
-          </cell>
-          <cell r="F111">
-            <v>2026</v>
-          </cell>
-          <cell r="G111">
-            <v>2027</v>
-          </cell>
-          <cell r="H111">
-            <v>2028</v>
-          </cell>
-          <cell r="I111">
-            <v>2029</v>
-          </cell>
-          <cell r="J111">
-            <v>2030</v>
-          </cell>
-          <cell r="K111">
-            <v>2031</v>
-          </cell>
-          <cell r="L111">
-            <v>2032</v>
-          </cell>
-          <cell r="M111">
-            <v>2033</v>
-          </cell>
-          <cell r="N111">
-            <v>2034</v>
-          </cell>
-          <cell r="O111">
-            <v>2035</v>
-          </cell>
-          <cell r="P111">
-            <v>2036</v>
-          </cell>
-          <cell r="Q111">
-            <v>2037</v>
-          </cell>
-          <cell r="R111">
-            <v>2038</v>
-          </cell>
-          <cell r="S111">
-            <v>2039</v>
-          </cell>
-          <cell r="T111">
-            <v>2040</v>
-          </cell>
-          <cell r="U111">
-            <v>2041</v>
-          </cell>
-          <cell r="V111">
-            <v>2042</v>
-          </cell>
-          <cell r="W111">
-            <v>2043</v>
-          </cell>
-          <cell r="X111">
-            <v>2044</v>
-          </cell>
-          <cell r="Y111">
-            <v>2045</v>
-          </cell>
-          <cell r="Z111">
-            <v>2046</v>
-          </cell>
-          <cell r="AA111">
-            <v>2047</v>
-          </cell>
-          <cell r="AB111">
-            <v>2048</v>
-          </cell>
-          <cell r="AC111">
-            <v>2049</v>
-          </cell>
-          <cell r="AD111">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>70.777648219571262</v>
-          </cell>
-          <cell r="C113">
-            <v>73.311213204015658</v>
-          </cell>
-          <cell r="D113">
-            <v>61.573121384209628</v>
-          </cell>
-          <cell r="E113">
-            <v>67.726806142856148</v>
-          </cell>
-          <cell r="F113">
-            <v>79.740717770099934</v>
-          </cell>
-          <cell r="G113">
-            <v>87.618946176126954</v>
-          </cell>
-          <cell r="H113">
-            <v>94.934884535277575</v>
-          </cell>
-          <cell r="I113">
-            <v>102.92194327295809</v>
-          </cell>
-          <cell r="J113">
-            <v>112.83485811806231</v>
-          </cell>
-          <cell r="K113">
-            <v>114.83485811806231</v>
-          </cell>
-          <cell r="L113">
-            <v>116.83485811806231</v>
-          </cell>
-          <cell r="M113">
-            <v>118.83485811806231</v>
-          </cell>
-          <cell r="N113">
-            <v>120.83485811806231</v>
-          </cell>
-          <cell r="O113">
-            <v>122.83485811806231</v>
-          </cell>
-          <cell r="P113">
-            <v>124.83485811806231</v>
-          </cell>
-          <cell r="Q113">
-            <v>126.83485811806231</v>
-          </cell>
-          <cell r="R113">
-            <v>128.8348581180623</v>
-          </cell>
-          <cell r="S113">
-            <v>130.8348581180623</v>
-          </cell>
-          <cell r="T113">
-            <v>132.8348581180623</v>
-          </cell>
-          <cell r="U113">
-            <v>134.8348581180623</v>
-          </cell>
-          <cell r="V113">
-            <v>136.8348581180623</v>
-          </cell>
-          <cell r="W113">
-            <v>138.8348581180623</v>
-          </cell>
-          <cell r="X113">
-            <v>140.8348581180623</v>
-          </cell>
-          <cell r="Y113">
-            <v>147.72542009193839</v>
-          </cell>
-          <cell r="Z113">
-            <v>149.74742273978109</v>
-          </cell>
-          <cell r="AA113">
-            <v>151.76942538762378</v>
-          </cell>
-          <cell r="AB113">
-            <v>153.79142803546648</v>
-          </cell>
-          <cell r="AC113">
-            <v>155.81343068330918</v>
-          </cell>
-          <cell r="AD113">
-            <v>157.83543333115188</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -5125,80 +5281,80 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="B8" s="10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5215,17 +5371,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" s="6">
         <v>0.15</v>
       </c>
@@ -5233,7 +5389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="6">
         <v>0.82</v>
       </c>
@@ -5241,7 +5397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" s="6">
         <v>0.03</v>
       </c>
@@ -5249,17 +5405,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" s="7" customFormat="1">
       <c r="A6" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="45">
         <v>0.75</v>
       </c>
@@ -5267,7 +5423,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2">
       <c r="A9" s="45">
         <v>0.5</v>
       </c>
@@ -5275,12 +5431,12 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2">
       <c r="A10" s="45">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5290,25 +5446,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB292C4-FA3F-490E-990F-9DE99A151F61}">
-  <dimension ref="A1:AF115"/>
+  <dimension ref="A1:AF130"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W126" sqref="W126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" customWidth="1"/>
-    <col min="8" max="18" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" s="7" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>15</v>
       </c>
@@ -5318,8 +5488,8 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:29">
       <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
@@ -5345,8 +5515,11 @@
       </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="T3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="B4" s="20" t="s">
         <v>21</v>
       </c>
@@ -5370,6 +5543,12 @@
         <v>24</v>
       </c>
       <c r="R4" s="22"/>
+      <c r="T4">
+        <v>0.81612960000000001</v>
+      </c>
+      <c r="U4" t="s">
+        <v>121</v>
+      </c>
       <c r="AA4" s="14">
         <v>2020</v>
       </c>
@@ -5380,7 +5559,7 @@
         <v>23.88</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29">
       <c r="B5" s="20" t="s">
         <v>26</v>
       </c>
@@ -5426,7 +5605,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" ht="15.75" thickBot="1">
       <c r="B6" s="20" t="s">
         <v>33</v>
       </c>
@@ -5473,7 +5652,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" ht="15.75" thickBot="1">
       <c r="I7" s="27" t="s">
         <v>39</v>
       </c>
@@ -5498,7 +5677,7 @@
         <v>19.57</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29">
       <c r="B8" s="14" t="s">
         <v>42</v>
       </c>
@@ -5509,7 +5688,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29">
       <c r="B9" s="20" t="s">
         <v>44</v>
       </c>
@@ -5520,7 +5699,7 @@
         <v>26.97</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29">
       <c r="B10" s="20" t="s">
         <v>46</v>
       </c>
@@ -5531,7 +5710,7 @@
         <v>26.28</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29">
       <c r="B11" s="20" t="s">
         <v>48</v>
       </c>
@@ -5542,7 +5721,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29">
       <c r="AB12" t="s">
         <v>50</v>
       </c>
@@ -5550,7 +5729,7 @@
         <v>26.93</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29">
       <c r="B13" s="14" t="s">
         <v>51</v>
       </c>
@@ -5561,7 +5740,7 @@
         <v>23.71</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29">
       <c r="V14">
         <v>1.182841</v>
       </c>
@@ -5572,7 +5751,7 @@
         <v>29.14</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29">
       <c r="G15" s="1" t="s">
         <v>54</v>
       </c>
@@ -5583,7 +5762,7 @@
         <v>32.72</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29">
       <c r="G16" t="s">
         <v>56</v>
       </c>
@@ -5618,7 +5797,7 @@
         <v>32.950000000000003</v>
       </c>
     </row>
-    <row r="17" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:29">
       <c r="D17" s="34" t="s">
         <v>64</v>
       </c>
@@ -5672,7 +5851,7 @@
         <v>37.28</v>
       </c>
     </row>
-    <row r="18" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:29">
       <c r="G18">
         <v>2025</v>
       </c>
@@ -5726,7 +5905,7 @@
         <v>42.55</v>
       </c>
     </row>
-    <row r="19" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:29">
       <c r="G19">
         <v>2026</v>
       </c>
@@ -5784,7 +5963,7 @@
         <v>48.84</v>
       </c>
     </row>
-    <row r="20" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:29">
       <c r="G20">
         <v>2027</v>
       </c>
@@ -5842,7 +6021,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="21" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:29">
       <c r="G21">
         <v>2028</v>
       </c>
@@ -5900,7 +6079,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="22" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:29">
       <c r="G22">
         <v>2029</v>
       </c>
@@ -5958,7 +6137,7 @@
         <v>53.33</v>
       </c>
     </row>
-    <row r="23" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:29">
       <c r="G23">
         <v>2030</v>
       </c>
@@ -6015,7 +6194,7 @@
         <v>60.76</v>
       </c>
     </row>
-    <row r="24" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:29">
       <c r="AB24" t="s">
         <v>50</v>
       </c>
@@ -6023,7 +6202,7 @@
         <v>61.74</v>
       </c>
     </row>
-    <row r="25" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:29">
       <c r="AB25" t="s">
         <v>52</v>
       </c>
@@ -6031,7 +6210,7 @@
         <v>58.71</v>
       </c>
     </row>
-    <row r="26" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:29">
       <c r="AB26" t="s">
         <v>53</v>
       </c>
@@ -6039,7 +6218,7 @@
         <v>75.37</v>
       </c>
     </row>
-    <row r="27" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:29">
       <c r="AB27" t="s">
         <v>55</v>
       </c>
@@ -6047,7 +6226,7 @@
         <v>80.650000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32">
       <c r="B34" t="s">
         <v>67</v>
       </c>
@@ -6067,7 +6246,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32">
       <c r="B35">
         <v>2020</v>
       </c>
@@ -6080,7 +6259,7 @@
         <v>24.983873327481177</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32">
       <c r="B36">
         <v>2021</v>
       </c>
@@ -6094,7 +6273,7 @@
       </c>
       <c r="E36" s="38">
         <f>D36/MAX(D$38:D$45)</f>
-        <v>0.47413816765015843</v>
+        <v>0.51335915578298397</v>
       </c>
       <c r="F36" s="9" cm="1">
         <f t="array" ref="F36:F45">TRANSPOSE(B55:K55)</f>
@@ -6106,10 +6285,10 @@
       </c>
       <c r="H36" s="38">
         <f t="shared" ref="H36:H37" si="3">G36/MAX(G$38:G$45)</f>
-        <v>0.29441162802348897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.34122634743471542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32">
       <c r="B37">
         <v>2022</v>
       </c>
@@ -6122,7 +6301,7 @@
       </c>
       <c r="E37" s="38">
         <f t="shared" ref="E37:E45" si="4">D37/MAX(D$38:D$45)</f>
-        <v>0.62726757847751802</v>
+        <v>0.67915552155010683</v>
       </c>
       <c r="F37" s="9">
         <v>35</v>
@@ -6133,10 +6312,10 @@
       </c>
       <c r="H37" s="38">
         <f t="shared" si="3"/>
-        <v>0.56939172445249353</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.65993133389071579</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32">
       <c r="B38">
         <v>2023</v>
       </c>
@@ -6149,7 +6328,7 @@
       </c>
       <c r="E38" s="38">
         <f t="shared" si="4"/>
-        <v>0.64972132217606071</v>
+        <v>0.70346665213547743</v>
       </c>
       <c r="F38" s="9">
         <v>35</v>
@@ -6160,73 +6339,73 @@
       </c>
       <c r="H38" s="38">
         <f>G38/MAX(G$38:G$45)</f>
-        <v>0.60971273511959811</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.70666383317133052</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32">
       <c r="B39">
         <v>2024</v>
       </c>
       <c r="C39">
-        <v>74.11</v>
+        <v>63.96</v>
       </c>
       <c r="D39" s="37">
         <f>C39/M5</f>
-        <v>61.573121384209628</v>
+        <v>53.140154415518118</v>
       </c>
       <c r="E39" s="38">
         <f t="shared" si="4"/>
-        <v>0.5456923721194733</v>
+        <v>0.50991280715293363</v>
       </c>
       <c r="F39" s="9">
         <v>35</v>
       </c>
       <c r="G39" s="37">
         <f t="shared" si="2"/>
-        <v>26.573121384209628</v>
+        <v>18.140154415518118</v>
       </c>
       <c r="H39" s="38">
         <f t="shared" ref="H39:H45" si="5">G39/MAX(G$38:G$45)</f>
-        <v>0.42290413601763194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.3346015430345658</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32">
       <c r="B40">
         <v>2025</v>
       </c>
       <c r="C40">
-        <v>83.31</v>
+        <v>74</v>
       </c>
       <c r="D40" s="37">
         <f>C40/M6</f>
-        <v>67.726806142856148</v>
+        <v>60.158248164342268</v>
       </c>
       <c r="E40" s="38">
         <f t="shared" si="4"/>
-        <v>0.60022946164377389</v>
+        <v>0.57725577827686292</v>
       </c>
       <c r="F40" s="9">
         <v>35</v>
       </c>
       <c r="G40" s="37">
         <f t="shared" si="2"/>
-        <v>32.726806142856148</v>
+        <v>25.158248164342268</v>
       </c>
       <c r="H40" s="38">
         <f t="shared" si="5"/>
-        <v>0.52083838689290529</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.46405275627831644</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32">
       <c r="B41">
         <v>2026</v>
       </c>
       <c r="C41">
-        <v>100.13</v>
+        <v>92.48</v>
       </c>
       <c r="D41" s="37">
         <f>C41/(M6+(M7-M6)/5)</f>
-        <v>79.740717770099934</v>
+        <v>73.648472779175492</v>
       </c>
       <c r="E41" s="38">
         <f t="shared" si="4"/>
@@ -6237,20 +6416,20 @@
       </c>
       <c r="G41" s="37">
         <f t="shared" si="2"/>
-        <v>41.740717770099934</v>
+        <v>35.648472779175492</v>
       </c>
       <c r="H41" s="38">
         <f t="shared" si="5"/>
-        <v>0.66429238515462286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.65754864735516905</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32">
       <c r="B42">
         <v>2027</v>
       </c>
       <c r="D42" s="37">
         <f>D41*(1+U20)</f>
-        <v>87.618946176126954</v>
+        <v>80.924799184742042</v>
       </c>
       <c r="E42" s="38">
         <f t="shared" si="4"/>
@@ -6261,20 +6440,20 @@
       </c>
       <c r="G42" s="37">
         <f t="shared" si="2"/>
-        <v>46.618946176126954</v>
+        <v>39.924799184742042</v>
       </c>
       <c r="H42" s="38">
         <f t="shared" si="5"/>
-        <v>0.7419280885226669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.73642699541366086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32">
       <c r="B43">
         <v>2028</v>
       </c>
       <c r="D43" s="37">
         <f>D42*(1+U21)</f>
-        <v>94.934884535277575</v>
+        <v>87.681794884874364</v>
       </c>
       <c r="E43" s="38">
         <f t="shared" si="4"/>
@@ -6285,44 +6464,44 @@
       </c>
       <c r="G43" s="37">
         <f t="shared" si="2"/>
-        <v>50.934884535277575</v>
+        <v>43.681794884874364</v>
       </c>
       <c r="H43" s="38">
         <f t="shared" si="5"/>
-        <v>0.81061509583700309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.80572610553386537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32">
       <c r="B44">
         <v>2029</v>
       </c>
       <c r="D44" s="37">
         <f>D43*(1+U22)</f>
-        <v>102.92194327295809</v>
+        <v>95.05863691084754</v>
       </c>
       <c r="E44" s="38">
         <f t="shared" si="4"/>
-        <v>0.91214669818849725</v>
+        <v>0.91214669818849714</v>
       </c>
       <c r="F44" s="9">
         <v>47</v>
       </c>
       <c r="G44" s="37">
         <f t="shared" si="2"/>
-        <v>55.921943272958089</v>
+        <v>48.05863691084754</v>
       </c>
       <c r="H44" s="38">
         <f t="shared" si="5"/>
-        <v>0.88998280489286152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+        <v>0.88645849964492895</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32">
       <c r="B45">
         <v>2030</v>
       </c>
       <c r="D45" s="37">
         <f>D44*(1+U23)</f>
-        <v>112.83485811806231</v>
+        <v>104.21419832975535</v>
       </c>
       <c r="E45" s="38">
         <f t="shared" si="4"/>
@@ -6333,21 +6512,21 @@
       </c>
       <c r="G45" s="37">
         <f t="shared" si="2"/>
-        <v>62.834858118062314</v>
+        <v>54.214198329755348</v>
       </c>
       <c r="H45" s="38">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32">
       <c r="D46" s="37"/>
       <c r="E46" s="38"/>
       <c r="F46" s="9"/>
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -6445,9 +6624,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B48" s="37">
         <f>D35</f>
@@ -6465,244 +6644,366 @@
         <v>73.311213204015658</v>
       </c>
       <c r="F48" s="39">
-        <v>61.573121384209628</v>
+        <v>53.140154415518118</v>
       </c>
       <c r="G48" s="39">
-        <v>67.726806142856148</v>
+        <v>60.158248164342268</v>
       </c>
       <c r="H48" s="39">
-        <v>79.740717770099934</v>
+        <v>73.648472779175492</v>
       </c>
       <c r="I48" s="39">
-        <v>87.618946176126954</v>
+        <v>80.924799184742042</v>
       </c>
       <c r="J48" s="39">
-        <v>94.934884535277575</v>
+        <v>87.681794884874364</v>
       </c>
       <c r="K48" s="39">
-        <v>102.92194327295809</v>
+        <v>95.05863691084754</v>
       </c>
       <c r="L48" s="39">
-        <v>112.83485811806231</v>
+        <v>104.21419832975535</v>
       </c>
       <c r="M48" s="39">
         <f t="shared" ref="M48:AF48" si="6">L55+$G45</f>
-        <v>114.83485811806231</v>
+        <v>106.21419832975535</v>
       </c>
       <c r="N48" s="39">
-        <f t="shared" si="6"/>
-        <v>116.83485811806231</v>
+        <f>M55+$G45</f>
+        <v>108.21419832975535</v>
       </c>
       <c r="O48" s="39">
         <f t="shared" si="6"/>
-        <v>118.83485811806231</v>
+        <v>110.21419832975535</v>
       </c>
       <c r="P48" s="39">
-        <f t="shared" si="6"/>
-        <v>120.83485811806231</v>
+        <f>O55+$G45</f>
+        <v>112.21419832975535</v>
       </c>
       <c r="Q48" s="39">
         <f t="shared" si="6"/>
-        <v>122.83485811806231</v>
+        <v>114.21419832975535</v>
       </c>
       <c r="R48" s="39">
         <f t="shared" si="6"/>
-        <v>124.83485811806231</v>
+        <v>116.21419832975535</v>
       </c>
       <c r="S48" s="39">
         <f t="shared" si="6"/>
-        <v>126.83485811806231</v>
+        <v>118.21419832975535</v>
       </c>
       <c r="T48" s="39">
         <f t="shared" si="6"/>
-        <v>128.8348581180623</v>
+        <v>120.21419832975535</v>
       </c>
       <c r="U48" s="39">
         <f t="shared" si="6"/>
-        <v>130.8348581180623</v>
+        <v>122.21419832975535</v>
       </c>
       <c r="V48" s="39">
         <f t="shared" si="6"/>
-        <v>132.8348581180623</v>
+        <v>124.21419832975535</v>
       </c>
       <c r="W48" s="39">
         <f t="shared" si="6"/>
-        <v>134.8348581180623</v>
+        <v>126.21419832975535</v>
       </c>
       <c r="X48" s="39">
         <f t="shared" si="6"/>
-        <v>136.8348581180623</v>
+        <v>128.21419832975533</v>
       </c>
       <c r="Y48" s="39">
         <f t="shared" si="6"/>
-        <v>138.8348581180623</v>
+        <v>130.21419832975533</v>
       </c>
       <c r="Z48" s="39">
         <f t="shared" si="6"/>
-        <v>140.8348581180623</v>
+        <v>132.21419832975533</v>
       </c>
       <c r="AA48" s="39">
         <f t="shared" si="6"/>
-        <v>142.8348581180623</v>
+        <v>134.21419832975533</v>
       </c>
       <c r="AB48" s="39">
         <f t="shared" si="6"/>
-        <v>144.8348581180623</v>
+        <v>136.21419832975533</v>
       </c>
       <c r="AC48" s="39">
         <f t="shared" si="6"/>
-        <v>146.8348581180623</v>
+        <v>138.21419832975533</v>
       </c>
       <c r="AD48" s="39">
         <f t="shared" si="6"/>
-        <v>148.8348581180623</v>
+        <v>140.21419832975533</v>
       </c>
       <c r="AE48" s="39">
         <f t="shared" si="6"/>
-        <v>150.8348581180623</v>
+        <v>142.21419832975533</v>
       </c>
       <c r="AF48" s="39">
         <f t="shared" si="6"/>
-        <v>152.8348581180623</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+        <v>144.21419832975533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B49" s="40">
-        <f>B48*[4]About!$B51*[4]About!$B50</f>
-        <v>29.652512203379324</v>
+        <f>B48*$Q$5*$Q$6</f>
+        <v>25.127471701343662</v>
       </c>
       <c r="C49" s="40">
-        <f>C48*[4]About!$B51*[4]About!$B50</f>
-        <v>63.496520619892848</v>
+        <f t="shared" ref="C49:AF49" si="7">C48*$Q$5*$Q$6</f>
+        <v>53.806807803229269</v>
       </c>
       <c r="D49" s="40">
-        <f>D48*[4]About!$B51*[4]About!$B50</f>
-        <v>84.003591038416303</v>
+        <f>D48*$Q$5*$Q$6</f>
+        <v>71.184452843374814</v>
       </c>
       <c r="E49" s="40">
-        <f>E48*[4]About!$B51*[4]About!$B50</f>
-        <v>87.010593420895404</v>
+        <f t="shared" si="7"/>
+        <v>73.7325798537738</v>
       </c>
       <c r="F49" s="40">
-        <f>F48*[4]About!$B51*[4]About!$B50</f>
-        <v>73.079050206243807</v>
+        <f t="shared" si="7"/>
+        <v>53.445585029132225</v>
       </c>
       <c r="G49" s="40">
-        <f>G48*[4]About!$B51*[4]About!$B50</f>
-        <v>80.382650012795978</v>
+        <f t="shared" si="7"/>
+        <v>60.504016272336685</v>
       </c>
       <c r="H49" s="40">
-        <f>H48*[4]About!$B51*[4]About!$B50</f>
-        <v>94.641554405547438</v>
+        <f t="shared" si="7"/>
+        <v>74.071777876424449</v>
       </c>
       <c r="I49" s="40">
-        <f>I48*[4]About!$B51*[4]About!$B50</f>
-        <v>103.9919565985399</v>
+        <f t="shared" si="7"/>
+        <v>81.389926005381781</v>
       </c>
       <c r="J49" s="40">
-        <f>J48*[4]About!$B51*[4]About!$B50</f>
-        <v>112.67499579868122</v>
+        <f t="shared" si="7"/>
+        <v>88.185758501635206</v>
       </c>
       <c r="K49" s="40">
-        <f>K48*[4]About!$B51*[4]About!$B50</f>
-        <v>122.15456502254808</v>
+        <f t="shared" si="7"/>
+        <v>95.604999978857791</v>
       </c>
       <c r="L49" s="40">
-        <f>L48*[4]About!$B51*[4]About!$B50</f>
-        <v>133.91986756641703</v>
+        <f t="shared" si="7"/>
+        <v>104.81318429231523</v>
       </c>
       <c r="M49" s="40">
-        <f>M48*[4]About!$B51*[4]About!$B50</f>
-        <v>136.2935997587559</v>
+        <f t="shared" si="7"/>
+        <v>106.82467957745219</v>
       </c>
       <c r="N49" s="40">
-        <f>N48*[4]About!$B51*[4]About!$B50</f>
-        <v>138.66733195109475</v>
+        <f t="shared" si="7"/>
+        <v>108.83617486258913</v>
       </c>
       <c r="O49" s="40">
-        <f>O48*[4]About!$B51*[4]About!$B50</f>
-        <v>141.04106414343363</v>
+        <f>O48*$Q$5*$Q$6</f>
+        <v>110.84767014772609</v>
       </c>
       <c r="P49" s="40">
-        <f>P48*[4]About!$B51*[4]About!$B50</f>
-        <v>143.41479633577254</v>
+        <f t="shared" si="7"/>
+        <v>112.85916543286305</v>
       </c>
       <c r="Q49" s="40">
-        <f>Q48*[4]About!$B51*[4]About!$B50</f>
-        <v>145.78852852811141</v>
+        <f t="shared" si="7"/>
+        <v>114.87066071800001</v>
       </c>
       <c r="R49" s="40">
-        <f>R48*[4]About!$B51*[4]About!$B50</f>
-        <v>148.16226072045026</v>
+        <f t="shared" si="7"/>
+        <v>116.88215600313697</v>
       </c>
       <c r="S49" s="40">
-        <f>S48*[4]About!$B51*[4]About!$B50</f>
-        <v>150.53599291278914</v>
+        <f t="shared" si="7"/>
+        <v>118.89365128827393</v>
       </c>
       <c r="T49" s="40">
-        <f>T48*[4]About!$B51*[4]About!$B50</f>
-        <v>152.90972510512802</v>
+        <f t="shared" si="7"/>
+        <v>120.90514657341089</v>
       </c>
       <c r="U49" s="40">
-        <f>U48*[4]About!$B51*[4]About!$B50</f>
-        <v>155.2834572974669</v>
+        <f t="shared" si="7"/>
+        <v>122.91664185854785</v>
       </c>
       <c r="V49" s="40">
-        <f>V48*[4]About!$B51*[4]About!$B50</f>
-        <v>157.65718948980575</v>
+        <f t="shared" si="7"/>
+        <v>124.92813714368478</v>
       </c>
       <c r="W49" s="40">
-        <f>W48*[4]About!$B51*[4]About!$B50</f>
-        <v>160.03092168214462</v>
+        <f t="shared" si="7"/>
+        <v>126.93963242882174</v>
       </c>
       <c r="X49" s="40">
-        <f>X48*[4]About!$B51*[4]About!$B50</f>
-        <v>162.4046538744835</v>
+        <f t="shared" si="7"/>
+        <v>128.9511277139587</v>
       </c>
       <c r="Y49" s="40">
-        <f>Y48*[4]About!$B51*[4]About!$B50</f>
-        <v>164.77838606682241</v>
+        <f t="shared" si="7"/>
+        <v>130.96262299909566</v>
       </c>
       <c r="Z49" s="40">
-        <f>Z48*[4]About!$B51*[4]About!$B50</f>
-        <v>167.15211825916126</v>
+        <f t="shared" si="7"/>
+        <v>132.97411828423259</v>
       </c>
       <c r="AA49" s="40">
-        <f>AA48*[4]About!$B51*[4]About!$B50</f>
-        <v>169.52585045150013</v>
+        <f t="shared" si="7"/>
+        <v>134.98561356936955</v>
       </c>
       <c r="AB49" s="40">
-        <f>AB48*[4]About!$B51*[4]About!$B50</f>
-        <v>171.89958264383901</v>
+        <f t="shared" si="7"/>
+        <v>136.99710885450651</v>
       </c>
       <c r="AC49" s="40">
-        <f>AC48*[4]About!$B51*[4]About!$B50</f>
-        <v>174.27331483617789</v>
+        <f t="shared" si="7"/>
+        <v>139.00860413964347</v>
       </c>
       <c r="AD49" s="40">
-        <f>AD48*[4]About!$B51*[4]About!$B50</f>
-        <v>176.64704702851677</v>
+        <f t="shared" si="7"/>
+        <v>141.0200994247804</v>
       </c>
       <c r="AE49" s="40">
-        <f>AE48*[4]About!$B51*[4]About!$B50</f>
-        <v>179.02077922085564</v>
+        <f t="shared" si="7"/>
+        <v>143.03159470991736</v>
       </c>
       <c r="AF49" s="40">
-        <f>AF48*[4]About!$B51*[4]About!$B50</f>
-        <v>181.39451141319449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="38"/>
-    </row>
-    <row r="51" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>145.04308999505432</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32">
+      <c r="A50" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="37">
+        <f>B48/$T$4</f>
+        <v>30.612629816981489</v>
+      </c>
+      <c r="C50" s="37">
+        <f t="shared" ref="C50:AF50" si="8">C48/$T$4</f>
+        <v>65.552472150457064</v>
+      </c>
+      <c r="D50" s="37">
+        <f t="shared" si="8"/>
+        <v>86.723540255826109</v>
+      </c>
+      <c r="E50" s="37">
+        <f t="shared" si="8"/>
+        <v>89.827906259025113</v>
+      </c>
+      <c r="F50" s="37">
+        <f t="shared" si="8"/>
+        <v>65.112396873631482</v>
+      </c>
+      <c r="G50" s="37">
+        <f t="shared" si="8"/>
+        <v>73.711636196435308</v>
+      </c>
+      <c r="H50" s="37">
+        <f t="shared" si="8"/>
+        <v>90.241148929257676</v>
+      </c>
+      <c r="I50" s="37">
+        <f t="shared" si="8"/>
+        <v>99.15679958764153</v>
+      </c>
+      <c r="J50" s="37">
+        <f t="shared" si="8"/>
+        <v>107.43611662274516</v>
+      </c>
+      <c r="K50" s="37">
+        <f t="shared" si="8"/>
+        <v>116.47492862757035</v>
+      </c>
+      <c r="L50" s="37">
+        <f t="shared" si="8"/>
+        <v>127.69319766095403</v>
+      </c>
+      <c r="M50" s="37">
+        <f t="shared" si="8"/>
+        <v>130.14378884157043</v>
+      </c>
+      <c r="N50" s="37">
+        <f t="shared" si="8"/>
+        <v>132.59438002218684</v>
+      </c>
+      <c r="O50" s="37">
+        <f t="shared" si="8"/>
+        <v>135.04497120280325</v>
+      </c>
+      <c r="P50" s="37">
+        <f t="shared" si="8"/>
+        <v>137.49556238341967</v>
+      </c>
+      <c r="Q50" s="37">
+        <f t="shared" si="8"/>
+        <v>139.94615356403608</v>
+      </c>
+      <c r="R50" s="37">
+        <f t="shared" si="8"/>
+        <v>142.39674474465249</v>
+      </c>
+      <c r="S50" s="37">
+        <f t="shared" si="8"/>
+        <v>144.84733592526891</v>
+      </c>
+      <c r="T50" s="37">
+        <f t="shared" si="8"/>
+        <v>147.29792710588532</v>
+      </c>
+      <c r="U50" s="37">
+        <f t="shared" si="8"/>
+        <v>149.74851828650174</v>
+      </c>
+      <c r="V50" s="37">
+        <f t="shared" si="8"/>
+        <v>152.19910946711815</v>
+      </c>
+      <c r="W50" s="37">
+        <f t="shared" si="8"/>
+        <v>154.64970064773456</v>
+      </c>
+      <c r="X50" s="37">
+        <f t="shared" si="8"/>
+        <v>157.10029182835095</v>
+      </c>
+      <c r="Y50" s="37">
+        <f t="shared" si="8"/>
+        <v>159.55088300896736</v>
+      </c>
+      <c r="Z50" s="37">
+        <f t="shared" si="8"/>
+        <v>162.00147418958377</v>
+      </c>
+      <c r="AA50" s="37">
+        <f t="shared" si="8"/>
+        <v>164.45206537020019</v>
+      </c>
+      <c r="AB50" s="37">
+        <f t="shared" si="8"/>
+        <v>166.9026565508166</v>
+      </c>
+      <c r="AC50" s="37">
+        <f t="shared" si="8"/>
+        <v>169.35324773143302</v>
+      </c>
+      <c r="AD50" s="37">
+        <f t="shared" si="8"/>
+        <v>171.80383891204943</v>
+      </c>
+      <c r="AE50" s="37">
+        <f t="shared" si="8"/>
+        <v>174.25443009266584</v>
+      </c>
+      <c r="AF50" s="37">
+        <f t="shared" si="8"/>
+        <v>176.70502127328226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="7" customFormat="1">
       <c r="A51" s="10" t="s">
         <v>76</v>
       </c>
@@ -6712,14 +7013,14 @@
       <c r="G51" s="11"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32">
       <c r="D52" s="37"/>
       <c r="E52" s="38"/>
       <c r="F52" s="9"/>
       <c r="G52" s="37"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32">
       <c r="B53" s="1" t="s">
         <v>77</v>
       </c>
@@ -6729,7 +7030,7 @@
       <c r="H53" s="37"/>
       <c r="I53" s="38"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -6824,7 +7125,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32">
       <c r="A55" s="37">
         <f>D35</f>
         <v>24.983873327481177</v>
@@ -6920,12 +7221,130 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32">
+      <c r="C56" s="37">
+        <f>C55*$F$6</f>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="D56" s="37">
+        <f t="shared" ref="D56:AE56" si="9">D55*$F$6</f>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="E56" s="37">
+        <f t="shared" si="9"/>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="F56" s="37">
+        <f t="shared" si="9"/>
+        <v>41.139000000000003</v>
+      </c>
+      <c r="G56" s="37">
+        <f t="shared" si="9"/>
+        <v>44.665199999999999</v>
+      </c>
+      <c r="H56" s="37">
+        <f t="shared" si="9"/>
+        <v>48.191400000000002</v>
+      </c>
+      <c r="I56" s="37">
+        <f t="shared" si="9"/>
+        <v>51.717599999999997</v>
+      </c>
+      <c r="J56" s="37">
+        <f t="shared" si="9"/>
+        <v>55.2438</v>
+      </c>
+      <c r="K56" s="37">
+        <f t="shared" si="9"/>
+        <v>58.77</v>
+      </c>
+      <c r="L56" s="37">
+        <f t="shared" si="9"/>
+        <v>61.120800000000003</v>
+      </c>
+      <c r="M56" s="37">
+        <f t="shared" si="9"/>
+        <v>63.471600000000002</v>
+      </c>
+      <c r="N56" s="37">
+        <f t="shared" si="9"/>
+        <v>65.822400000000002</v>
+      </c>
+      <c r="O56" s="37">
+        <f t="shared" si="9"/>
+        <v>68.173199999999994</v>
+      </c>
+      <c r="P56" s="37">
+        <f t="shared" si="9"/>
+        <v>70.524000000000001</v>
+      </c>
+      <c r="Q56" s="37">
+        <f t="shared" si="9"/>
+        <v>72.874799999999993</v>
+      </c>
+      <c r="R56" s="37">
+        <f t="shared" si="9"/>
+        <v>75.2256</v>
+      </c>
+      <c r="S56" s="37">
+        <f t="shared" si="9"/>
+        <v>77.576400000000007</v>
+      </c>
+      <c r="T56" s="37">
+        <f t="shared" si="9"/>
+        <v>79.927199999999999</v>
+      </c>
+      <c r="U56" s="37">
+        <f t="shared" si="9"/>
+        <v>82.278000000000006</v>
+      </c>
+      <c r="V56" s="37">
+        <f t="shared" si="9"/>
+        <v>84.628799999999998</v>
+      </c>
+      <c r="W56" s="37">
+        <f t="shared" si="9"/>
+        <v>86.979600000000005</v>
+      </c>
+      <c r="X56" s="37">
+        <f t="shared" si="9"/>
+        <v>89.330399999999997</v>
+      </c>
+      <c r="Y56" s="37">
+        <f t="shared" si="9"/>
+        <v>91.681200000000004</v>
+      </c>
+      <c r="Z56" s="37">
+        <f t="shared" si="9"/>
+        <v>94.031999999999996</v>
+      </c>
+      <c r="AA56" s="37">
+        <f t="shared" si="9"/>
+        <v>96.382800000000003</v>
+      </c>
+      <c r="AB56" s="37">
+        <f t="shared" si="9"/>
+        <v>98.733599999999996</v>
+      </c>
+      <c r="AC56" s="37">
+        <f t="shared" si="9"/>
+        <v>101.0844</v>
+      </c>
+      <c r="AD56" s="37">
+        <f t="shared" si="9"/>
+        <v>103.43519999999999</v>
+      </c>
+      <c r="AE56" s="37">
+        <f t="shared" si="9"/>
+        <v>105.786</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32">
       <c r="B57" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32">
       <c r="B58" t="s">
         <v>73</v>
       </c>
@@ -7017,772 +7436,772 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32">
       <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D59">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E59">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F59">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G59">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H59">
+        <v>41.2</v>
+      </c>
+      <c r="I59">
+        <v>44.3</v>
+      </c>
+      <c r="J59">
+        <v>47.3</v>
+      </c>
+      <c r="K59">
+        <v>50.3</v>
+      </c>
+      <c r="L59">
+        <v>52.3</v>
+      </c>
+      <c r="M59">
+        <v>54.3</v>
+      </c>
+      <c r="N59">
+        <v>56.3</v>
+      </c>
+      <c r="O59">
+        <v>58.3</v>
+      </c>
+      <c r="P59">
+        <v>60.3</v>
+      </c>
+      <c r="Q59">
+        <v>62.4</v>
+      </c>
+      <c r="R59">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="S59">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="T59">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="U59">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="V59">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="W59">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="X59">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Y59">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Z59">
+        <v>80.5</v>
+      </c>
+      <c r="AA59">
+        <v>82.5</v>
+      </c>
+      <c r="AB59">
+        <v>84.5</v>
+      </c>
+      <c r="AC59">
+        <v>86.5</v>
+      </c>
+      <c r="AD59">
+        <v>88.5</v>
+      </c>
+      <c r="AE59">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32">
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D60">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E60">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F60">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G60">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H60">
+        <v>41.2</v>
+      </c>
+      <c r="I60">
+        <v>44.3</v>
+      </c>
+      <c r="J60">
+        <v>47.3</v>
+      </c>
+      <c r="K60">
+        <v>50.3</v>
+      </c>
+      <c r="L60">
+        <v>52.3</v>
+      </c>
+      <c r="M60">
+        <v>54.3</v>
+      </c>
+      <c r="N60">
+        <v>56.3</v>
+      </c>
+      <c r="O60">
+        <v>58.3</v>
+      </c>
+      <c r="P60">
+        <v>60.3</v>
+      </c>
+      <c r="Q60">
+        <v>62.4</v>
+      </c>
+      <c r="R60">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="S60">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="T60">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="U60">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="V60">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="W60">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="X60">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Y60">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Z60">
+        <v>80.5</v>
+      </c>
+      <c r="AA60">
+        <v>82.5</v>
+      </c>
+      <c r="AB60">
+        <v>84.5</v>
+      </c>
+      <c r="AC60">
+        <v>86.5</v>
+      </c>
+      <c r="AD60">
+        <v>88.5</v>
+      </c>
+      <c r="AE60">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32">
+      <c r="B61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32">
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32">
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D63">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E63">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F63">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G63">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H63">
+        <v>41.2</v>
+      </c>
+      <c r="I63">
+        <v>44.3</v>
+      </c>
+      <c r="J63">
+        <v>47.3</v>
+      </c>
+      <c r="K63">
+        <v>50.3</v>
+      </c>
+      <c r="L63">
+        <v>52.3</v>
+      </c>
+      <c r="M63">
+        <v>54.3</v>
+      </c>
+      <c r="N63">
+        <v>56.3</v>
+      </c>
+      <c r="O63">
+        <v>58.3</v>
+      </c>
+      <c r="P63">
+        <v>60.3</v>
+      </c>
+      <c r="Q63">
+        <v>62.4</v>
+      </c>
+      <c r="R63">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="S63">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="T63">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="U63">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="V63">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="W63">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="X63">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Y63">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Z63">
+        <v>80.5</v>
+      </c>
+      <c r="AA63">
+        <v>82.5</v>
+      </c>
+      <c r="AB63">
+        <v>84.5</v>
+      </c>
+      <c r="AC63">
+        <v>86.5</v>
+      </c>
+      <c r="AD63">
+        <v>88.5</v>
+      </c>
+      <c r="AE63">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32">
+      <c r="B64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D64">
+        <v>17.5</v>
+      </c>
+      <c r="E64">
+        <v>17</v>
+      </c>
+      <c r="F64">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G64">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H64">
+        <v>18.3</v>
+      </c>
+      <c r="I64">
+        <v>19.5</v>
+      </c>
+      <c r="J64">
+        <v>21.3</v>
+      </c>
+      <c r="K64">
+        <v>25.3</v>
+      </c>
+      <c r="L64">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="M64">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="N64">
+        <v>46.2</v>
+      </c>
+      <c r="O64">
+        <v>52.7</v>
+      </c>
+      <c r="P64">
+        <v>60.3</v>
+      </c>
+      <c r="Q64">
+        <v>62.4</v>
+      </c>
+      <c r="R64">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="S64">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="T64">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="U64">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="V64">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="W64">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="X64">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="Y64">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="Z64">
+        <v>80.5</v>
+      </c>
+      <c r="AA64">
+        <v>82.5</v>
+      </c>
+      <c r="AB64">
+        <v>84.5</v>
+      </c>
+      <c r="AC64">
+        <v>86.5</v>
+      </c>
+      <c r="AD64">
+        <v>88.5</v>
+      </c>
+      <c r="AE64">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
+      <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
+      <c r="B66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" s="10" customFormat="1">
+      <c r="A68" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C59">
-        <v>41.5</v>
-      </c>
-      <c r="D59">
-        <v>41.5</v>
-      </c>
-      <c r="E59">
-        <v>41.5</v>
-      </c>
-      <c r="F59">
-        <v>41.5</v>
-      </c>
-      <c r="G59">
-        <v>45.1</v>
-      </c>
-      <c r="H59">
-        <v>48.7</v>
-      </c>
-      <c r="I59">
-        <v>52.2</v>
-      </c>
-      <c r="J59">
-        <v>55.8</v>
-      </c>
-      <c r="K59">
-        <v>59.3</v>
-      </c>
-      <c r="L59">
-        <v>61.7</v>
-      </c>
-      <c r="M59">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="N59">
-        <v>66.5</v>
-      </c>
-      <c r="O59">
-        <v>68.8</v>
-      </c>
-      <c r="P59">
-        <v>71.2</v>
-      </c>
-      <c r="Q59">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="R59">
-        <v>76</v>
-      </c>
-      <c r="S59">
-        <v>78.3</v>
-      </c>
-      <c r="T59">
-        <v>80.7</v>
-      </c>
-      <c r="U59">
-        <v>83.1</v>
-      </c>
-      <c r="V59">
-        <v>85.5</v>
-      </c>
-      <c r="W59">
-        <v>87.8</v>
-      </c>
-      <c r="X59">
-        <v>90.2</v>
-      </c>
-      <c r="Y59">
-        <v>92.6</v>
-      </c>
-      <c r="Z59">
-        <v>94.9</v>
-      </c>
-      <c r="AA59">
-        <v>97.3</v>
-      </c>
-      <c r="AB59">
-        <v>99.7</v>
-      </c>
-      <c r="AC59">
-        <v>102.1</v>
-      </c>
-      <c r="AD59">
-        <v>104.4</v>
-      </c>
-      <c r="AE59">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B60" t="s">
+    </row>
+    <row r="69" spans="1:31">
+      <c r="A69" t="s">
         <v>80</v>
       </c>
-      <c r="C60">
-        <v>41.5</v>
-      </c>
-      <c r="D60">
-        <v>41.5</v>
-      </c>
-      <c r="E60">
-        <v>41.5</v>
-      </c>
-      <c r="F60">
-        <v>41.5</v>
-      </c>
-      <c r="G60">
-        <v>45.1</v>
-      </c>
-      <c r="H60">
-        <v>48.7</v>
-      </c>
-      <c r="I60">
-        <v>52.2</v>
-      </c>
-      <c r="J60">
-        <v>55.8</v>
-      </c>
-      <c r="K60">
-        <v>59.3</v>
-      </c>
-      <c r="L60">
-        <v>61.7</v>
-      </c>
-      <c r="M60">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="N60">
-        <v>66.5</v>
-      </c>
-      <c r="O60">
-        <v>68.8</v>
-      </c>
-      <c r="P60">
-        <v>71.2</v>
-      </c>
-      <c r="Q60">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="R60">
-        <v>76</v>
-      </c>
-      <c r="S60">
-        <v>78.3</v>
-      </c>
-      <c r="T60">
-        <v>80.7</v>
-      </c>
-      <c r="U60">
-        <v>83.1</v>
-      </c>
-      <c r="V60">
-        <v>85.5</v>
-      </c>
-      <c r="W60">
-        <v>87.8</v>
-      </c>
-      <c r="X60">
-        <v>90.2</v>
-      </c>
-      <c r="Y60">
-        <v>92.6</v>
-      </c>
-      <c r="Z60">
-        <v>94.9</v>
-      </c>
-      <c r="AA60">
-        <v>97.3</v>
-      </c>
-      <c r="AB60">
-        <v>99.7</v>
-      </c>
-      <c r="AC60">
-        <v>102.1</v>
-      </c>
-      <c r="AD60">
-        <v>104.4</v>
-      </c>
-      <c r="AE60">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
+    </row>
+    <row r="71" spans="1:31">
+      <c r="D71" t="s">
         <v>81</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <v>0</v>
-      </c>
-      <c r="AD61">
-        <v>0</v>
-      </c>
-      <c r="AE61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <v>0</v>
-      </c>
-      <c r="AD62">
-        <v>0</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63">
-        <v>41.5</v>
-      </c>
-      <c r="D63">
-        <v>41.5</v>
-      </c>
-      <c r="E63">
-        <v>41.5</v>
-      </c>
-      <c r="F63">
-        <v>41.5</v>
-      </c>
-      <c r="G63">
-        <v>45.1</v>
-      </c>
-      <c r="H63">
-        <v>48.7</v>
-      </c>
-      <c r="I63">
-        <v>52.2</v>
-      </c>
-      <c r="J63">
-        <v>55.8</v>
-      </c>
-      <c r="K63">
-        <v>59.3</v>
-      </c>
-      <c r="L63">
-        <v>61.7</v>
-      </c>
-      <c r="M63">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="N63">
-        <v>66.5</v>
-      </c>
-      <c r="O63">
-        <v>68.8</v>
-      </c>
-      <c r="P63">
-        <v>71.2</v>
-      </c>
-      <c r="Q63">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="R63">
-        <v>76</v>
-      </c>
-      <c r="S63">
-        <v>78.3</v>
-      </c>
-      <c r="T63">
-        <v>80.7</v>
-      </c>
-      <c r="U63">
-        <v>83.1</v>
-      </c>
-      <c r="V63">
-        <v>85.5</v>
-      </c>
-      <c r="W63">
-        <v>87.8</v>
-      </c>
-      <c r="X63">
-        <v>90.2</v>
-      </c>
-      <c r="Y63">
-        <v>92.6</v>
-      </c>
-      <c r="Z63">
-        <v>94.9</v>
-      </c>
-      <c r="AA63">
-        <v>97.3</v>
-      </c>
-      <c r="AB63">
-        <v>99.7</v>
-      </c>
-      <c r="AC63">
-        <v>102.1</v>
-      </c>
-      <c r="AD63">
-        <v>104.4</v>
-      </c>
-      <c r="AE63">
-        <v>106.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <v>0</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>0</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>0</v>
-      </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <v>0</v>
-      </c>
-      <c r="AD66">
-        <v>0</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="D71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:31">
       <c r="D72" t="s">
         <v>67</v>
       </c>
       <c r="E72" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="D73">
         <v>2030</v>
       </c>
@@ -7798,7 +8217,7 @@
         <v>8.5922699814955887</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:31">
       <c r="D74">
         <v>2035</v>
       </c>
@@ -7810,11 +8229,11 @@
         <v>0.62881217380368482</v>
       </c>
       <c r="G74" s="39">
-        <f t="shared" ref="G74:G77" si="7">E74*F74</f>
+        <f t="shared" ref="G74:G77" si="10">E74*F74</f>
         <v>58.476494423772557</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:31">
       <c r="D75">
         <v>2040</v>
       </c>
@@ -7826,11 +8245,11 @@
         <v>0.55577168899016283</v>
       </c>
       <c r="G75" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>98.669611451152107</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:31">
       <c r="D76">
         <v>2045</v>
       </c>
@@ -7842,11 +8261,11 @@
         <v>0.49123151741415733</v>
       </c>
       <c r="G76" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>147.72542009193839</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:31">
       <c r="D77">
         <v>2050</v>
       </c>
@@ -7858,23 +8277,23 @@
         <v>0.43417853421326852</v>
       </c>
       <c r="G77" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>157.83543333115188</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:31">
       <c r="F78" s="14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G78" s="39"/>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:32">
       <c r="H87" s="42"/>
       <c r="I87" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" t="s">
         <v>73</v>
       </c>
@@ -7966,7 +8385,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32">
       <c r="A90" t="s">
         <v>74</v>
       </c>
@@ -7990,15 +8409,15 @@
         <v>8.5922699814955887</v>
       </c>
       <c r="H90" s="43">
-        <f t="shared" ref="H90:J90" si="8">$G73</f>
+        <f t="shared" ref="H90:J90" si="11">$G73</f>
         <v>8.5922699814955887</v>
       </c>
       <c r="I90" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.5922699814955887</v>
       </c>
       <c r="J90" s="43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.5922699814955887</v>
       </c>
       <c r="K90" s="39">
@@ -8006,15 +8425,15 @@
         <v>18.56911486995098</v>
       </c>
       <c r="L90" s="39">
-        <f t="shared" ref="L90:N90" si="9">$J90+($O90-$J90)*(L89-$J89)/5</f>
+        <f t="shared" ref="L90:N90" si="12">$J90+($O90-$J90)*(L89-$J89)/5</f>
         <v>28.545959758406376</v>
       </c>
       <c r="M90" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>38.522804646861765</v>
       </c>
       <c r="N90" s="39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>48.499649535317161</v>
       </c>
       <c r="O90" s="43">
@@ -8026,15 +8445,15 @@
         <v>66.515117829248467</v>
       </c>
       <c r="Q90" s="39">
-        <f t="shared" ref="Q90:S90" si="10">$O90+($T90-$O90)*(Q89-$O89)/5</f>
+        <f t="shared" ref="Q90:S90" si="13">$O90+($T90-$O90)*(Q89-$O89)/5</f>
         <v>74.553741234724384</v>
       </c>
       <c r="R90" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>82.592364640200287</v>
       </c>
       <c r="S90" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>90.63098804567619</v>
       </c>
       <c r="T90" s="43">
@@ -8046,15 +8465,15 @@
         <v>108.48077317930937</v>
       </c>
       <c r="V90" s="39">
-        <f t="shared" ref="V90:X90" si="11">$T90+($Y90-$T90)*(V89-$T89)/5</f>
+        <f t="shared" ref="V90:X90" si="14">$T90+($Y90-$T90)*(V89-$T89)/5</f>
         <v>118.29193490746661</v>
       </c>
       <c r="W90" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>128.10309663562387</v>
       </c>
       <c r="X90" s="39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>137.91425836378113</v>
       </c>
       <c r="Y90" s="43">
@@ -8066,15 +8485,15 @@
         <v>149.74742273978109</v>
       </c>
       <c r="AA90" s="39">
-        <f t="shared" ref="AA90:AC90" si="12">$Y90+($AD90-$Y90)*(AA89-$Y89)/5</f>
+        <f t="shared" ref="AA90:AC90" si="15">$Y90+($AD90-$Y90)*(AA89-$Y89)/5</f>
         <v>151.76942538762378</v>
       </c>
       <c r="AB90" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>153.79142803546648</v>
       </c>
       <c r="AC90" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>155.81343068330918</v>
       </c>
       <c r="AD90" s="43">
@@ -8082,133 +8501,256 @@
         <v>157.83543333115188</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:32">
       <c r="A91" t="s">
         <v>75</v>
       </c>
       <c r="B91">
-        <f>B90*[4]About!$B51*[4]About!$B50</f>
+        <f>B90*$Q$5*$Q$6</f>
         <v>0</v>
       </c>
       <c r="C91">
-        <f>C90*[4]About!$B51*[4]About!$B50</f>
+        <f t="shared" ref="C91:AD91" si="16">C90*$Q$5*$Q$6</f>
         <v>0</v>
       </c>
       <c r="D91">
-        <f>D90*[4]About!$B51*[4]About!$B50</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f>E90*[4]About!$B51*[4]About!$B50</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F91">
-        <f>F90*[4]About!$B51*[4]About!$B50</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G91" s="44">
-        <f>G90*[4]About!$B51*[4]About!$B50</f>
-        <v>10.197873930171518</v>
+        <f t="shared" si="16"/>
+        <v>8.6416552782010854</v>
       </c>
       <c r="H91" s="44">
-        <f>H90*[4]About!$B51*[4]About!$B50</f>
-        <v>10.197873930171518</v>
+        <f t="shared" si="16"/>
+        <v>8.6416552782010854</v>
       </c>
       <c r="I91" s="44">
-        <f>I90*[4]About!$B51*[4]About!$B50</f>
-        <v>10.197873930171518</v>
+        <f t="shared" si="16"/>
+        <v>8.6416552782010854</v>
       </c>
       <c r="J91" s="44">
-        <f>J90*[4]About!$B51*[4]About!$B50</f>
-        <v>10.197873930171518</v>
+        <f t="shared" si="16"/>
+        <v>8.6416552782010854</v>
       </c>
       <c r="K91" s="44">
-        <f>K90*[4]About!$B51*[4]About!$B50</f>
-        <v>22.039052875020577</v>
+        <f t="shared" si="16"/>
+        <v>18.675843505036465</v>
       </c>
       <c r="L91" s="44">
-        <f>L90*[4]About!$B51*[4]About!$B50</f>
-        <v>33.880231819869643</v>
+        <f t="shared" si="16"/>
+        <v>28.710031731871844</v>
       </c>
       <c r="M91" s="44">
-        <f>M90*[4]About!$B51*[4]About!$B50</f>
-        <v>45.721410764718705</v>
+        <f t="shared" si="16"/>
+        <v>38.74421995870722</v>
       </c>
       <c r="N91" s="44">
-        <f>N90*[4]About!$B51*[4]About!$B50</f>
-        <v>57.562589709567767</v>
+        <f t="shared" si="16"/>
+        <v>48.778408185542595</v>
       </c>
       <c r="O91" s="44">
-        <f>O90*[4]About!$B51*[4]About!$B50</f>
-        <v>69.403768654416837</v>
+        <f t="shared" si="16"/>
+        <v>58.812596412377978</v>
       </c>
       <c r="P91" s="44">
-        <f>P90*[4]About!$B51*[4]About!$B50</f>
-        <v>78.944538234250288</v>
+        <f t="shared" si="16"/>
+        <v>66.897422951931176</v>
       </c>
       <c r="Q91" s="44">
-        <f>Q90*[4]About!$B51*[4]About!$B50</f>
-        <v>88.485307814083782</v>
+        <f t="shared" si="16"/>
+        <v>74.982249491484367</v>
       </c>
       <c r="R91" s="44">
-        <f>R90*[4]About!$B51*[4]About!$B50</f>
-        <v>98.026077393917234</v>
+        <f t="shared" si="16"/>
+        <v>83.06707603103753</v>
       </c>
       <c r="S91" s="44">
-        <f>S90*[4]About!$B51*[4]About!$B50</f>
-        <v>107.56684697375069</v>
+        <f t="shared" si="16"/>
+        <v>91.151902570590707</v>
       </c>
       <c r="T91" s="44">
-        <f>T90*[4]About!$B51*[4]About!$B50</f>
-        <v>117.10761655358417</v>
+        <f t="shared" si="16"/>
+        <v>99.236729110143898</v>
       </c>
       <c r="U91" s="44">
-        <f>U90*[4]About!$B51*[4]About!$B50</f>
-        <v>128.75215177276914</v>
+        <f t="shared" si="16"/>
+        <v>109.10428188909614</v>
       </c>
       <c r="V91" s="44">
-        <f>V90*[4]About!$B51*[4]About!$B50</f>
-        <v>140.39668699195414</v>
+        <f t="shared" si="16"/>
+        <v>118.97183466804836</v>
       </c>
       <c r="W91" s="44">
-        <f>W90*[4]About!$B51*[4]About!$B50</f>
-        <v>152.04122221113914</v>
+        <f t="shared" si="16"/>
+        <v>128.8393874470006</v>
       </c>
       <c r="X91" s="44">
-        <f>X90*[4]About!$B51*[4]About!$B50</f>
-        <v>163.68575743032414</v>
+        <f t="shared" si="16"/>
+        <v>138.70694022595282</v>
       </c>
       <c r="Y91" s="44">
-        <f>Y90*[4]About!$B51*[4]About!$B50</f>
-        <v>175.33029264950915</v>
+        <f t="shared" si="16"/>
+        <v>148.57449300490509</v>
       </c>
       <c r="Z91" s="44">
-        <f>Z90*[4]About!$B51*[4]About!$B50</f>
-        <v>177.73013903859845</v>
+        <f t="shared" si="16"/>
+        <v>150.60811740124009</v>
       </c>
       <c r="AA91" s="44">
-        <f>AA90*[4]About!$B51*[4]About!$B50</f>
-        <v>180.12998542768781</v>
+        <f t="shared" si="16"/>
+        <v>152.64174179757509</v>
       </c>
       <c r="AB91" s="44">
-        <f>AB90*[4]About!$B51*[4]About!$B50</f>
-        <v>182.52983181677715</v>
+        <f t="shared" si="16"/>
+        <v>154.67536619391009</v>
       </c>
       <c r="AC91" s="44">
-        <f>AC90*[4]About!$B51*[4]About!$B50</f>
-        <v>184.92967820586645</v>
+        <f t="shared" si="16"/>
+        <v>156.70899059024509</v>
       </c>
       <c r="AD91" s="44">
-        <f>AD90*[4]About!$B51*[4]About!$B50</f>
-        <v>187.32952459495581</v>
-      </c>
-    </row>
-    <row r="110" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>158.74261498658012</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32">
+      <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="37">
+        <f>B91/$T$4</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="37">
+        <f t="shared" ref="C92:AD92" si="17">C91/$T$4</f>
+        <v>0</v>
+      </c>
+      <c r="D92" s="37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="37">
+        <f t="shared" si="17"/>
+        <v>10.588582105343422</v>
+      </c>
+      <c r="H92" s="37">
+        <f t="shared" si="17"/>
+        <v>10.588582105343422</v>
+      </c>
+      <c r="I92" s="37">
+        <f t="shared" si="17"/>
+        <v>10.588582105343422</v>
+      </c>
+      <c r="J92" s="37">
+        <f t="shared" si="17"/>
+        <v>10.588582105343422</v>
+      </c>
+      <c r="K92" s="37">
+        <f t="shared" si="17"/>
+        <v>22.883428692007328</v>
+      </c>
+      <c r="L92" s="37">
+        <f t="shared" si="17"/>
+        <v>35.178275278671236</v>
+      </c>
+      <c r="M92" s="37">
+        <f t="shared" si="17"/>
+        <v>47.473121865335138</v>
+      </c>
+      <c r="N92" s="37">
+        <f t="shared" si="17"/>
+        <v>59.767968451999039</v>
+      </c>
+      <c r="O92" s="37">
+        <f t="shared" si="17"/>
+        <v>72.062815038662947</v>
+      </c>
+      <c r="P92" s="37">
+        <f t="shared" si="17"/>
+        <v>81.96911734598423</v>
+      </c>
+      <c r="Q92" s="37">
+        <f t="shared" si="17"/>
+        <v>91.875419653305514</v>
+      </c>
+      <c r="R92" s="37">
+        <f t="shared" si="17"/>
+        <v>101.78172196062675</v>
+      </c>
+      <c r="S92" s="37">
+        <f t="shared" si="17"/>
+        <v>111.68802426794801</v>
+      </c>
+      <c r="T92" s="37">
+        <f t="shared" si="17"/>
+        <v>121.59432657526929</v>
+      </c>
+      <c r="U92" s="37">
+        <f t="shared" si="17"/>
+        <v>133.68499548245296</v>
+      </c>
+      <c r="V92" s="37">
+        <f t="shared" si="17"/>
+        <v>145.7756643896366</v>
+      </c>
+      <c r="W92" s="37">
+        <f t="shared" si="17"/>
+        <v>157.86633329682027</v>
+      </c>
+      <c r="X92" s="37">
+        <f t="shared" si="17"/>
+        <v>169.95700220400389</v>
+      </c>
+      <c r="Y92" s="37">
+        <f t="shared" si="17"/>
+        <v>182.04767111118761</v>
+      </c>
+      <c r="Z92" s="37">
+        <f t="shared" si="17"/>
+        <v>184.53946211636006</v>
+      </c>
+      <c r="AA92" s="37">
+        <f t="shared" si="17"/>
+        <v>187.03125312153253</v>
+      </c>
+      <c r="AB92" s="37">
+        <f t="shared" si="17"/>
+        <v>189.523044126705</v>
+      </c>
+      <c r="AC92" s="37">
+        <f t="shared" si="17"/>
+        <v>192.01483513187745</v>
+      </c>
+      <c r="AD92" s="37">
+        <f t="shared" si="17"/>
+        <v>194.50662613704995</v>
+      </c>
+      <c r="AE92" s="37"/>
+      <c r="AF92" s="37"/>
+    </row>
+    <row r="110" spans="1:30" s="10" customFormat="1">
       <c r="A110" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" t="s">
         <v>73</v>
       </c>
@@ -8300,9 +8842,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:30">
       <c r="A112" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -8324,15 +8866,15 @@
         <v>0</v>
       </c>
       <c r="H112" s="43">
-        <f t="shared" ref="H112:J112" si="13">$G95</f>
+        <f t="shared" ref="H112:J112" si="18">$G95</f>
         <v>0</v>
       </c>
       <c r="I112" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J112" s="43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K112" s="39">
@@ -8340,15 +8882,15 @@
         <v>0</v>
       </c>
       <c r="L112" s="39">
-        <f t="shared" ref="L112:N112" si="14">$J112+($O112-$J112)*(L111-$J111)/5</f>
+        <f t="shared" ref="L112:N112" si="19">$J112+($O112-$J112)*(L111-$J111)/5</f>
         <v>0</v>
       </c>
       <c r="M112" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N112" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O112" s="43">
@@ -8360,15 +8902,15 @@
         <v>0</v>
       </c>
       <c r="Q112" s="39">
-        <f t="shared" ref="Q112:S112" si="15">$O112+($T112-$O112)*(Q111-$O111)/5</f>
+        <f t="shared" ref="Q112:S112" si="20">$O112+($T112-$O112)*(Q111-$O111)/5</f>
         <v>0</v>
       </c>
       <c r="R112" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S112" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="T112" s="43">
@@ -8380,15 +8922,15 @@
         <v>0</v>
       </c>
       <c r="V112" s="39">
-        <f t="shared" ref="V112:X112" si="16">$T112+($Y112-$T112)*(V111-$T111)/5</f>
+        <f t="shared" ref="V112:X112" si="21">$T112+($Y112-$T112)*(V111-$T111)/5</f>
         <v>0</v>
       </c>
       <c r="W112" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X112" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Y112" s="43">
@@ -8400,15 +8942,15 @@
         <v>0</v>
       </c>
       <c r="AA112" s="39">
-        <f t="shared" ref="AA112:AC112" si="17">$Y112+($AD112-$Y112)*(AA111-$Y111)/5</f>
+        <f t="shared" ref="AA112:AC112" si="22">$Y112+($AD112-$Y112)*(AA111-$Y111)/5</f>
         <v>0</v>
       </c>
       <c r="AB112" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC112" s="39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AD112" s="43">
@@ -8416,366 +8958,1532 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:30">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B113" s="39">
         <f>MAX(B90,D48)</f>
         <v>70.777648219571262</v>
       </c>
       <c r="C113" s="39">
-        <f t="shared" ref="C113:AD113" si="18">MAX(C90,E48)</f>
+        <f t="shared" ref="C113:AC113" si="23">MAX(C90,E48)</f>
         <v>73.311213204015658</v>
       </c>
       <c r="D113" s="39">
-        <f t="shared" si="18"/>
-        <v>61.573121384209628</v>
+        <f t="shared" si="23"/>
+        <v>53.140154415518118</v>
       </c>
       <c r="E113" s="39">
-        <f t="shared" si="18"/>
-        <v>67.726806142856148</v>
+        <f t="shared" si="23"/>
+        <v>60.158248164342268</v>
       </c>
       <c r="F113" s="39">
-        <f t="shared" si="18"/>
-        <v>79.740717770099934</v>
+        <f t="shared" si="23"/>
+        <v>73.648472779175492</v>
       </c>
       <c r="G113" s="39">
-        <f t="shared" si="18"/>
-        <v>87.618946176126954</v>
+        <f t="shared" si="23"/>
+        <v>80.924799184742042</v>
       </c>
       <c r="H113" s="39">
-        <f t="shared" si="18"/>
-        <v>94.934884535277575</v>
+        <f t="shared" si="23"/>
+        <v>87.681794884874364</v>
       </c>
       <c r="I113" s="39">
-        <f t="shared" si="18"/>
-        <v>102.92194327295809</v>
+        <f t="shared" si="23"/>
+        <v>95.05863691084754</v>
       </c>
       <c r="J113" s="39">
-        <f t="shared" si="18"/>
-        <v>112.83485811806231</v>
+        <f t="shared" si="23"/>
+        <v>104.21419832975535</v>
       </c>
       <c r="K113" s="39">
-        <f t="shared" si="18"/>
-        <v>114.83485811806231</v>
+        <f t="shared" si="23"/>
+        <v>106.21419832975535</v>
       </c>
       <c r="L113" s="39">
-        <f t="shared" si="18"/>
-        <v>116.83485811806231</v>
+        <f t="shared" si="23"/>
+        <v>108.21419832975535</v>
       </c>
       <c r="M113" s="39">
-        <f t="shared" si="18"/>
-        <v>118.83485811806231</v>
+        <f t="shared" si="23"/>
+        <v>110.21419832975535</v>
       </c>
       <c r="N113" s="39">
-        <f t="shared" si="18"/>
-        <v>120.83485811806231</v>
+        <f t="shared" si="23"/>
+        <v>112.21419832975535</v>
       </c>
       <c r="O113" s="39">
-        <f t="shared" si="18"/>
-        <v>122.83485811806231</v>
+        <f t="shared" si="23"/>
+        <v>114.21419832975535</v>
       </c>
       <c r="P113" s="39">
-        <f t="shared" si="18"/>
-        <v>124.83485811806231</v>
+        <f t="shared" si="23"/>
+        <v>116.21419832975535</v>
       </c>
       <c r="Q113" s="39">
-        <f t="shared" si="18"/>
-        <v>126.83485811806231</v>
+        <f t="shared" si="23"/>
+        <v>118.21419832975535</v>
       </c>
       <c r="R113" s="39">
-        <f t="shared" si="18"/>
-        <v>128.8348581180623</v>
+        <f t="shared" si="23"/>
+        <v>120.21419832975535</v>
       </c>
       <c r="S113" s="39">
-        <f t="shared" si="18"/>
-        <v>130.8348581180623</v>
+        <f t="shared" si="23"/>
+        <v>122.21419832975535</v>
       </c>
       <c r="T113" s="39">
-        <f t="shared" si="18"/>
-        <v>132.8348581180623</v>
+        <f t="shared" si="23"/>
+        <v>124.21419832975535</v>
       </c>
       <c r="U113" s="39">
-        <f t="shared" si="18"/>
-        <v>134.8348581180623</v>
+        <f t="shared" si="23"/>
+        <v>126.21419832975535</v>
       </c>
       <c r="V113" s="39">
-        <f t="shared" si="18"/>
-        <v>136.8348581180623</v>
+        <f t="shared" si="23"/>
+        <v>128.21419832975533</v>
       </c>
       <c r="W113" s="39">
-        <f t="shared" si="18"/>
-        <v>138.8348581180623</v>
+        <f>MAX(W90,Y48)</f>
+        <v>130.21419832975533</v>
       </c>
       <c r="X113" s="39">
-        <f t="shared" si="18"/>
-        <v>140.8348581180623</v>
+        <f t="shared" si="23"/>
+        <v>137.91425836378113</v>
       </c>
       <c r="Y113" s="39">
-        <f t="shared" si="18"/>
+        <f>MAX(Y90,AA48)</f>
         <v>147.72542009193839</v>
       </c>
       <c r="Z113" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>149.74742273978109</v>
       </c>
       <c r="AA113" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>151.76942538762378</v>
       </c>
       <c r="AB113" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>153.79142803546648</v>
       </c>
       <c r="AC113" s="39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>155.81343068330918</v>
       </c>
       <c r="AD113" s="39">
-        <f t="shared" si="18"/>
+        <f>MAX(AD90,AF48)</f>
         <v>157.83543333115188</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:30">
       <c r="A114" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B114">
         <f>D48/B113</f>
         <v>1</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:AD114" si="19">E48/C113</f>
+        <f t="shared" ref="C114:AD114" si="24">E48/C113</f>
         <v>1</v>
       </c>
       <c r="D114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="E114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="F114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="G114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="H114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="J114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="K114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="L114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="M114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="N114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="R114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="S114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="T114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="U114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="V114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="W114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="X114">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0.95866953785887354</v>
       </c>
       <c r="Y114">
-        <f t="shared" si="19"/>
-        <v>0.96689424223107712</v>
+        <f t="shared" si="24"/>
+        <v>0.90853827490370842</v>
       </c>
       <c r="Z114">
-        <f t="shared" si="19"/>
-        <v>0.967194329412564</v>
+        <f t="shared" si="24"/>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AA114">
-        <f t="shared" si="19"/>
-        <v>0.96748642055566558</v>
+        <f t="shared" si="24"/>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AB114">
-        <f t="shared" si="19"/>
-        <v>0.9677708310487817</v>
+        <f t="shared" si="24"/>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AC114">
-        <f t="shared" si="19"/>
-        <v>0.96804785990903552</v>
+        <f t="shared" si="24"/>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AD114">
-        <f t="shared" si="19"/>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.35">
+        <f t="shared" si="24"/>
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B115">
         <f>B90/B113</f>
         <v>0</v>
       </c>
       <c r="C115">
-        <f t="shared" ref="C115:AD115" si="20">C90/C113</f>
+        <f t="shared" ref="C115:AD115" si="25">C90/C113</f>
         <v>0</v>
       </c>
       <c r="D115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G115">
-        <f t="shared" si="20"/>
-        <v>9.8064064411638369E-2</v>
+        <f t="shared" si="25"/>
+        <v>0.10617598150451286</v>
       </c>
       <c r="H115">
-        <f t="shared" si="20"/>
-        <v>9.0506983007945005E-2</v>
+        <f t="shared" si="25"/>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="I115">
-        <f t="shared" si="20"/>
-        <v>8.3483363297058327E-2</v>
+        <f t="shared" si="25"/>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="J115">
-        <f t="shared" si="20"/>
-        <v>7.614907418508253E-2</v>
+        <f t="shared" si="25"/>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="K115">
-        <f t="shared" si="20"/>
-        <v>0.16170277191321103</v>
+        <f t="shared" si="25"/>
+        <v>0.17482704913236577</v>
       </c>
       <c r="L115">
-        <f t="shared" si="20"/>
-        <v>0.2443274226392308</v>
+        <f t="shared" si="25"/>
+        <v>0.26379126028748828</v>
       </c>
       <c r="M115">
-        <f t="shared" si="20"/>
-        <v>0.32417091463675918</v>
+        <f t="shared" si="25"/>
+        <v>0.34952669647519885</v>
       </c>
       <c r="N115">
-        <f t="shared" si="20"/>
-        <v>0.40137134507933409</v>
+        <f t="shared" si="25"/>
+        <v>0.43220599761177209</v>
       </c>
       <c r="O115">
-        <f t="shared" si="20"/>
-        <v>0.47605781713500306</v>
+        <f t="shared" si="25"/>
+        <v>0.51198971125237169</v>
       </c>
       <c r="P115">
-        <f t="shared" si="20"/>
-        <v>0.53282487625645336</v>
+        <f t="shared" si="25"/>
+        <v>0.57234932379357994</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="20"/>
-        <v>0.58780166857069494</v>
+        <f t="shared" si="25"/>
+        <v>0.63066655518619441</v>
       </c>
       <c r="R115">
-        <f t="shared" si="20"/>
-        <v>0.64107156903540741</v>
+        <f t="shared" si="25"/>
+        <v>0.68704334253133781</v>
       </c>
       <c r="S115">
-        <f t="shared" si="20"/>
-        <v>0.69271285458110032</v>
+        <f t="shared" si="25"/>
+        <v>0.7415749502454525</v>
       </c>
       <c r="T115">
-        <f t="shared" si="20"/>
-        <v>0.74279908789796378</v>
+        <f t="shared" si="25"/>
+        <v>0.79435050725208389</v>
       </c>
       <c r="U115">
-        <f t="shared" si="20"/>
-        <v>0.8045454617108202</v>
+        <f t="shared" si="25"/>
+        <v>0.85949738313819102</v>
       </c>
       <c r="V115">
-        <f t="shared" si="20"/>
-        <v>0.86448684592783587</v>
+        <f t="shared" si="25"/>
+        <v>0.92261182028553845</v>
       </c>
       <c r="W115">
-        <f t="shared" si="20"/>
-        <v>0.9227012464455262</v>
+        <f t="shared" si="25"/>
+        <v>0.98378746925288985</v>
       </c>
       <c r="X115">
-        <f t="shared" si="20"/>
-        <v>0.97926223810419988</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="Y115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="Z115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AA115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AB115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AC115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AD115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" s="7" customFormat="1">
+      <c r="A118" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" s="48" customFormat="1">
+      <c r="A119" s="47"/>
+      <c r="B119" s="48">
+        <v>2022</v>
+      </c>
+      <c r="C119" s="48">
+        <v>2023</v>
+      </c>
+      <c r="D119" s="48">
+        <v>2024</v>
+      </c>
+      <c r="E119" s="48">
+        <v>2025</v>
+      </c>
+      <c r="F119" s="48">
+        <v>2026</v>
+      </c>
+      <c r="G119" s="48">
+        <v>2027</v>
+      </c>
+      <c r="H119" s="48">
+        <v>2028</v>
+      </c>
+      <c r="I119" s="48">
+        <v>2029</v>
+      </c>
+      <c r="J119" s="48">
+        <v>2030</v>
+      </c>
+      <c r="K119" s="48">
+        <v>2031</v>
+      </c>
+      <c r="L119" s="48">
+        <v>2032</v>
+      </c>
+      <c r="M119" s="48">
+        <v>2033</v>
+      </c>
+      <c r="N119" s="48">
+        <v>2034</v>
+      </c>
+      <c r="O119" s="48">
+        <v>2035</v>
+      </c>
+      <c r="P119" s="48">
+        <v>2036</v>
+      </c>
+      <c r="Q119" s="48">
+        <v>2037</v>
+      </c>
+      <c r="R119" s="48">
+        <v>2038</v>
+      </c>
+      <c r="S119" s="48">
+        <v>2039</v>
+      </c>
+      <c r="T119" s="48">
+        <v>2040</v>
+      </c>
+      <c r="U119" s="48">
+        <v>2041</v>
+      </c>
+      <c r="V119" s="48">
+        <v>2042</v>
+      </c>
+      <c r="W119" s="48">
+        <v>2043</v>
+      </c>
+      <c r="X119" s="48">
+        <v>2044</v>
+      </c>
+      <c r="Y119" s="48">
+        <v>2045</v>
+      </c>
+      <c r="Z119" s="48">
+        <v>2046</v>
+      </c>
+      <c r="AA119" s="48">
+        <v>2047</v>
+      </c>
+      <c r="AB119" s="48">
+        <v>2048</v>
+      </c>
+      <c r="AC119" s="48">
+        <v>2049</v>
+      </c>
+      <c r="AD119" s="48">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="37">
+        <f>D49-C60</f>
+        <v>35.984452843374811</v>
+      </c>
+      <c r="C120" s="37">
+        <f t="shared" ref="C120:AD120" si="26">E49-D60</f>
+        <v>38.532579853773797</v>
+      </c>
+      <c r="D120" s="37">
+        <f t="shared" si="26"/>
+        <v>18.245585029132222</v>
+      </c>
+      <c r="E120" s="37">
+        <f t="shared" si="26"/>
+        <v>25.304016272336682</v>
+      </c>
+      <c r="F120" s="37">
+        <f t="shared" si="26"/>
+        <v>35.871777876424446</v>
+      </c>
+      <c r="G120" s="37">
+        <f t="shared" si="26"/>
+        <v>40.189926005381778</v>
+      </c>
+      <c r="H120" s="37">
+        <f t="shared" si="26"/>
+        <v>43.885758501635209</v>
+      </c>
+      <c r="I120" s="37">
+        <f t="shared" si="26"/>
+        <v>48.304999978857794</v>
+      </c>
+      <c r="J120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.513184292315231</v>
+      </c>
+      <c r="K120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.52467957745219</v>
+      </c>
+      <c r="L120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.536174862589135</v>
+      </c>
+      <c r="M120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.547670147726095</v>
+      </c>
+      <c r="N120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.559165432863054</v>
+      </c>
+      <c r="O120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.570660718000013</v>
+      </c>
+      <c r="P120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.482156003136971</v>
+      </c>
+      <c r="Q120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.493651288273924</v>
+      </c>
+      <c r="R120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.505146573410883</v>
+      </c>
+      <c r="S120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.516641858547843</v>
+      </c>
+      <c r="T120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.528137143684773</v>
+      </c>
+      <c r="U120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.539632428821733</v>
+      </c>
+      <c r="V120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.551127713958692</v>
+      </c>
+      <c r="W120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.562622999095652</v>
+      </c>
+      <c r="X120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.574118284232583</v>
+      </c>
+      <c r="Y120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.485613569369548</v>
+      </c>
+      <c r="Z120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.497108854506507</v>
+      </c>
+      <c r="AA120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.508604139643467</v>
+      </c>
+      <c r="AB120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.520099424780398</v>
+      </c>
+      <c r="AC120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.531594709917357</v>
+      </c>
+      <c r="AD120" s="37">
+        <f t="shared" si="26"/>
+        <v>54.543089995054316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30">
+      <c r="B121" s="37">
+        <f>B120/$T$4</f>
+        <v>44.091591388640737</v>
+      </c>
+      <c r="C121" s="37">
+        <f t="shared" ref="C121:AD121" si="27">C120/$T$4</f>
+        <v>47.213800178027846</v>
+      </c>
+      <c r="D121" s="37">
+        <f t="shared" si="27"/>
+        <v>22.356234878789131</v>
+      </c>
+      <c r="E121" s="37">
+        <f t="shared" si="27"/>
+        <v>31.004899555581222</v>
+      </c>
+      <c r="F121" s="37">
+        <f t="shared" si="27"/>
+        <v>43.953531248498336</v>
+      </c>
+      <c r="G121" s="37">
+        <f t="shared" si="27"/>
+        <v>49.244539109207381</v>
+      </c>
+      <c r="H121" s="37">
+        <f t="shared" si="27"/>
+        <v>53.773026369384482</v>
+      </c>
+      <c r="I121" s="37">
+        <f t="shared" si="27"/>
+        <v>59.187903463932436</v>
+      </c>
+      <c r="J121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.794764327032411</v>
+      </c>
+      <c r="K121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.808849449220062</v>
+      </c>
+      <c r="L121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.8229345714077</v>
+      </c>
+      <c r="M121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.837019693595352</v>
+      </c>
+      <c r="N121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.851104815783003</v>
+      </c>
+      <c r="O121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.865189937970655</v>
+      </c>
+      <c r="P121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.756745501127483</v>
+      </c>
+      <c r="Q121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.770830623315121</v>
+      </c>
+      <c r="R121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.784915745502772</v>
+      </c>
+      <c r="S121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.799000867690424</v>
+      </c>
+      <c r="T121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.813085989878047</v>
+      </c>
+      <c r="U121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.827171112065699</v>
+      </c>
+      <c r="V121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.84125623425335</v>
+      </c>
+      <c r="W121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.855341356441002</v>
+      </c>
+      <c r="X121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.869426478628611</v>
+      </c>
+      <c r="Y121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.760982041785454</v>
+      </c>
+      <c r="Z121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.775067163973105</v>
+      </c>
+      <c r="AA121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.789152286160757</v>
+      </c>
+      <c r="AB121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.80323740834838</v>
+      </c>
+      <c r="AC121" s="37">
+        <f t="shared" si="27"/>
+        <v>66.817322530536032</v>
+      </c>
+      <c r="AD121" s="37">
+        <f>AD120/$T$4</f>
+        <v>66.831407652723684</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30">
+      <c r="B122" s="3">
+        <f>B121/MAX(B121:AD121)</f>
+        <v>0.65936846942649274</v>
+      </c>
+      <c r="C122" s="3">
+        <f t="shared" ref="C122:AD122" si="28">C121/MAX(C121:AE121)</f>
+        <v>0.70605959500964643</v>
+      </c>
+      <c r="D122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.33432670289065747</v>
+      </c>
+      <c r="E122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.46366330905335867</v>
+      </c>
+      <c r="F122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.65730384666220865</v>
+      </c>
+      <c r="G122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.73642831563608335</v>
+      </c>
+      <c r="H122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.80414965704200081</v>
+      </c>
+      <c r="I122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.88512653062530477</v>
+      </c>
+      <c r="J122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99888346355684599</v>
+      </c>
+      <c r="K122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99909409976130259</v>
+      </c>
+      <c r="L122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99930473596575908</v>
+      </c>
+      <c r="M122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99951537217021569</v>
+      </c>
+      <c r="N122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99972600837467229</v>
+      </c>
+      <c r="O122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99993664457912901</v>
+      </c>
+      <c r="P122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99831491036434805</v>
+      </c>
+      <c r="Q122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99852554656880443</v>
+      </c>
+      <c r="R122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99873618277326115</v>
+      </c>
+      <c r="S122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99894681897771775</v>
+      </c>
+      <c r="T122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99915745518217403</v>
+      </c>
+      <c r="U122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99936809138663063</v>
+      </c>
+      <c r="V122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99957872759108735</v>
+      </c>
+      <c r="W122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99978936379554395</v>
+      </c>
+      <c r="X122" s="3">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="Y122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99894621984764731</v>
+      </c>
+      <c r="Z122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99915697587811791</v>
+      </c>
+      <c r="AA122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99936773190858852</v>
+      </c>
+      <c r="AB122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.99957848793905879</v>
+      </c>
+      <c r="AC122" s="3">
+        <f t="shared" si="28"/>
+        <v>0.9997892439695294</v>
+      </c>
+      <c r="AD122" s="3">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30">
+      <c r="A124" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" s="46">
+        <f>MAX(B91,D49)-C60</f>
+        <v>35.984452843374811</v>
+      </c>
+      <c r="C124" s="46">
+        <f t="shared" ref="C124:AD124" si="29">MAX(C91,E49)-D60</f>
+        <v>38.532579853773797</v>
+      </c>
+      <c r="D124" s="46">
+        <f t="shared" si="29"/>
+        <v>18.245585029132222</v>
+      </c>
+      <c r="E124" s="46">
+        <f t="shared" si="29"/>
+        <v>25.304016272336682</v>
+      </c>
+      <c r="F124" s="46">
+        <f t="shared" si="29"/>
+        <v>35.871777876424446</v>
+      </c>
+      <c r="G124" s="46">
+        <f t="shared" si="29"/>
+        <v>40.189926005381778</v>
+      </c>
+      <c r="H124" s="46">
+        <f t="shared" si="29"/>
+        <v>43.885758501635209</v>
+      </c>
+      <c r="I124" s="46">
+        <f t="shared" si="29"/>
+        <v>48.304999978857794</v>
+      </c>
+      <c r="J124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.513184292315231</v>
+      </c>
+      <c r="K124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.52467957745219</v>
+      </c>
+      <c r="L124" s="46">
+        <f>MAX(L91,N49)-M60</f>
+        <v>54.536174862589135</v>
+      </c>
+      <c r="M124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.547670147726095</v>
+      </c>
+      <c r="N124" s="46">
+        <f>MAX(N91,P49)-O60</f>
+        <v>54.559165432863054</v>
+      </c>
+      <c r="O124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.570660718000013</v>
+      </c>
+      <c r="P124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.482156003136971</v>
+      </c>
+      <c r="Q124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.493651288273924</v>
+      </c>
+      <c r="R124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.505146573410883</v>
+      </c>
+      <c r="S124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.516641858547843</v>
+      </c>
+      <c r="T124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.528137143684773</v>
+      </c>
+      <c r="U124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.539632428821733</v>
+      </c>
+      <c r="V124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.551127713958692</v>
+      </c>
+      <c r="W124" s="46">
+        <f t="shared" si="29"/>
+        <v>54.562622999095652</v>
+      </c>
+      <c r="X124" s="46">
+        <f t="shared" si="29"/>
+        <v>60.306940225952815</v>
+      </c>
+      <c r="Y124" s="46">
+        <f t="shared" si="29"/>
+        <v>68.074493004905094</v>
+      </c>
+      <c r="Z124" s="46">
+        <f t="shared" si="29"/>
+        <v>68.108117401240094</v>
+      </c>
+      <c r="AA124" s="46">
+        <f t="shared" si="29"/>
+        <v>68.141741797575094</v>
+      </c>
+      <c r="AB124" s="46">
+        <f t="shared" si="29"/>
+        <v>68.175366193910094</v>
+      </c>
+      <c r="AC124" s="46">
+        <f t="shared" si="29"/>
+        <v>68.208990590245094</v>
+      </c>
+      <c r="AD124" s="46">
+        <f t="shared" si="29"/>
+        <v>68.242614986580122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30">
+      <c r="B125" s="37">
+        <f t="shared" ref="B125:AD125" si="30">B124/$T$4</f>
+        <v>44.091591388640737</v>
+      </c>
+      <c r="C125" s="37">
+        <f t="shared" si="30"/>
+        <v>47.213800178027846</v>
+      </c>
+      <c r="D125" s="37">
+        <f t="shared" si="30"/>
+        <v>22.356234878789131</v>
+      </c>
+      <c r="E125" s="37">
+        <f t="shared" si="30"/>
+        <v>31.004899555581222</v>
+      </c>
+      <c r="F125" s="37">
+        <f t="shared" si="30"/>
+        <v>43.953531248498336</v>
+      </c>
+      <c r="G125" s="37">
+        <f t="shared" si="30"/>
+        <v>49.244539109207381</v>
+      </c>
+      <c r="H125" s="37">
+        <f t="shared" si="30"/>
+        <v>53.773026369384482</v>
+      </c>
+      <c r="I125" s="37">
+        <f t="shared" si="30"/>
+        <v>59.187903463932436</v>
+      </c>
+      <c r="J125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.794764327032411</v>
+      </c>
+      <c r="K125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.808849449220062</v>
+      </c>
+      <c r="L125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.8229345714077</v>
+      </c>
+      <c r="M125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.837019693595352</v>
+      </c>
+      <c r="N125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.851104815783003</v>
+      </c>
+      <c r="O125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.865189937970655</v>
+      </c>
+      <c r="P125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.756745501127483</v>
+      </c>
+      <c r="Q125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.770830623315121</v>
+      </c>
+      <c r="R125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.784915745502772</v>
+      </c>
+      <c r="S125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.799000867690424</v>
+      </c>
+      <c r="T125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.813085989878047</v>
+      </c>
+      <c r="U125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.827171112065699</v>
+      </c>
+      <c r="V125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.84125623425335</v>
+      </c>
+      <c r="W125" s="37">
+        <f t="shared" si="30"/>
+        <v>66.855341356441002</v>
+      </c>
+      <c r="X125" s="37">
+        <f t="shared" si="30"/>
+        <v>73.893827923840547</v>
+      </c>
+      <c r="Y125" s="37">
+        <f t="shared" si="30"/>
+        <v>83.411376091377022</v>
+      </c>
+      <c r="Z125" s="37">
+        <f t="shared" si="30"/>
+        <v>83.452575915933068</v>
+      </c>
+      <c r="AA125" s="37">
+        <f t="shared" si="30"/>
+        <v>83.493775740489127</v>
+      </c>
+      <c r="AB125" s="37">
+        <f t="shared" si="30"/>
+        <v>83.534975565045173</v>
+      </c>
+      <c r="AC125" s="37">
+        <f t="shared" si="30"/>
+        <v>83.576175389601232</v>
+      </c>
+      <c r="AD125" s="37">
+        <f t="shared" si="30"/>
+        <v>83.617375214157306</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30">
+      <c r="B126" s="3">
+        <f t="shared" ref="B126:AD126" si="31">B125/MAX(B125:AD125)</f>
+        <v>0.52730178716702369</v>
+      </c>
+      <c r="C126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.56464102176259234</v>
+      </c>
+      <c r="D126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.26736350933680092</v>
+      </c>
+      <c r="E126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.37079493916393308</v>
+      </c>
+      <c r="F126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.52565069324319735</v>
+      </c>
+      <c r="G126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.58892710974345153</v>
+      </c>
+      <c r="H126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.64308436173299233</v>
+      </c>
+      <c r="I126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.70784215974661802</v>
+      </c>
+      <c r="J126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79881441095179639</v>
+      </c>
+      <c r="K126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79898285826494853</v>
+      </c>
+      <c r="L126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79915130557810032</v>
+      </c>
+      <c r="M126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79931975289125246</v>
+      </c>
+      <c r="N126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79948820020440448</v>
+      </c>
+      <c r="O126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.7996566475175565</v>
+      </c>
+      <c r="P126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79835973480574951</v>
+      </c>
+      <c r="Q126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79852818211890142</v>
+      </c>
+      <c r="R126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79869662943205344</v>
+      </c>
+      <c r="S126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79886507674520557</v>
+      </c>
+      <c r="T126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79903352405835726</v>
+      </c>
+      <c r="U126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79920197137150928</v>
+      </c>
+      <c r="V126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.7993704186846613</v>
+      </c>
+      <c r="W126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.79953886599781343</v>
+      </c>
+      <c r="X126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.88371379434700958</v>
+      </c>
+      <c r="Y126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.9975364076873654</v>
+      </c>
+      <c r="Z126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.99802912614989214</v>
+      </c>
+      <c r="AA126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.99852184461241911</v>
+      </c>
+      <c r="AB126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.99901456307494596</v>
+      </c>
+      <c r="AC126" s="3">
+        <f t="shared" si="31"/>
+        <v>0.99950728153747281</v>
+      </c>
+      <c r="AD126" s="3">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30">
+      <c r="A128" t="s">
+        <v>116</v>
+      </c>
+      <c r="B128" s="46">
+        <f>D49-C64</f>
+        <v>53.784452843374815</v>
+      </c>
+      <c r="C128" s="46">
+        <f>E49-D64</f>
+        <v>56.2325798537738</v>
+      </c>
+      <c r="D128" s="46">
+        <f>F49-E64</f>
+        <v>36.445585029132225</v>
+      </c>
+      <c r="E128" s="46">
+        <f>G49-F64</f>
+        <v>43.904016272336683</v>
+      </c>
+      <c r="F128" s="46">
+        <f>H49-G64</f>
+        <v>56.971777876424447</v>
+      </c>
+      <c r="G128" s="46">
+        <f>I49-H64</f>
+        <v>63.089926005381784</v>
+      </c>
+      <c r="H128" s="46">
+        <f>J49-I64</f>
+        <v>68.685758501635206</v>
+      </c>
+      <c r="I128" s="46">
+        <f>K49-J64</f>
+        <v>74.304999978857794</v>
+      </c>
+      <c r="J128" s="46">
+        <f>L49-K64</f>
+        <v>79.513184292315231</v>
+      </c>
+      <c r="K128" s="46">
+        <f>M49-L64</f>
+        <v>72.124679577452184</v>
+      </c>
+      <c r="L128" s="46">
+        <f>N49-M64</f>
+        <v>68.636174862589129</v>
+      </c>
+      <c r="M128" s="46">
+        <f>O49-N64</f>
+        <v>64.647670147726089</v>
+      </c>
+      <c r="N128" s="46">
+        <f>P49-O64</f>
+        <v>60.159165432863048</v>
+      </c>
+      <c r="O128" s="46">
+        <f>Q49-P64</f>
+        <v>54.570660718000013</v>
+      </c>
+      <c r="P128" s="46">
+        <f>R49-Q64</f>
+        <v>54.482156003136971</v>
+      </c>
+      <c r="Q128" s="46">
+        <f>S49-R64</f>
+        <v>54.493651288273924</v>
+      </c>
+      <c r="R128" s="46">
+        <f>T49-S64</f>
+        <v>54.505146573410883</v>
+      </c>
+      <c r="S128" s="46">
+        <f>U49-T64</f>
+        <v>54.516641858547843</v>
+      </c>
+      <c r="T128" s="46">
+        <f>V49-U64</f>
+        <v>54.528137143684773</v>
+      </c>
+      <c r="U128" s="46">
+        <f>W49-V64</f>
+        <v>54.539632428821733</v>
+      </c>
+      <c r="V128" s="46">
+        <f>X49-W64</f>
+        <v>54.551127713958692</v>
+      </c>
+      <c r="W128" s="46">
+        <f>Y49-X64</f>
+        <v>54.562622999095652</v>
+      </c>
+      <c r="X128" s="46">
+        <f>Z49-Y64</f>
+        <v>54.574118284232583</v>
+      </c>
+      <c r="Y128" s="46">
+        <f>AA49-Z64</f>
+        <v>54.485613569369548</v>
+      </c>
+      <c r="Z128" s="46">
+        <f>AB49-AA64</f>
+        <v>54.497108854506507</v>
+      </c>
+      <c r="AA128" s="46">
+        <f>AC49-AB64</f>
+        <v>54.508604139643467</v>
+      </c>
+      <c r="AB128" s="46">
+        <f>AD49-AC64</f>
+        <v>54.520099424780398</v>
+      </c>
+      <c r="AC128" s="46">
+        <f>AE49-AD64</f>
+        <v>54.531594709917357</v>
+      </c>
+      <c r="AD128" s="46">
+        <f>AF49-AE64</f>
+        <v>54.543089995054316</v>
+      </c>
+    </row>
+    <row r="129" spans="2:30">
+      <c r="B129" s="37">
+        <f>B128/$T$4</f>
+        <v>65.901852896126812</v>
+      </c>
+      <c r="C129" s="37">
+        <f t="shared" ref="B129:AD129" si="32">C128/$T$4</f>
+        <v>68.90153212648309</v>
+      </c>
+      <c r="D129" s="37">
+        <f t="shared" si="32"/>
+        <v>44.656614622398486</v>
+      </c>
+      <c r="E129" s="37">
+        <f t="shared" si="32"/>
+        <v>53.795397535313853</v>
+      </c>
+      <c r="F129" s="37">
+        <f t="shared" si="32"/>
+        <v>69.807268204001474</v>
+      </c>
+      <c r="G129" s="37">
+        <f t="shared" si="32"/>
+        <v>77.303808127265313</v>
+      </c>
+      <c r="H129" s="37">
+        <f t="shared" si="32"/>
+        <v>84.16035700902799</v>
+      </c>
+      <c r="I129" s="37">
+        <f t="shared" si="32"/>
+        <v>91.045588811945791</v>
+      </c>
+      <c r="J129" s="37">
+        <f t="shared" si="32"/>
+        <v>97.427154084737552</v>
+      </c>
+      <c r="K129" s="37">
+        <f t="shared" si="32"/>
+        <v>88.374051838644476</v>
+      </c>
+      <c r="L129" s="37">
+        <f t="shared" si="32"/>
+        <v>84.09960239475339</v>
+      </c>
+      <c r="M129" s="37">
+        <f t="shared" si="32"/>
+        <v>79.212505155708214</v>
+      </c>
+      <c r="N129" s="37">
+        <f t="shared" si="32"/>
+        <v>73.71276012150895</v>
+      </c>
+      <c r="O129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.865189937970655</v>
+      </c>
+      <c r="P129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.756745501127483</v>
+      </c>
+      <c r="Q129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.770830623315121</v>
+      </c>
+      <c r="R129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.784915745502772</v>
+      </c>
+      <c r="S129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.799000867690424</v>
+      </c>
+      <c r="T129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.813085989878047</v>
+      </c>
+      <c r="U129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.827171112065699</v>
+      </c>
+      <c r="V129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.84125623425335</v>
+      </c>
+      <c r="W129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.855341356441002</v>
+      </c>
+      <c r="X129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.869426478628611</v>
+      </c>
+      <c r="Y129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.760982041785454</v>
+      </c>
+      <c r="Z129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.775067163973105</v>
+      </c>
+      <c r="AA129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.789152286160757</v>
+      </c>
+      <c r="AB129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.80323740834838</v>
+      </c>
+      <c r="AC129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.817322530536032</v>
+      </c>
+      <c r="AD129" s="37">
+        <f t="shared" si="32"/>
+        <v>66.831407652723684</v>
+      </c>
+    </row>
+    <row r="130" spans="2:30">
+      <c r="B130" s="3">
+        <f>B129/MAX(B129:AD129)</f>
+        <v>0.67642182013043795</v>
+      </c>
+      <c r="C130" s="3">
+        <f t="shared" ref="C130:AD130" si="33">C129/MAX(C129:AE129)</f>
+        <v>0.70721076453239906</v>
+      </c>
+      <c r="D130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.458359017482521</v>
+      </c>
+      <c r="E130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.55216020667631482</v>
+      </c>
+      <c r="F130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.71650731112690003</v>
+      </c>
+      <c r="G130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.79345238864341761</v>
+      </c>
+      <c r="H130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.86382854759186822</v>
+      </c>
+      <c r="I130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.9344991103071596</v>
+      </c>
+      <c r="J130" s="3">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="K130" s="3">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="L130" s="3">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="M130" s="3">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="N130" s="3">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="O130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99993664457912901</v>
+      </c>
+      <c r="P130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99831491036434805</v>
+      </c>
+      <c r="Q130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99852554656880443</v>
+      </c>
+      <c r="R130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99873618277326115</v>
+      </c>
+      <c r="S130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99894681897771775</v>
+      </c>
+      <c r="T130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99915745518217403</v>
+      </c>
+      <c r="U130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99936809138663063</v>
+      </c>
+      <c r="V130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99957872759108735</v>
+      </c>
+      <c r="W130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99978936379554395</v>
+      </c>
+      <c r="X130" s="3">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="Y130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99894621984764731</v>
+      </c>
+      <c r="Z130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99915697587811791</v>
+      </c>
+      <c r="AA130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99936773190858852</v>
+      </c>
+      <c r="AB130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.99957848793905879</v>
+      </c>
+      <c r="AC130" s="3">
+        <f t="shared" si="33"/>
+        <v>0.9997892439695294</v>
+      </c>
+      <c r="AD130" s="3">
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
@@ -8803,17 +10511,17 @@
   <dimension ref="A2:AE29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31">
       <c r="A2" s="2"/>
       <c r="B2" s="5">
         <v>2021</v>
@@ -8906,7 +10614,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -8935,75 +10643,75 @@
       </c>
       <c r="H3" s="3">
         <f>'fuels-FoICStCT Projections'!G115</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I3" s="3">
         <f>'fuels-FoICStCT Projections'!H115</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J3" s="3">
         <f>'fuels-FoICStCT Projections'!I115</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K3" s="3">
         <f>'fuels-FoICStCT Projections'!J115</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L3" s="3">
         <f>'fuels-FoICStCT Projections'!K115</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M3" s="3">
         <f>'fuels-FoICStCT Projections'!L115</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N3" s="3">
         <f>'fuels-FoICStCT Projections'!M115</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O3" s="3">
         <f>'fuels-FoICStCT Projections'!N115</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P3" s="3">
         <f>'fuels-FoICStCT Projections'!O115</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q3" s="3">
         <f>'fuels-FoICStCT Projections'!P115</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R3" s="3">
         <f>'fuels-FoICStCT Projections'!Q115</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S3" s="3">
         <f>'fuels-FoICStCT Projections'!R115</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T3" s="3">
         <f>'fuels-FoICStCT Projections'!S115</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U3" s="3">
         <f>'fuels-FoICStCT Projections'!T115</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V3" s="3">
         <f>'fuels-FoICStCT Projections'!U115</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W3" s="3">
         <f>'fuels-FoICStCT Projections'!V115</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X3" s="3">
         <f>'fuels-FoICStCT Projections'!W115</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y3" s="3">
         <f>'fuels-FoICStCT Projections'!X115</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="3">
         <f>'fuels-FoICStCT Projections'!Y115</f>
@@ -9030,7 +10738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -9059,75 +10767,75 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="0"/>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" si="0"/>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="0"/>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="0"/>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="0"/>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="0"/>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="0"/>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S4" s="3">
         <f t="shared" si="0"/>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="0"/>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="0"/>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V4" s="3">
         <f t="shared" si="0"/>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" si="0"/>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X4" s="3">
         <f t="shared" si="0"/>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" si="0"/>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" si="0"/>
@@ -9154,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9252,34 +10960,34 @@
       </c>
       <c r="Y5" s="9">
         <f>(1-Data!$A10)*'fuels-FoICStCT Projections'!X114</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="Z5" s="9">
         <f>(1-Data!$A10)*'fuels-FoICStCT Projections'!Y114</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AA5" s="9">
         <f>(1-Data!$A10)*'fuels-FoICStCT Projections'!Z114</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AB5" s="9">
         <f>(1-Data!$A10)*'fuels-FoICStCT Projections'!AA114</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AC5" s="9">
         <f>(1-Data!$A10)*'fuels-FoICStCT Projections'!AB114</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AD5" s="9">
         <f>(1-Data!$A10)*'fuels-FoICStCT Projections'!AC114</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AE5" s="9">
         <f>(1-Data!$A10)*'fuels-FoICStCT Projections'!AD114</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -9374,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -9469,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -9499,75 +11207,75 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="1"/>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="1"/>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="1"/>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="1"/>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R8" s="3">
         <f t="shared" si="1"/>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S8" s="3">
         <f t="shared" si="1"/>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" si="1"/>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" si="1"/>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" si="1"/>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" si="1"/>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" si="1"/>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" si="1"/>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" si="1"/>
@@ -9594,7 +11302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -9626,7 +11334,7 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -9658,7 +11366,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -9690,7 +11398,7 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -9722,7 +11430,7 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -9754,7 +11462,7 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -9786,7 +11494,7 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -9818,7 +11526,7 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -9850,7 +11558,7 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:31">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -9882,7 +11590,7 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:31">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -9914,7 +11622,7 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:31">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -9946,7 +11654,7 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:31">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -9978,7 +11686,7 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:31">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -10010,7 +11718,7 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:31">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -10042,7 +11750,7 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:31">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -10074,7 +11782,7 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:31">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -10106,7 +11814,7 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:31">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -10138,7 +11846,7 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:31">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -10170,7 +11878,7 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:31">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -10202,7 +11910,7 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:31">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
@@ -10218,18 +11926,18 @@
   </sheetPr>
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10324,7 +12032,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -10354,75 +12062,75 @@
       </c>
       <c r="H2" s="3">
         <f>calcs!H3</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I2" s="3">
         <f>calcs!I3</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J2" s="3">
         <f>calcs!J3</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K2" s="3">
         <f>calcs!K3</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L2" s="3">
         <f>calcs!L3</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M2" s="3">
         <f>calcs!M3</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N2" s="3">
         <f>calcs!N3</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O2" s="3">
         <f>calcs!O3</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P2" s="3">
         <f>calcs!P3</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q2" s="3">
         <f>calcs!Q3</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R2" s="3">
         <f>calcs!R3</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S2" s="3">
         <f>calcs!S3</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T2" s="3">
         <f>calcs!T3</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U2" s="3">
         <f>calcs!U3</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V2" s="3">
         <f>calcs!V3</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W2" s="3">
         <f>calcs!W3</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X2" s="3">
         <f>calcs!X3</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y2" s="3">
         <f>calcs!Y3</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="3">
         <f>calcs!Z3</f>
@@ -10449,7 +12157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -10479,75 +12187,75 @@
       </c>
       <c r="H3" s="3">
         <f>calcs!H4</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I3" s="3">
         <f>calcs!I4</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J3" s="3">
         <f>calcs!J4</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K3" s="3">
         <f>calcs!K4</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L3" s="3">
         <f>calcs!L4</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M3" s="3">
         <f>calcs!M4</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N3" s="3">
         <f>calcs!N4</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O3" s="3">
         <f>calcs!O4</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P3" s="3">
         <f>calcs!P4</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q3" s="3">
         <f>calcs!Q4</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R3" s="3">
         <f>calcs!R4</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S3" s="3">
         <f>calcs!S4</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T3" s="3">
         <f>calcs!T4</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U3" s="3">
         <f>calcs!U4</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V3" s="3">
         <f>calcs!V4</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W3" s="3">
         <f>calcs!W4</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X3" s="3">
         <f>calcs!X4</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y3" s="3">
         <f>calcs!Y4</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="3">
         <f>calcs!Z4</f>
@@ -10574,7 +12282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -10672,34 +12380,34 @@
       </c>
       <c r="Y4" s="3">
         <f>calcs!Y5</f>
-        <v>1</v>
+        <v>0.95866953785887354</v>
       </c>
       <c r="Z4" s="3">
         <f>calcs!Z5</f>
-        <v>0.96689424223107712</v>
+        <v>0.90853827490370842</v>
       </c>
       <c r="AA4" s="3">
         <f>calcs!AA5</f>
-        <v>0.967194329412564</v>
+        <v>0.9096263283706546</v>
       </c>
       <c r="AB4" s="3">
         <f>calcs!AB5</f>
-        <v>0.96748642055566558</v>
+        <v>0.91068538987185343</v>
       </c>
       <c r="AC4" s="3">
         <f>calcs!AC5</f>
-        <v>0.9677708310487817</v>
+        <v>0.91171660293979429</v>
       </c>
       <c r="AD4" s="3">
         <f>calcs!AD5</f>
-        <v>0.96804785990903552</v>
+        <v>0.91272105174813656</v>
       </c>
       <c r="AE4" s="3">
         <f>calcs!AE5</f>
-        <v>0.96831779083092229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+        <v>0.91369976491388938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -10824,7 +12532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -10949,7 +12657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -10979,75 +12687,75 @@
       </c>
       <c r="H7" s="3">
         <f>calcs!H8</f>
-        <v>9.8064064411638369E-2</v>
+        <v>0.10617598150451286</v>
       </c>
       <c r="I7" s="3">
         <f>calcs!I8</f>
-        <v>9.0506983007945005E-2</v>
+        <v>9.7993773881763988E-2</v>
       </c>
       <c r="J7" s="3">
         <f>calcs!J8</f>
-        <v>8.3483363297058327E-2</v>
+        <v>9.0389156216851757E-2</v>
       </c>
       <c r="K7" s="3">
         <f>calcs!K8</f>
-        <v>7.614907418508253E-2</v>
+        <v>8.2448170395245601E-2</v>
       </c>
       <c r="L7" s="3">
         <f>calcs!L8</f>
-        <v>0.16170277191321103</v>
+        <v>0.17482704913236577</v>
       </c>
       <c r="M7" s="3">
         <f>calcs!M8</f>
-        <v>0.2443274226392308</v>
+        <v>0.26379126028748828</v>
       </c>
       <c r="N7" s="3">
         <f>calcs!N8</f>
-        <v>0.32417091463675918</v>
+        <v>0.34952669647519885</v>
       </c>
       <c r="O7" s="3">
         <f>calcs!O8</f>
-        <v>0.40137134507933409</v>
+        <v>0.43220599761177209</v>
       </c>
       <c r="P7" s="3">
         <f>calcs!P8</f>
-        <v>0.47605781713500306</v>
+        <v>0.51198971125237169</v>
       </c>
       <c r="Q7" s="3">
         <f>calcs!Q8</f>
-        <v>0.53282487625645336</v>
+        <v>0.57234932379357994</v>
       </c>
       <c r="R7" s="3">
         <f>calcs!R8</f>
-        <v>0.58780166857069494</v>
+        <v>0.63066655518619441</v>
       </c>
       <c r="S7" s="3">
         <f>calcs!S8</f>
-        <v>0.64107156903540741</v>
+        <v>0.68704334253133781</v>
       </c>
       <c r="T7" s="3">
         <f>calcs!T8</f>
-        <v>0.69271285458110032</v>
+        <v>0.7415749502454525</v>
       </c>
       <c r="U7" s="3">
         <f>calcs!U8</f>
-        <v>0.74279908789796378</v>
+        <v>0.79435050725208389</v>
       </c>
       <c r="V7" s="3">
         <f>calcs!V8</f>
-        <v>0.8045454617108202</v>
+        <v>0.85949738313819102</v>
       </c>
       <c r="W7" s="3">
         <f>calcs!W8</f>
-        <v>0.86448684592783587</v>
+        <v>0.92261182028553845</v>
       </c>
       <c r="X7" s="3">
         <f>calcs!X8</f>
-        <v>0.9227012464455262</v>
+        <v>0.98378746925288985</v>
       </c>
       <c r="Y7" s="3">
         <f>calcs!Y8</f>
-        <v>0.97926223810419988</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="3">
         <f>calcs!Z8</f>
@@ -11074,7 +12782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -11106,7 +12814,7 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -11138,7 +12846,7 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -11170,7 +12878,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -11202,7 +12910,7 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -11234,7 +12942,7 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -11266,7 +12974,7 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -11298,7 +13006,7 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -11330,7 +13038,7 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -11362,7 +13070,7 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:31">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -11394,7 +13102,7 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:31">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -11426,7 +13134,7 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
     </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:31">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -11458,7 +13166,7 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:31">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -11490,7 +13198,7 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
     </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:31">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -11522,7 +13230,7 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:31">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -11554,7 +13262,7 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:31">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -11586,7 +13294,7 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:31">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -11618,7 +13326,7 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:31">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -11650,7 +13358,7 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:31">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -11682,7 +13390,7 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:31">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>

--- a/InputData/fuels/FoVTStCT/Fraction of Vehicle Types Subject to Carbon Tax.xlsx
+++ b/InputData/fuels/FoVTStCT/Fraction of Vehicle Types Subject to Carbon Tax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\FoVTStCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\fuels\FoVTStCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D834495-30DF-49D6-A925-609928EFEDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963B1D52-B69F-40AB-886E-BB5B6893D256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
+    <workbookView xWindow="35835" yWindow="3240" windowWidth="19185" windowHeight="11265" activeTab="4" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,6 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="CH4_to_CO2e">'[1]Cross-Page Data'!$C$12</definedName>
@@ -56,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Unit: dimensionless</t>
   </si>
@@ -290,20 +288,27 @@
   <si>
     <t>In the EU, aviation and shipping are covered by ETS1.</t>
   </si>
+  <si>
+    <t>BNEF</t>
+  </si>
+  <si>
+    <t>H2 2024 projections</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)"/>
-    <numFmt numFmtId="170" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="[$€-2]\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="[$€-2]\ #,##0.00_);\([$€-2]\ #,##0.00\)"/>
+    <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0"/>
+    <numFmt numFmtId="170" formatCode="[$€-2]\ #,##0.000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,7 +482,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -511,10 +516,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -894,7 +900,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>86.084369999999993</c:v>
+                  <c:v>86.339434799999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>85</c:v>
@@ -903,82 +909,82 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.48183556405354</c:v>
+                  <c:v>67.724665391969438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.242026266416502</c:v>
+                  <c:v>80.262664165103189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.764272559852671</c:v>
+                  <c:v>95.727440147329659</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.36166365280289</c:v>
+                  <c:v>102.31464737793851</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.78863232682059</c:v>
+                  <c:v>115.20426287744226</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>127.39965095986037</c:v>
+                  <c:v>126.84118673647468</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137.22126929674101</c:v>
+                  <c:v>133.36052658215647</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>141.65261382799326</c:v>
+                  <c:v>134.58767739188337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>146.76616915422886</c:v>
+                  <c:v>134.56255154707881</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>151.71288743882545</c:v>
+                  <c:v>138.80097879282221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>155.69823434991974</c:v>
+                  <c:v>141.7063222183987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>161.12056091931996</c:v>
+                  <c:v>146.64136826580562</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>166.28468146160586</c:v>
+                  <c:v>151.34141212047891</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>171.44880200389176</c:v>
+                  <c:v>156.04145597515216</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>176.61292254617766</c:v>
+                  <c:v>160.74149982982544</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>181.77704308846356</c:v>
+                  <c:v>165.44154368449873</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>186.94116363074943</c:v>
+                  <c:v>170.14158753917195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>192.10528417303533</c:v>
+                  <c:v>174.84163139384518</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>197.26940471532123</c:v>
+                  <c:v>179.54167524851843</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>202.43352525760713</c:v>
+                  <c:v>184.24171910319166</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>207.85585182700731</c:v>
+                  <c:v>189.17676515059858</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>213.01997236929321</c:v>
+                  <c:v>193.87680900527187</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>218.18409291157911</c:v>
+                  <c:v>198.57685285994512</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>223.34821345386501</c:v>
+                  <c:v>203.27689671461837</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>228.51233399615089</c:v>
+                  <c:v>207.97694056929163</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>233.67645453843679</c:v>
+                  <c:v>212.67698442396488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,67 +2025,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>598150</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Projected EU carbon pricing through 2035">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A282CE23-1868-4658-9431-42FA32AB7540}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3216275" y="5838825"/>
-          <a:ext cx="4716125" cy="2914650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -2112,10 +2057,69 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>391431</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>119289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>706888</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>105192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A81AD14-D3F9-3D66-AB17-924767C3AE02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="10162" t="51546" r="7146" b="2402"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3493860" y="5820682"/>
+          <a:ext cx="5377314" cy="2989906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2316,439 +2320,6 @@
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
       <sheetData sheetId="21"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="ETS Auction Prices"/>
-      <sheetName val="EPS 3.4.5 (2023) Modeling --&gt;"/>
-      <sheetName val="Top-Down Targets"/>
-      <sheetName val="Fit for 55 (2022)"/>
-      <sheetName val="FIt for 55 (2023)"/>
-      <sheetName val="Bottom-Up EUGD EPS Inputs"/>
-      <sheetName val="Bottom-Up EUGD Policies"/>
-      <sheetName val="Efficiency Target"/>
-      <sheetName val="ETS Calculations"/>
-      <sheetName val="Buildings RES Target"/>
-      <sheetName val="Industry RES Target"/>
-      <sheetName val="LCFS EPS Settings"/>
-      <sheetName val="Crosswalk"/>
-      <sheetName val="Output Graphs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="33">
-          <cell r="F33" t="str">
-            <v>BCTR [EUR2019]</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Carbon Leakage Risk"/>
-      <sheetName val="Allowance Schedule"/>
-      <sheetName val="ETS Coverage"/>
-      <sheetName val="ETS Projections"/>
-      <sheetName val="Calcs"/>
-      <sheetName val="FoICStCT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="22">
-          <cell r="C22">
-            <v>43.130404778848849</v>
-          </cell>
-          <cell r="D22">
-            <v>43.130404778848849</v>
-          </cell>
-          <cell r="E22">
-            <v>43.130404778848849</v>
-          </cell>
-          <cell r="F22">
-            <v>43.130404778848849</v>
-          </cell>
-          <cell r="G22">
-            <v>46.806291549773469</v>
-          </cell>
-          <cell r="H22">
-            <v>50.48217832069809</v>
-          </cell>
-          <cell r="I22">
-            <v>54.280594650653519</v>
-          </cell>
-          <cell r="J22">
-            <v>57.95648142157814</v>
-          </cell>
-          <cell r="K22">
-            <v>61.632368192502753</v>
-          </cell>
-          <cell r="L22">
-            <v>64.082959373119166</v>
-          </cell>
-          <cell r="M22">
-            <v>66.53355055373558</v>
-          </cell>
-          <cell r="N22">
-            <v>68.984141734351994</v>
-          </cell>
-          <cell r="O22">
-            <v>71.434732914968407</v>
-          </cell>
-          <cell r="P22">
-            <v>73.885324095584821</v>
-          </cell>
-          <cell r="Q22">
-            <v>76.458444835232044</v>
-          </cell>
-          <cell r="R22">
-            <v>78.909036015848471</v>
-          </cell>
-          <cell r="S22">
-            <v>81.359627196464885</v>
-          </cell>
-          <cell r="T22">
-            <v>83.810218377081299</v>
-          </cell>
-          <cell r="U22">
-            <v>86.260809557697698</v>
-          </cell>
-          <cell r="V22">
-            <v>88.711400738314111</v>
-          </cell>
-          <cell r="W22">
-            <v>91.161991918930525</v>
-          </cell>
-          <cell r="X22">
-            <v>93.612583099546939</v>
-          </cell>
-          <cell r="Y22">
-            <v>96.063174280163352</v>
-          </cell>
-          <cell r="Z22">
-            <v>98.636295019810575</v>
-          </cell>
-          <cell r="AA22">
-            <v>101.08688620042699</v>
-          </cell>
-          <cell r="AB22">
-            <v>103.5374773810434</v>
-          </cell>
-          <cell r="AC22">
-            <v>105.98806856165982</v>
-          </cell>
-          <cell r="AD22">
-            <v>108.43865974227623</v>
-          </cell>
-          <cell r="AE22">
-            <v>110.88925092289264</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>2022</v>
-          </cell>
-          <cell r="D27">
-            <v>2023</v>
-          </cell>
-          <cell r="E27">
-            <v>2024</v>
-          </cell>
-          <cell r="F27">
-            <v>2025</v>
-          </cell>
-          <cell r="G27">
-            <v>2026</v>
-          </cell>
-          <cell r="H27">
-            <v>2027</v>
-          </cell>
-          <cell r="I27">
-            <v>2028</v>
-          </cell>
-          <cell r="J27">
-            <v>2029</v>
-          </cell>
-          <cell r="K27">
-            <v>2030</v>
-          </cell>
-          <cell r="L27">
-            <v>2031</v>
-          </cell>
-          <cell r="M27">
-            <v>2032</v>
-          </cell>
-          <cell r="N27">
-            <v>2033</v>
-          </cell>
-          <cell r="O27">
-            <v>2034</v>
-          </cell>
-          <cell r="P27">
-            <v>2035</v>
-          </cell>
-          <cell r="Q27">
-            <v>2036</v>
-          </cell>
-          <cell r="R27">
-            <v>2037</v>
-          </cell>
-          <cell r="S27">
-            <v>2038</v>
-          </cell>
-          <cell r="T27">
-            <v>2039</v>
-          </cell>
-          <cell r="U27">
-            <v>2040</v>
-          </cell>
-          <cell r="V27">
-            <v>2041</v>
-          </cell>
-          <cell r="W27">
-            <v>2042</v>
-          </cell>
-          <cell r="X27">
-            <v>2043</v>
-          </cell>
-          <cell r="Y27">
-            <v>2044</v>
-          </cell>
-          <cell r="Z27">
-            <v>2045</v>
-          </cell>
-          <cell r="AA27">
-            <v>2046</v>
-          </cell>
-          <cell r="AB27">
-            <v>2047</v>
-          </cell>
-          <cell r="AC27">
-            <v>2048</v>
-          </cell>
-          <cell r="AD27">
-            <v>2049</v>
-          </cell>
-          <cell r="AE27">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>86.084369999999993</v>
-          </cell>
-          <cell r="D30">
-            <v>85</v>
-          </cell>
-          <cell r="E30">
-            <v>65</v>
-          </cell>
-          <cell r="F30">
-            <v>76.48183556405354</v>
-          </cell>
-          <cell r="G30">
-            <v>87.242026266416502</v>
-          </cell>
-          <cell r="H30">
-            <v>95.764272559852671</v>
-          </cell>
-          <cell r="I30">
-            <v>100.36166365280289</v>
-          </cell>
-          <cell r="J30">
-            <v>112.78863232682059</v>
-          </cell>
-          <cell r="K30">
-            <v>127.39965095986037</v>
-          </cell>
-          <cell r="L30">
-            <v>137.22126929674101</v>
-          </cell>
-          <cell r="M30">
-            <v>141.65261382799326</v>
-          </cell>
-          <cell r="N30">
-            <v>146.76616915422886</v>
-          </cell>
-          <cell r="O30">
-            <v>151.71288743882545</v>
-          </cell>
-          <cell r="P30">
-            <v>155.69823434991974</v>
-          </cell>
-          <cell r="Q30">
-            <v>161.12056091931996</v>
-          </cell>
-          <cell r="R30">
-            <v>166.28468146160586</v>
-          </cell>
-          <cell r="S30">
-            <v>171.44880200389176</v>
-          </cell>
-          <cell r="T30">
-            <v>176.61292254617766</v>
-          </cell>
-          <cell r="U30">
-            <v>181.77704308846356</v>
-          </cell>
-          <cell r="V30">
-            <v>186.94116363074943</v>
-          </cell>
-          <cell r="W30">
-            <v>192.10528417303533</v>
-          </cell>
-          <cell r="X30">
-            <v>197.26940471532123</v>
-          </cell>
-          <cell r="Y30">
-            <v>202.43352525760713</v>
-          </cell>
-          <cell r="Z30">
-            <v>207.85585182700731</v>
-          </cell>
-          <cell r="AA30">
-            <v>213.01997236929321</v>
-          </cell>
-          <cell r="AB30">
-            <v>218.18409291157911</v>
-          </cell>
-          <cell r="AC30">
-            <v>223.34821345386501</v>
-          </cell>
-          <cell r="AD30">
-            <v>228.51233399615089</v>
-          </cell>
-          <cell r="AE30">
-            <v>233.67645453843679</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>0</v>
-          </cell>
-          <cell r="D57">
-            <v>0</v>
-          </cell>
-          <cell r="E57">
-            <v>0</v>
-          </cell>
-          <cell r="F57">
-            <v>0</v>
-          </cell>
-          <cell r="G57">
-            <v>0</v>
-          </cell>
-          <cell r="H57">
-            <v>46.192271301325711</v>
-          </cell>
-          <cell r="I57">
-            <v>67.929810737243685</v>
-          </cell>
-          <cell r="J57">
-            <v>88.797138218619196</v>
-          </cell>
-          <cell r="K57">
-            <v>108.82002232673923</v>
-          </cell>
-          <cell r="L57">
-            <v>128.02355567851674</v>
-          </cell>
-          <cell r="M57">
-            <v>146.43217152771521</v>
-          </cell>
-          <cell r="N57">
-            <v>164.06965997503107</v>
-          </cell>
-          <cell r="O57">
-            <v>180.95918379599019</v>
-          </cell>
-          <cell r="P57">
-            <v>197.12329389541409</v>
-          </cell>
-          <cell r="Q57">
-            <v>212.58394439701522</v>
-          </cell>
-          <cell r="R57">
-            <v>227.36250737648683</v>
-          </cell>
-          <cell r="S57">
-            <v>241.47978724626876</v>
-          </cell>
-          <cell r="T57">
-            <v>254.95603479998206</v>
-          </cell>
-          <cell r="U57">
-            <v>267.81096092435087</v>
-          </cell>
-          <cell r="V57">
-            <v>273.06215623659307</v>
-          </cell>
-          <cell r="W57">
-            <v>278.00445770693869</v>
-          </cell>
-          <cell r="X57">
-            <v>282.64795990538425</v>
-          </cell>
-          <cell r="Y57">
-            <v>287.00248029608349</v>
-          </cell>
-          <cell r="Z57">
-            <v>291.07756622320835</v>
-          </cell>
-          <cell r="AA57">
-            <v>288.54094255241796</v>
-          </cell>
-          <cell r="AB57">
-            <v>285.99188445186866</v>
-          </cell>
-          <cell r="AC57">
-            <v>283.43185479564988</v>
-          </cell>
-          <cell r="AD57">
-            <v>280.86226387087379</v>
-          </cell>
-          <cell r="AE57">
-            <v>278.28447087748242</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3051,20 +2622,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE5FEEC-01CE-4291-999E-35B30A1256CF}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3076,25 +2647,25 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>67</v>
       </c>
@@ -3103,17 +2674,17 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>39</v>
       </c>
@@ -3122,33 +2693,52 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3166,17 +2756,17 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1">
+    <row r="1" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>0.15</v>
       </c>
@@ -3184,7 +2774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>0.82</v>
       </c>
@@ -3192,7 +2782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>0.03</v>
       </c>
@@ -3200,17 +2790,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="7" customFormat="1">
+    <row r="6" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="32">
         <v>0.75</v>
       </c>
@@ -3218,7 +2808,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="32">
         <v>0.5</v>
       </c>
@@ -3226,7 +2816,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="32">
         <v>0</v>
       </c>
@@ -3234,17 +2824,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="7" customFormat="1">
+    <row r="12" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="32">
         <v>0.4</v>
       </c>
@@ -3252,7 +2842,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="32">
         <v>0.7</v>
       </c>
@@ -3260,7 +2850,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="32">
         <v>1</v>
       </c>
@@ -3277,18 +2867,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1D82A8-246A-43A9-9BCA-A1657349D44C}">
   <dimension ref="A1:AE70"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="35.54296875" customWidth="1"/>
     <col min="3" max="31" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1"/>
-    <row r="2" spans="1:31">
+    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
       <c r="F2" s="14"/>
@@ -3309,7 +2899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="D3" s="17" t="s">
         <v>47</v>
       </c>
@@ -3334,7 +2924,7 @@
         <v>0.81612960000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="D4" s="17"/>
       <c r="E4" s="9"/>
       <c r="F4" s="18"/>
@@ -3358,7 +2948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15" thickBot="1">
+    <row r="5" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D5" s="17"/>
       <c r="E5" s="9"/>
       <c r="F5" s="18"/>
@@ -3383,7 +2973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15" thickBot="1">
+    <row r="6" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D6" s="23"/>
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
@@ -3398,13 +2988,13 @@
       <c r="L6" s="28"/>
       <c r="M6" s="25"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="9" spans="1:31" s="7" customFormat="1">
+    <row r="9" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
@@ -3414,19 +3004,19 @@
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
       <c r="F10" s="9"/>
       <c r="G10" s="29"/>
       <c r="H10" s="30"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -3518,7 +3108,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>48</v>
       </c>
@@ -3610,7 +3200,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>49</v>
       </c>
@@ -3702,7 +3292,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>50</v>
       </c>
@@ -3794,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -3886,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>52</v>
       </c>
@@ -3978,7 +3568,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>53</v>
       </c>
@@ -4070,7 +3660,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>54</v>
       </c>
@@ -4162,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>55</v>
       </c>
@@ -4254,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>56</v>
       </c>
@@ -4375,7 +3965,7 @@
         <v>110.88925092289264</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="7" customFormat="1">
+    <row r="24" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>15</v>
       </c>
@@ -4385,13 +3975,13 @@
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>2022</v>
       </c>
@@ -4480,51 +4070,51 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>58</v>
       </c>
       <c r="C28">
-        <v>81</v>
+        <v>81.239999999999995</v>
       </c>
       <c r="D28">
         <v>85</v>
       </c>
       <c r="E28">
-        <v>65</v>
+        <v>65.320000000000007</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>70.840000000000032</v>
       </c>
       <c r="G28">
-        <v>93</v>
+        <v>85.56</v>
       </c>
       <c r="H28">
-        <v>104</v>
+        <v>103.96000000000001</v>
       </c>
       <c r="I28">
-        <v>111</v>
+        <v>113.16000000000001</v>
       </c>
       <c r="J28">
-        <v>127</v>
+        <v>129.72</v>
       </c>
       <c r="K28">
-        <v>146</v>
+        <v>145.36000000000001</v>
       </c>
       <c r="L28">
-        <v>160</v>
+        <v>155.49837399479443</v>
       </c>
       <c r="M28">
-        <v>168</v>
+        <v>159.62098538677367</v>
       </c>
       <c r="N28">
-        <v>177</v>
+        <v>162.28243716577705</v>
       </c>
       <c r="O28">
-        <v>186</v>
+        <v>170.17000000000002</v>
       </c>
       <c r="P28">
-        <v>194</v>
+        <v>176.56607748412478</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -4542,7 +4132,7 @@
       <c r="AD28" s="4"/>
       <c r="AE28" s="4"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>59</v>
       </c>
@@ -4617,13 +4207,13 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="4">
         <f>C28*C29</f>
-        <v>86.084369999999993</v>
+        <v>86.339434799999992</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ref="D30:P30" si="2">D28*D29</f>
@@ -4634,116 +4224,116 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" si="2"/>
-        <v>76.48183556405354</v>
+        <v>67.724665391969438</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="2"/>
-        <v>87.242026266416502</v>
+        <v>80.262664165103189</v>
       </c>
       <c r="H30" s="4">
         <f t="shared" si="2"/>
-        <v>95.764272559852671</v>
+        <v>95.727440147329659</v>
       </c>
       <c r="I30" s="4">
         <f t="shared" si="2"/>
-        <v>100.36166365280289</v>
+        <v>102.31464737793851</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="2"/>
-        <v>112.78863232682059</v>
+        <v>115.20426287744226</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" si="2"/>
-        <v>127.39965095986037</v>
+        <v>126.84118673647468</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="2"/>
-        <v>137.22126929674101</v>
+        <v>133.36052658215647</v>
       </c>
       <c r="M30" s="4">
         <f t="shared" si="2"/>
-        <v>141.65261382799326</v>
+        <v>134.58767739188337</v>
       </c>
       <c r="N30" s="4">
         <f t="shared" si="2"/>
-        <v>146.76616915422886</v>
+        <v>134.56255154707881</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="2"/>
-        <v>151.71288743882545</v>
+        <v>138.80097879282221</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="2"/>
-        <v>155.69823434991974</v>
+        <v>141.7063222183987</v>
       </c>
       <c r="Q30" s="4">
         <f>Q31/$S3</f>
-        <v>161.12056091931996</v>
+        <v>146.64136826580562</v>
       </c>
       <c r="R30" s="4">
         <f t="shared" ref="R30:AE30" si="3">R31/$S3</f>
-        <v>166.28468146160586</v>
+        <v>151.34141212047891</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="3"/>
-        <v>171.44880200389176</v>
+        <v>156.04145597515216</v>
       </c>
       <c r="T30" s="4">
         <f t="shared" si="3"/>
-        <v>176.61292254617766</v>
+        <v>160.74149982982544</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="3"/>
-        <v>181.77704308846356</v>
+        <v>165.44154368449873</v>
       </c>
       <c r="V30" s="4">
         <f t="shared" si="3"/>
-        <v>186.94116363074943</v>
+        <v>170.14158753917195</v>
       </c>
       <c r="W30" s="4">
         <f t="shared" si="3"/>
-        <v>192.10528417303533</v>
+        <v>174.84163139384518</v>
       </c>
       <c r="X30" s="4">
         <f t="shared" si="3"/>
-        <v>197.26940471532123</v>
+        <v>179.54167524851843</v>
       </c>
       <c r="Y30" s="4">
         <f t="shared" si="3"/>
-        <v>202.43352525760713</v>
+        <v>184.24171910319166</v>
       </c>
       <c r="Z30" s="4">
         <f t="shared" si="3"/>
-        <v>207.85585182700731</v>
+        <v>189.17676515059858</v>
       </c>
       <c r="AA30" s="4">
         <f t="shared" si="3"/>
-        <v>213.01997236929321</v>
+        <v>193.87680900527187</v>
       </c>
       <c r="AB30" s="4">
         <f t="shared" si="3"/>
-        <v>218.18409291157911</v>
+        <v>198.57685285994512</v>
       </c>
       <c r="AC30" s="4">
         <f t="shared" si="3"/>
-        <v>223.34821345386501</v>
+        <v>203.27689671461837</v>
       </c>
       <c r="AD30" s="4">
         <f t="shared" si="3"/>
-        <v>228.51233399615089</v>
+        <v>207.97694056929163</v>
       </c>
       <c r="AE30" s="4">
         <f t="shared" si="3"/>
-        <v>233.67645453843679</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
+        <v>212.67698442396488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="4">
         <f>C30*$S3</f>
-        <v>70.256002454352</v>
+        <v>70.464168387550075</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ref="D31:P31" si="4">D30*$S3</f>
@@ -4755,115 +4345,115 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" si="4"/>
-        <v>62.419089866156789</v>
+        <v>55.27210407648186</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="4"/>
-        <v>71.200800000000001</v>
+        <v>65.504735999999994</v>
       </c>
       <c r="H31" s="4">
         <f t="shared" si="4"/>
-        <v>78.156057458563538</v>
+        <v>78.125997436464104</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="4"/>
-        <v>81.908124412296559</v>
+        <v>83.502012238698015</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>92.050141385435154</v>
+        <v>94.021608980461806</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" si="4"/>
-        <v>103.97462617801045</v>
+        <v>103.51884699476439</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="4"/>
-        <v>111.99033962264153</v>
+        <v>108.83947321528473</v>
       </c>
       <c r="M31" s="4">
         <f t="shared" si="4"/>
-        <v>115.60689106239461</v>
+        <v>109.84098731476682</v>
       </c>
       <c r="N31" s="4">
         <f t="shared" si="4"/>
-        <v>119.78021492537314</v>
+        <v>109.82048136909681</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="4"/>
-        <v>123.81737814029364</v>
+        <v>113.27958730179448</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="4"/>
-        <v>127.06993772070626</v>
+        <v>115.65072406957285</v>
       </c>
       <c r="Q31" s="4">
         <f>P31*Q13/P13</f>
-        <v>131.49525893486023</v>
+        <v>119.67836122622464</v>
       </c>
       <c r="R31" s="4">
         <f t="shared" ref="R31:AE31" si="5">Q31*R13/Q13</f>
-        <v>135.7098505673878</v>
+        <v>123.51420613732159</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="5"/>
-        <v>139.92444219991538</v>
+        <v>127.35005104841855</v>
       </c>
       <c r="T31" s="4">
         <f t="shared" si="5"/>
-        <v>144.13903383244295</v>
+        <v>131.18589595951551</v>
       </c>
       <c r="U31" s="4">
         <f t="shared" si="5"/>
-        <v>148.35362546497052</v>
+        <v>135.02174087061246</v>
       </c>
       <c r="V31" s="4">
         <f t="shared" si="5"/>
-        <v>152.56821709749809</v>
+        <v>138.85758578170939</v>
       </c>
       <c r="W31" s="4">
         <f t="shared" si="5"/>
-        <v>156.78280873002566</v>
+        <v>142.69343069280632</v>
       </c>
       <c r="X31" s="4">
         <f t="shared" si="5"/>
-        <v>160.99740036255324</v>
+        <v>146.52927560390324</v>
       </c>
       <c r="Y31" s="4">
         <f t="shared" si="5"/>
-        <v>165.21199199508081</v>
+        <v>150.36512051500017</v>
       </c>
       <c r="Z31" s="4">
         <f t="shared" si="5"/>
-        <v>169.63731320923475</v>
+        <v>154.39275767165196</v>
       </c>
       <c r="AA31" s="4">
         <f t="shared" si="5"/>
-        <v>173.85190484176232</v>
+        <v>158.22860258274892</v>
       </c>
       <c r="AB31" s="4">
         <f t="shared" si="5"/>
-        <v>178.06649647428989</v>
+        <v>162.06444749384588</v>
       </c>
       <c r="AC31" s="4">
         <f t="shared" si="5"/>
-        <v>182.28108810681746</v>
+        <v>165.9002924049428</v>
       </c>
       <c r="AD31" s="4">
         <f t="shared" si="5"/>
-        <v>186.49567973934504</v>
+        <v>169.73613731603976</v>
       </c>
       <c r="AE31" s="4">
         <f t="shared" si="5"/>
-        <v>190.71027137187261</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" s="10" customFormat="1">
+        <v>173.57198222713669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>25</v>
       </c>
@@ -4955,7 +4545,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>62</v>
       </c>
@@ -5070,7 +4660,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>45</v>
       </c>
@@ -5186,7 +4776,7 @@
         <v>278.28447087748242</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>26</v>
       </c>
@@ -5307,7 +4897,7 @@
         <v>227.11619390345138</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -5338,12 +4928,12 @@
       <c r="AD59" s="9"/>
       <c r="AE59" s="9"/>
     </row>
-    <row r="60" spans="1:31" s="10" customFormat="1">
+    <row r="60" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>25</v>
       </c>
@@ -5435,7 +5025,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>30</v>
       </c>
@@ -5556,13 +5146,13 @@
         <v>110.88925092289264</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>31</v>
       </c>
       <c r="C64" s="34">
         <f t="shared" ref="C64:AE64" si="12">MAX(C57,C30)</f>
-        <v>86.084369999999993</v>
+        <v>86.339434799999992</v>
       </c>
       <c r="D64" s="34">
         <f t="shared" si="12"/>
@@ -5574,31 +5164,31 @@
       </c>
       <c r="F64" s="34">
         <f t="shared" si="12"/>
-        <v>76.48183556405354</v>
+        <v>67.724665391969438</v>
       </c>
       <c r="G64" s="34">
         <f t="shared" si="12"/>
-        <v>87.242026266416502</v>
+        <v>80.262664165103189</v>
       </c>
       <c r="H64" s="34">
-        <f t="shared" si="12"/>
-        <v>95.764272559852671</v>
+        <f>MAX(H57,H30)</f>
+        <v>95.727440147329659</v>
       </c>
       <c r="I64" s="34">
         <f t="shared" si="12"/>
-        <v>100.36166365280289</v>
+        <v>102.31464737793851</v>
       </c>
       <c r="J64" s="34">
         <f t="shared" si="12"/>
-        <v>112.78863232682059</v>
+        <v>115.20426287744226</v>
       </c>
       <c r="K64" s="34">
         <f t="shared" si="12"/>
-        <v>127.39965095986037</v>
+        <v>126.84118673647468</v>
       </c>
       <c r="L64" s="34">
         <f t="shared" si="12"/>
-        <v>137.22126929674101</v>
+        <v>133.36052658215647</v>
       </c>
       <c r="M64" s="34">
         <f t="shared" si="12"/>
@@ -5677,7 +5267,7 @@
         <v>278.28447087748242</v>
       </c>
     </row>
-    <row r="65" spans="2:31">
+    <row r="65" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>32</v>
       </c>
@@ -5721,84 +5311,84 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="M65">
-        <f t="shared" si="13"/>
-        <v>0.96735992063863285</v>
+      <c r="M65" s="35">
+        <f>M30/M64</f>
+        <v>0.91911276045243906</v>
       </c>
       <c r="N65">
         <f t="shared" si="13"/>
-        <v>0.89453570621505807</v>
+        <v>0.82015499738072961</v>
       </c>
       <c r="O65">
         <f t="shared" si="13"/>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P65">
         <f t="shared" si="13"/>
-        <v>0.78985203256864778</v>
-      </c>
-      <c r="Q65" s="34">
+        <v>0.71887152156448098</v>
+      </c>
+      <c r="Q65" s="35">
         <f t="shared" si="13"/>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R65">
         <f t="shared" si="13"/>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S65">
         <f t="shared" si="13"/>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T65">
         <f t="shared" si="13"/>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U65">
         <f t="shared" si="13"/>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V65">
         <f t="shared" si="13"/>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W65">
         <f t="shared" si="13"/>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X65">
         <f t="shared" si="13"/>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y65">
         <f t="shared" si="13"/>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z65">
         <f t="shared" si="13"/>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA65">
         <f t="shared" si="13"/>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB65">
         <f t="shared" si="13"/>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC65">
         <f t="shared" si="13"/>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD65">
         <f t="shared" si="13"/>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE65">
         <f t="shared" si="13"/>
-        <v>0.83970353718125812</v>
-      </c>
-    </row>
-    <row r="66" spans="2:31">
+        <v>0.76424309180226624</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>33</v>
       </c>
@@ -5823,27 +5413,27 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" si="14"/>
-        <v>0.48235390993499733</v>
+        <f>H57/H64</f>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I66">
         <f t="shared" si="14"/>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J66">
         <f t="shared" si="14"/>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K66">
         <f t="shared" si="14"/>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L66">
         <f t="shared" si="14"/>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M66">
-        <f t="shared" si="14"/>
+        <f>M57/M64</f>
         <v>1</v>
       </c>
       <c r="N66">
@@ -5919,13 +5509,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:31">
+    <row r="68" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>64</v>
       </c>
       <c r="C68" s="29">
         <f>C64-C63</f>
-        <v>42.953965221151144</v>
+        <v>43.209030021151143</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" ref="D68:AE68" si="15">D64-D63</f>
@@ -5937,31 +5527,31 @@
       </c>
       <c r="F68" s="29">
         <f t="shared" si="15"/>
-        <v>33.351430785204691</v>
+        <v>24.594260613120589</v>
       </c>
       <c r="G68" s="29">
         <f t="shared" si="15"/>
-        <v>40.435734716643033</v>
+        <v>33.45637261532972</v>
       </c>
       <c r="H68" s="29">
         <f t="shared" si="15"/>
-        <v>45.282094239154581</v>
+        <v>45.24526182663157</v>
       </c>
       <c r="I68" s="29">
         <f t="shared" si="15"/>
-        <v>46.08106900214937</v>
+        <v>48.034052727284994</v>
       </c>
       <c r="J68" s="29">
         <f t="shared" si="15"/>
-        <v>54.83215090524245</v>
+        <v>57.247781455864121</v>
       </c>
       <c r="K68" s="29">
         <f t="shared" si="15"/>
-        <v>65.767282767357614</v>
+        <v>65.20881854397193</v>
       </c>
       <c r="L68" s="29">
         <f t="shared" si="15"/>
-        <v>73.138309923621847</v>
+        <v>69.277567209037301</v>
       </c>
       <c r="M68" s="29">
         <f t="shared" si="15"/>
@@ -6040,65 +5630,65 @@
         <v>167.39521995458978</v>
       </c>
     </row>
-    <row r="69" spans="2:31">
+    <row r="69" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>65</v>
       </c>
       <c r="C69">
         <f>C31/MAX($C31:$AE31)</f>
-        <v>0.36839128773173085</v>
+        <v>0.40596510729099416</v>
       </c>
       <c r="D69">
         <f t="shared" ref="D69:AE69" si="16">D31/MAX($C31:$AE31)</f>
-        <v>0.36375081164208001</v>
+        <v>0.39966713008566629</v>
       </c>
       <c r="E69">
         <f t="shared" si="16"/>
-        <v>0.2781623853733553</v>
+        <v>0.30562780535962719</v>
       </c>
       <c r="F69">
         <f t="shared" si="16"/>
-        <v>0.3272979972035362</v>
+        <v>0.3184390900378879</v>
       </c>
       <c r="G69">
         <f t="shared" si="16"/>
-        <v>0.37334538663186673</v>
+        <v>0.37739233693995816</v>
       </c>
       <c r="H69">
         <f t="shared" si="16"/>
-        <v>0.40981566905835037</v>
+        <v>0.45010719146036049</v>
       </c>
       <c r="I69">
         <f t="shared" si="16"/>
-        <v>0.42948984248772343</v>
+        <v>0.48108001745020745</v>
       </c>
       <c r="J69">
         <f t="shared" si="16"/>
-        <v>0.4826700770927192</v>
+        <v>0.54168655432778845</v>
       </c>
       <c r="K69">
         <f t="shared" si="16"/>
-        <v>0.54519678164196361</v>
+        <v>0.59640297740737558</v>
       </c>
       <c r="L69">
         <f t="shared" si="16"/>
-        <v>0.58722762448524679</v>
+        <v>0.62705669324474933</v>
       </c>
       <c r="M69">
         <f t="shared" si="16"/>
-        <v>0.6061912147194668</v>
+        <v>0.63282671491893583</v>
       </c>
       <c r="N69">
         <f t="shared" si="16"/>
-        <v>0.6280742723699948</v>
+        <v>0.63270857404500624</v>
       </c>
       <c r="O69">
         <f t="shared" si="16"/>
-        <v>0.64924336402866223</v>
+        <v>0.65263751584951402</v>
       </c>
       <c r="P69">
         <f t="shared" si="16"/>
-        <v>0.66629834254143638</v>
+        <v>0.66629834254143649</v>
       </c>
       <c r="Q69">
         <f t="shared" si="16"/>
@@ -6110,23 +5700,23 @@
       </c>
       <c r="S69">
         <f t="shared" si="16"/>
-        <v>0.73370165745856353</v>
+        <v>0.73370165745856375</v>
       </c>
       <c r="T69">
         <f t="shared" si="16"/>
-        <v>0.75580110497237574</v>
+        <v>0.75580110497237596</v>
       </c>
       <c r="U69">
         <f t="shared" si="16"/>
-        <v>0.77790055248618784</v>
+        <v>0.77790055248618817</v>
       </c>
       <c r="V69">
         <f t="shared" si="16"/>
-        <v>0.8</v>
+        <v>0.80000000000000027</v>
       </c>
       <c r="W69">
         <f t="shared" si="16"/>
-        <v>0.82209944751381214</v>
+        <v>0.82209944751381225</v>
       </c>
       <c r="X69">
         <f t="shared" si="16"/>
@@ -6146,7 +5736,7 @@
       </c>
       <c r="AB69">
         <f t="shared" si="16"/>
-        <v>0.93370165745856348</v>
+        <v>0.93370165745856359</v>
       </c>
       <c r="AC69">
         <f t="shared" si="16"/>
@@ -6154,17 +5744,17 @@
       </c>
       <c r="AD69">
         <f t="shared" si="16"/>
-        <v>0.97790055248618779</v>
+        <v>0.9779005524861879</v>
       </c>
       <c r="AE69">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:31">
+    <row r="70" spans="2:31" x14ac:dyDescent="0.35">
       <c r="C70" t="str">
         <f>"("&amp;C62&amp;","&amp;ROUND(C68/MAX($C68:$AE68),3)&amp;"),"</f>
-        <v>(2022,0.223),</v>
+        <v>(2022,0.225),</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" ref="D70:AE70" si="17">"("&amp;D62&amp;","&amp;ROUND(D68/MAX($C68:$AE68),3)&amp;"),"</f>
@@ -6176,11 +5766,11 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="17"/>
-        <v>(2025,0.173),</v>
+        <v>(2025,0.128),</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="17"/>
-        <v>(2026,0.21),</v>
+        <v>(2026,0.174),</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="17"/>
@@ -6188,19 +5778,19 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" si="17"/>
-        <v>(2028,0.239),</v>
+        <v>(2028,0.25),</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="17"/>
-        <v>(2029,0.285),</v>
+        <v>(2029,0.297),</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="17"/>
-        <v>(2030,0.342),</v>
+        <v>(2030,0.339),</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="17"/>
-        <v>(2031,0.38),</v>
+        <v>(2031,0.36),</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="17"/>
@@ -6294,18 +5884,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D34565F-BA27-452D-9457-6965E4839DAF}">
   <dimension ref="A2:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" customWidth="1"/>
     <col min="3" max="3" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="5">
         <v>2021</v>
@@ -6398,7 +5988,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6427,23 +6017,23 @@
       </c>
       <c r="H3" s="3">
         <f>'ETS Projections'!H66</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I3" s="3">
         <f>'ETS Projections'!I66</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J3" s="3">
         <f>'ETS Projections'!J66</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K3" s="3">
         <f>'ETS Projections'!K66</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L3" s="3">
         <f>'ETS Projections'!L66</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M3" s="3">
         <f>'ETS Projections'!M66</f>
@@ -6522,7 +6112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6551,23 +6141,23 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="0"/>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" si="0"/>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" si="0"/>
@@ -6646,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6696,82 +6286,82 @@
       </c>
       <c r="M5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!M65</f>
-        <v>0.96735992063863285</v>
+        <v>0.91911276045243906</v>
       </c>
       <c r="N5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!N65</f>
-        <v>0.89453570621505807</v>
+        <v>0.82015499738072961</v>
       </c>
       <c r="O5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!O65</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!P65</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!Q65</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!R65</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!S65</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!T65</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!U65</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!V65</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!W65</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!X65</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!Y65</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!Z65</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!AA65</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!AB65</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!AC65</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!AD65</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE5" s="9">
         <f>(1-Data!$A10)*'ETS Projections'!AE65</f>
-        <v>0.83970353718125812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>0.76424309180226624</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6866,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -6913,82 +6503,82 @@
       </c>
       <c r="M7" s="9">
         <f>'ETS Projections'!M65*Data!$A16</f>
-        <v>0.96735992063863285</v>
+        <v>0.91911276045243906</v>
       </c>
       <c r="N7" s="9">
         <f>'ETS Projections'!N65*Data!$A16</f>
-        <v>0.89453570621505807</v>
+        <v>0.82015499738072961</v>
       </c>
       <c r="O7" s="9">
         <f>'ETS Projections'!O65*Data!$A16</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P7" s="9">
         <f>'ETS Projections'!P65*Data!$A16</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q7" s="9">
         <f>'ETS Projections'!Q65*Data!$A16</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R7" s="9">
         <f>'ETS Projections'!R65*Data!$A16</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S7" s="9">
         <f>'ETS Projections'!S65*Data!$A16</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T7" s="9">
         <f>'ETS Projections'!T65*Data!$A16</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U7" s="9">
         <f>'ETS Projections'!U65*Data!$A16</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V7" s="9">
         <f>'ETS Projections'!V65*Data!$A16</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W7" s="9">
         <f>'ETS Projections'!W65*Data!$A16</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X7" s="9">
         <f>'ETS Projections'!X65*Data!$A16</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y7" s="9">
         <f>'ETS Projections'!Y65*Data!$A16</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z7" s="9">
         <f>'ETS Projections'!Z65*Data!$A16</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA7" s="9">
         <f>'ETS Projections'!AA65*Data!$A16</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB7" s="9">
         <f>'ETS Projections'!AB65*Data!$A16</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC7" s="9">
         <f>'ETS Projections'!AC65*Data!$A16</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD7" s="9">
         <f>'ETS Projections'!AD65*Data!$A16</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE7" s="9">
         <f>'ETS Projections'!AE65*Data!$A16</f>
-        <v>0.83970353718125812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+        <v>0.76424309180226624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -7018,23 +6608,23 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="1"/>
@@ -7113,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -7145,7 +6735,7 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -7177,7 +6767,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -7209,7 +6799,7 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -7241,7 +6831,7 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -7273,7 +6863,7 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -7305,7 +6895,7 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -7337,7 +6927,7 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -7369,7 +6959,7 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="2:31">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -7401,7 +6991,7 @@
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
     </row>
-    <row r="18" spans="2:31">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -7433,7 +7023,7 @@
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
     </row>
-    <row r="19" spans="2:31">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -7465,7 +7055,7 @@
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
     </row>
-    <row r="20" spans="2:31">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -7497,7 +7087,7 @@
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
     </row>
-    <row r="21" spans="2:31">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -7529,7 +7119,7 @@
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
     </row>
-    <row r="22" spans="2:31">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -7561,7 +7151,7 @@
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
     </row>
-    <row r="23" spans="2:31">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -7593,7 +7183,7 @@
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
     </row>
-    <row r="24" spans="2:31">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -7625,7 +7215,7 @@
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
     </row>
-    <row r="25" spans="2:31">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -7657,7 +7247,7 @@
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
     </row>
-    <row r="26" spans="2:31">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -7689,7 +7279,7 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
     </row>
-    <row r="27" spans="2:31">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -7721,7 +7311,7 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
     </row>
-    <row r="29" spans="2:31">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
@@ -7735,20 +7325,20 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46.26953125" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" customWidth="1"/>
     <col min="3" max="3" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7843,7 +7433,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7873,23 +7463,23 @@
       </c>
       <c r="H2" s="3">
         <f>calcs!H3</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I2" s="3">
         <f>calcs!I3</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J2" s="3">
         <f>calcs!J3</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K2" s="3">
         <f>calcs!K3</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L2" s="3">
         <f>calcs!L3</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M2" s="3">
         <f>calcs!M3</f>
@@ -7968,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -7998,23 +7588,23 @@
       </c>
       <c r="H3" s="3">
         <f>calcs!H4</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I3" s="3">
         <f>calcs!I4</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J3" s="3">
         <f>calcs!J4</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K3" s="3">
         <f>calcs!K4</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L3" s="3">
         <f>calcs!L4</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M3" s="3">
         <f>calcs!M4</f>
@@ -8093,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -8143,82 +7733,82 @@
       </c>
       <c r="M4" s="3">
         <f>calcs!M5</f>
-        <v>0.96735992063863285</v>
+        <v>0.91911276045243906</v>
       </c>
       <c r="N4" s="3">
         <f>calcs!N5</f>
-        <v>0.89453570621505807</v>
+        <v>0.82015499738072961</v>
       </c>
       <c r="O4" s="3">
         <f>calcs!O5</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P4" s="3">
         <f>calcs!P5</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q4" s="3">
         <f>calcs!Q5</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R4" s="3">
         <f>calcs!R5</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S4" s="3">
         <f>calcs!S5</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T4" s="3">
         <f>calcs!T5</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U4" s="3">
         <f>calcs!U5</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V4" s="3">
         <f>calcs!V5</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W4" s="3">
         <f>calcs!W5</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X4" s="3">
         <f>calcs!X5</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y4" s="3">
         <f>calcs!Y5</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z4" s="3">
         <f>calcs!Z5</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA4" s="3">
         <f>calcs!AA5</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB4" s="3">
         <f>calcs!AB5</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC4" s="3">
         <f>calcs!AC5</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD4" s="3">
         <f>calcs!AD5</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE4" s="3">
         <f>calcs!AE5</f>
-        <v>0.83970353718125812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>0.76424309180226624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8343,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8393,82 +7983,82 @@
       </c>
       <c r="M6" s="3">
         <f>calcs!M7</f>
-        <v>0.96735992063863285</v>
+        <v>0.91911276045243906</v>
       </c>
       <c r="N6" s="3">
         <f>calcs!N7</f>
-        <v>0.89453570621505807</v>
+        <v>0.82015499738072961</v>
       </c>
       <c r="O6" s="3">
         <f>calcs!O7</f>
-        <v>0.83838180663913453</v>
+        <v>0.76702920449344913</v>
       </c>
       <c r="P6" s="3">
         <f>calcs!P7</f>
-        <v>0.78985203256864778</v>
+        <v>0.71887152156448098</v>
       </c>
       <c r="Q6" s="3">
         <f>calcs!Q7</f>
-        <v>0.75791500330060757</v>
+        <v>0.68980453195441105</v>
       </c>
       <c r="R6" s="3">
         <f>calcs!R7</f>
-        <v>0.73136368603754465</v>
+        <v>0.66563926421639297</v>
       </c>
       <c r="S6" s="3">
         <f>calcs!S7</f>
-        <v>0.70999235157120133</v>
+        <v>0.64618847711678717</v>
       </c>
       <c r="T6" s="3">
         <f>calcs!T7</f>
-        <v>0.69271912973048044</v>
+        <v>0.6304675233748841</v>
       </c>
       <c r="U6" s="3">
         <f>calcs!U7</f>
-        <v>0.67875131944211387</v>
+        <v>0.61775493845911467</v>
       </c>
       <c r="V6" s="3">
         <f>calcs!V7</f>
-        <v>0.68461029608502533</v>
+        <v>0.62308739476792896</v>
       </c>
       <c r="W6" s="3">
         <f>calcs!W7</f>
-        <v>0.69101512169112456</v>
+        <v>0.62891664700627326</v>
       </c>
       <c r="X6" s="3">
         <f>calcs!X7</f>
-        <v>0.697933233911742</v>
+        <v>0.63521305905982683</v>
       </c>
       <c r="Y6" s="3">
         <f>calcs!Y7</f>
-        <v>0.70533719795302263</v>
+        <v>0.641951661578396</v>
       </c>
       <c r="Z6" s="3">
         <f>calcs!Z7</f>
-        <v>0.71409093639190402</v>
+        <v>0.64991874023548524</v>
       </c>
       <c r="AA6" s="3">
         <f>calcs!AA7</f>
-        <v>0.7382660168949674</v>
+        <v>0.6719213131081081</v>
       </c>
       <c r="AB6" s="3">
         <f>calcs!AB7</f>
-        <v>0.76290309191727668</v>
+        <v>0.69434436309455783</v>
       </c>
       <c r="AC6" s="3">
         <f>calcs!AC7</f>
-        <v>0.78801380181806213</v>
+        <v>0.71719848448643142</v>
       </c>
       <c r="AD6" s="3">
         <f>calcs!AD7</f>
-        <v>0.81360995545207615</v>
+        <v>0.74049442492889994</v>
       </c>
       <c r="AE6" s="3">
         <f>calcs!AE7</f>
-        <v>0.83970353718125812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+        <v>0.76424309180226624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -8498,23 +8088,23 @@
       </c>
       <c r="H7" s="3">
         <f>calcs!H8</f>
-        <v>0.48235390993499733</v>
+        <v>0.4825395020511708</v>
       </c>
       <c r="I7" s="3">
         <f>calcs!I8</f>
-        <v>0.67685018626478843</v>
+        <v>0.66393045842516363</v>
       </c>
       <c r="J7" s="3">
         <f>calcs!J8</f>
-        <v>0.78728801286744277</v>
+        <v>0.77077996942773064</v>
       </c>
       <c r="K7" s="3">
         <f>calcs!K8</f>
-        <v>0.85416264100303552</v>
+        <v>0.85792340111752319</v>
       </c>
       <c r="L7" s="3">
         <f>calcs!L8</f>
-        <v>0.93297166200719062</v>
+        <v>0.95998088009684113</v>
       </c>
       <c r="M7" s="3">
         <f>calcs!M8</f>
@@ -8593,7 +8183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -8625,7 +8215,7 @@
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -8657,7 +8247,7 @@
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -8689,7 +8279,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -8721,7 +8311,7 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -8753,7 +8343,7 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -8785,7 +8375,7 @@
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -8817,7 +8407,7 @@
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -8849,7 +8439,7 @@
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -8881,329 +8471,9 @@
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
     </row>
-    <row r="17" spans="2:31">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-    </row>
-    <row r="18" spans="2:31">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-    </row>
-    <row r="19" spans="2:31">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-    </row>
-    <row r="20" spans="2:31">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-    </row>
-    <row r="21" spans="2:31">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-    </row>
-    <row r="22" spans="2:31">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-    </row>
-    <row r="23" spans="2:31">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-    </row>
-    <row r="24" spans="2:31">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-    </row>
-    <row r="25" spans="2:31">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-    </row>
-    <row r="26" spans="2:31">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-    </row>
-    <row r="28" spans="2:31">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/fuels/FoVTStCT/Fraction of Vehicle Types Subject to Carbon Tax.xlsx
+++ b/InputData/fuels/FoVTStCT/Fraction of Vehicle Types Subject to Carbon Tax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\EU\eps-eu\InputData\fuels\FoVTStCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963B1D52-B69F-40AB-886E-BB5B6893D256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81DD04B-BF17-45A0-90BC-D49954BE1126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35835" yWindow="3240" windowWidth="19185" windowHeight="11265" activeTab="4" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
+    <workbookView xWindow="35505" yWindow="2805" windowWidth="21600" windowHeight="12525" activeTab="4" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>Unit: dimensionless</t>
   </si>
@@ -294,6 +294,15 @@
   <si>
     <t>H2 2024 projections</t>
   </si>
+  <si>
+    <t>Near-term projections from Reuters</t>
+  </si>
+  <si>
+    <t>https://www.reuters.com/markets/europe/analysts-expect-eu-carbon-prices-soar-by-2027-2024-10-18/</t>
+  </si>
+  <si>
+    <t>* from Reuters</t>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +382,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +497,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -521,6 +536,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -909,13 +925,13 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67.724665391969438</c:v>
+                  <c:v>73.499043977055436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80.262664165103189</c:v>
+                  <c:v>86.754221388367725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.727440147329659</c:v>
+                  <c:v>102.33885819521178</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>102.31464737793851</c:v>
@@ -1112,7 +1128,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ETS Projections'!$C$57:$AE$57</c:f>
+              <c:f>'ETS Projections'!$C$62:$AE$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -2074,7 +2090,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>706888</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>105192</xdr:rowOff>
+      <xdr:rowOff>102017</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2865,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1D82A8-246A-43A9-9BCA-A1657349D44C}">
-  <dimension ref="A1:AE70"/>
+  <dimension ref="A1:AE75"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4083,14 +4099,17 @@
       <c r="E28">
         <v>65.320000000000007</v>
       </c>
-      <c r="F28">
-        <v>70.840000000000032</v>
-      </c>
-      <c r="G28">
-        <v>85.56</v>
-      </c>
-      <c r="H28">
-        <v>103.96000000000001</v>
+      <c r="F28" s="36">
+        <f>F55</f>
+        <v>76.88</v>
+      </c>
+      <c r="G28" s="36">
+        <f t="shared" ref="G28:H28" si="1">G55</f>
+        <v>92.48</v>
+      </c>
+      <c r="H28" s="36">
+        <f t="shared" si="1"/>
+        <v>111.14</v>
       </c>
       <c r="I28">
         <v>113.16000000000001</v>
@@ -4156,39 +4175,39 @@
         <v>0.9380863039399624</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" ref="H29:P29" si="1">1/(1+SUM($I4:$I5)+$I6*(H27-$F27))</f>
+        <f t="shared" ref="H29:P29" si="2">1/(1+SUM($I4:$I5)+$I6*(H27-$F27))</f>
         <v>0.92081031307550643</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90415913200723319</v>
       </c>
       <c r="J29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88809946714031962</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8726003490401395</v>
       </c>
       <c r="L29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85763293310463129</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84317032040472184</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82918739635157546</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81566068515497558</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8025682182985554</v>
       </c>
       <c r="Q29" s="3"/>
@@ -4216,54 +4235,54 @@
         <v>86.339434799999992</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" ref="D30:P30" si="2">D28*D29</f>
+        <f t="shared" ref="D30:P30" si="3">D28*D29</f>
         <v>85</v>
       </c>
       <c r="E30">
         <v>65</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="2"/>
-        <v>67.724665391969438</v>
+        <f t="shared" si="3"/>
+        <v>73.499043977055436</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="2"/>
-        <v>80.262664165103189</v>
+        <f t="shared" si="3"/>
+        <v>86.754221388367725</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="2"/>
-        <v>95.727440147329659</v>
+        <f t="shared" si="3"/>
+        <v>102.33885819521178</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>102.31464737793851</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>115.20426287744226</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>126.84118673647468</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133.36052658215647</v>
       </c>
       <c r="M30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134.58767739188337</v>
       </c>
       <c r="N30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>134.56255154707881</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>138.80097879282221</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141.7063222183987</v>
       </c>
       <c r="Q30" s="4">
@@ -4271,59 +4290,59 @@
         <v>146.64136826580562</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" ref="R30:AE30" si="3">R31/$S3</f>
+        <f t="shared" ref="R30:AE30" si="4">R31/$S3</f>
         <v>151.34141212047891</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>156.04145597515216</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160.74149982982544</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>165.44154368449873</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>170.14158753917195</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>174.84163139384518</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>179.54167524851843</v>
       </c>
       <c r="Y30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>184.24171910319166</v>
       </c>
       <c r="Z30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>189.17676515059858</v>
       </c>
       <c r="AA30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>193.87680900527187</v>
       </c>
       <c r="AB30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>198.57685285994512</v>
       </c>
       <c r="AC30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>203.27689671461837</v>
       </c>
       <c r="AD30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>207.97694056929163</v>
       </c>
       <c r="AE30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212.67698442396488</v>
       </c>
     </row>
@@ -4336,55 +4355,55 @@
         <v>70.464168387550075</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" ref="D31:P31" si="4">D30*$S3</f>
+        <f t="shared" ref="D31:P31" si="5">D30*$S3</f>
         <v>69.371015999999997</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.048423999999997</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="4"/>
-        <v>55.27210407648186</v>
+        <f t="shared" si="5"/>
+        <v>59.98474536137666</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="4"/>
-        <v>65.504735999999994</v>
+        <f t="shared" si="5"/>
+        <v>70.802688000000003</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="4"/>
-        <v>78.125997436464104</v>
+        <f t="shared" si="5"/>
+        <v>83.521771403314915</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83.502012238698015</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94.021608980461806</v>
       </c>
       <c r="K31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>103.51884699476439</v>
       </c>
       <c r="L31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108.83947321528473</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109.84098731476682</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109.82048136909681</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>113.27958730179448</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115.65072406957285</v>
       </c>
       <c r="Q31" s="4">
@@ -4392,1480 +4411,1526 @@
         <v>119.67836122622464</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" ref="R31:AE31" si="5">Q31*R13/Q13</f>
+        <f t="shared" ref="R31:AE31" si="6">Q31*R13/Q13</f>
         <v>123.51420613732159</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>127.35005104841855</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131.18589595951551</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>135.02174087061246</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>138.85758578170939</v>
       </c>
       <c r="W31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>142.69343069280632</v>
       </c>
       <c r="X31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>146.52927560390324</v>
       </c>
       <c r="Y31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150.36512051500017</v>
       </c>
       <c r="Z31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>154.39275767165196</v>
       </c>
       <c r="AA31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>158.22860258274892</v>
       </c>
       <c r="AB31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>162.06444749384588</v>
       </c>
       <c r="AC31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>165.9002924049428</v>
       </c>
       <c r="AD31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>169.73613731603976</v>
       </c>
       <c r="AE31" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>173.57198222713669</v>
       </c>
     </row>
-    <row r="52" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="10" t="s">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="F32" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>2022</v>
+      </c>
+      <c r="D54">
+        <v>2023</v>
+      </c>
+      <c r="E54">
+        <v>2024</v>
+      </c>
+      <c r="F54">
+        <v>2025</v>
+      </c>
+      <c r="G54">
+        <v>2026</v>
+      </c>
+      <c r="H54">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="F55">
+        <v>76.88</v>
+      </c>
+      <c r="G55">
+        <v>92.48</v>
+      </c>
+      <c r="H55">
+        <v>111.14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
         <v>25</v>
       </c>
-      <c r="C55">
+      <c r="C60">
         <v>2022</v>
       </c>
-      <c r="D55">
+      <c r="D60">
         <v>2023</v>
       </c>
-      <c r="E55">
+      <c r="E60">
         <v>2024</v>
       </c>
-      <c r="F55">
+      <c r="F60">
         <v>2025</v>
       </c>
-      <c r="G55">
+      <c r="G60">
         <v>2026</v>
       </c>
-      <c r="H55">
+      <c r="H60">
         <v>2027</v>
       </c>
-      <c r="I55">
+      <c r="I60">
         <v>2028</v>
       </c>
-      <c r="J55">
+      <c r="J60">
         <v>2029</v>
       </c>
-      <c r="K55">
+      <c r="K60">
         <v>2030</v>
       </c>
-      <c r="L55">
+      <c r="L60">
         <v>2031</v>
       </c>
-      <c r="M55">
+      <c r="M60">
         <v>2032</v>
       </c>
-      <c r="N55">
+      <c r="N60">
         <v>2033</v>
       </c>
-      <c r="O55">
+      <c r="O60">
         <v>2034</v>
       </c>
-      <c r="P55">
+      <c r="P60">
         <v>2035</v>
       </c>
-      <c r="Q55">
+      <c r="Q60">
         <v>2036</v>
       </c>
-      <c r="R55">
+      <c r="R60">
         <v>2037</v>
       </c>
-      <c r="S55">
+      <c r="S60">
         <v>2038</v>
       </c>
-      <c r="T55">
+      <c r="T60">
         <v>2039</v>
       </c>
-      <c r="U55">
+      <c r="U60">
         <v>2040</v>
       </c>
-      <c r="V55">
+      <c r="V60">
         <v>2041</v>
       </c>
-      <c r="W55">
+      <c r="W60">
         <v>2042</v>
       </c>
-      <c r="X55">
+      <c r="X60">
         <v>2043</v>
       </c>
-      <c r="Y55">
+      <c r="Y60">
         <v>2044</v>
       </c>
-      <c r="Z55">
+      <c r="Z60">
         <v>2045</v>
       </c>
-      <c r="AA55">
+      <c r="AA60">
         <v>2046</v>
       </c>
-      <c r="AB55">
+      <c r="AB60">
         <v>2047</v>
       </c>
-      <c r="AC55">
+      <c r="AC60">
         <v>2048</v>
       </c>
-      <c r="AD55">
+      <c r="AD60">
         <v>2049</v>
       </c>
-      <c r="AE55">
+      <c r="AE60">
         <v>2050</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
         <v>62</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" s="31">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="31">
         <v>50</v>
       </c>
-      <c r="I56" s="31">
-        <f>H56+25</f>
+      <c r="I61" s="31">
+        <f>H61+25</f>
         <v>75</v>
       </c>
-      <c r="J56" s="31">
-        <f t="shared" ref="J56:U56" si="6">I56+25</f>
+      <c r="J61" s="31">
+        <f t="shared" ref="J61:U61" si="7">I61+25</f>
         <v>100</v>
       </c>
-      <c r="K56" s="31">
-        <f t="shared" si="6"/>
+      <c r="K61" s="31">
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="L56" s="31">
-        <f t="shared" si="6"/>
+      <c r="L61" s="31">
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="M56" s="31">
-        <f t="shared" si="6"/>
+      <c r="M61" s="31">
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
-      <c r="N56" s="31">
-        <f t="shared" si="6"/>
+      <c r="N61" s="31">
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="O56" s="31">
-        <f t="shared" si="6"/>
+      <c r="O61" s="31">
+        <f t="shared" si="7"/>
         <v>225</v>
       </c>
-      <c r="P56" s="31">
-        <f t="shared" si="6"/>
+      <c r="P61" s="31">
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
-      <c r="Q56" s="31">
-        <f t="shared" si="6"/>
+      <c r="Q61" s="31">
+        <f t="shared" si="7"/>
         <v>275</v>
       </c>
-      <c r="R56" s="31">
-        <f t="shared" si="6"/>
+      <c r="R61" s="31">
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="S56" s="31">
-        <f t="shared" si="6"/>
+      <c r="S61" s="31">
+        <f t="shared" si="7"/>
         <v>325</v>
       </c>
-      <c r="T56" s="31">
-        <f t="shared" si="6"/>
+      <c r="T61" s="31">
+        <f t="shared" si="7"/>
         <v>350</v>
       </c>
-      <c r="U56" s="31">
-        <f t="shared" si="6"/>
+      <c r="U61" s="31">
+        <f t="shared" si="7"/>
         <v>375</v>
       </c>
-      <c r="V56" s="31">
-        <f>U56+15</f>
+      <c r="V61" s="31">
+        <f>U61+15</f>
         <v>390</v>
       </c>
-      <c r="W56" s="31">
-        <f t="shared" ref="W56:Z56" si="7">V56+15</f>
+      <c r="W61" s="31">
+        <f t="shared" ref="W61:Z61" si="8">V61+15</f>
         <v>405</v>
       </c>
-      <c r="X56" s="31">
-        <f t="shared" si="7"/>
+      <c r="X61" s="31">
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
-      <c r="Y56" s="31">
-        <f t="shared" si="7"/>
+      <c r="Y61" s="31">
+        <f t="shared" si="8"/>
         <v>435</v>
       </c>
-      <c r="Z56" s="31">
-        <f t="shared" si="7"/>
+      <c r="Z61" s="31">
+        <f t="shared" si="8"/>
         <v>450</v>
       </c>
-      <c r="AA56" s="31">
-        <f>Z56+5</f>
+      <c r="AA61" s="31">
+        <f>Z61+5</f>
         <v>455</v>
       </c>
-      <c r="AB56" s="31">
-        <f t="shared" ref="AB56:AE56" si="8">AA56+5</f>
+      <c r="AB61" s="31">
+        <f t="shared" ref="AB61:AE61" si="9">AA61+5</f>
         <v>460</v>
       </c>
-      <c r="AC56" s="31">
-        <f t="shared" si="8"/>
+      <c r="AC61" s="31">
+        <f t="shared" si="9"/>
         <v>465</v>
       </c>
-      <c r="AD56" s="31">
-        <f t="shared" si="8"/>
+      <c r="AD61" s="31">
+        <f t="shared" si="9"/>
         <v>470</v>
       </c>
-      <c r="AE56" s="31">
-        <f t="shared" si="8"/>
+      <c r="AE61" s="31">
+        <f t="shared" si="9"/>
         <v>475</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" s="31">
-        <f>H56/(1+0.02)^(H55-$D55)</f>
-        <v>46.192271301325711</v>
-      </c>
-      <c r="I57" s="31">
-        <f t="shared" ref="I57:AD57" si="9">I56/(1+0.02)^(I55-$D55)</f>
-        <v>67.929810737243685</v>
-      </c>
-      <c r="J57" s="31">
-        <f t="shared" si="9"/>
-        <v>88.797138218619196</v>
-      </c>
-      <c r="K57" s="31">
-        <f t="shared" si="9"/>
-        <v>108.82002232673923</v>
-      </c>
-      <c r="L57" s="31">
-        <f t="shared" si="9"/>
-        <v>128.02355567851674</v>
-      </c>
-      <c r="M57" s="31">
-        <f t="shared" si="9"/>
-        <v>146.43217152771521</v>
-      </c>
-      <c r="N57" s="31">
-        <f t="shared" si="9"/>
-        <v>164.06965997503107</v>
-      </c>
-      <c r="O57" s="31">
-        <f t="shared" si="9"/>
-        <v>180.95918379599019</v>
-      </c>
-      <c r="P57" s="31">
-        <f t="shared" si="9"/>
-        <v>197.12329389541409</v>
-      </c>
-      <c r="Q57" s="31">
-        <f t="shared" si="9"/>
-        <v>212.58394439701522</v>
-      </c>
-      <c r="R57" s="31">
-        <f t="shared" si="9"/>
-        <v>227.36250737648683</v>
-      </c>
-      <c r="S57" s="31">
-        <f t="shared" si="9"/>
-        <v>241.47978724626876</v>
-      </c>
-      <c r="T57" s="31">
-        <f t="shared" si="9"/>
-        <v>254.95603479998206</v>
-      </c>
-      <c r="U57" s="31">
-        <f t="shared" si="9"/>
-        <v>267.81096092435087</v>
-      </c>
-      <c r="V57" s="31">
-        <f t="shared" si="9"/>
-        <v>273.06215623659307</v>
-      </c>
-      <c r="W57" s="31">
-        <f t="shared" si="9"/>
-        <v>278.00445770693869</v>
-      </c>
-      <c r="X57" s="31">
-        <f t="shared" si="9"/>
-        <v>282.64795990538425</v>
-      </c>
-      <c r="Y57" s="31">
-        <f t="shared" si="9"/>
-        <v>287.00248029608349</v>
-      </c>
-      <c r="Z57" s="31">
-        <f t="shared" si="9"/>
-        <v>291.07756622320835</v>
-      </c>
-      <c r="AA57" s="31">
-        <f t="shared" si="9"/>
-        <v>288.54094255241796</v>
-      </c>
-      <c r="AB57" s="31">
-        <f t="shared" si="9"/>
-        <v>285.99188445186866</v>
-      </c>
-      <c r="AC57" s="31">
-        <f t="shared" si="9"/>
-        <v>283.43185479564988</v>
-      </c>
-      <c r="AD57" s="31">
-        <f t="shared" si="9"/>
-        <v>280.86226387087379</v>
-      </c>
-      <c r="AE57" s="31">
-        <f>AE56/(1+0.02)^(AE55-$D55)</f>
-        <v>278.28447087748242</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="33">
-        <f>C57*$P$4*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="33">
-        <f>D57*$P$4*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="33">
-        <f>E57*$P$4*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="33">
-        <f>F57*$P$4*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="33">
-        <f>G57*$P$4*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="33">
-        <f t="shared" ref="H58:AE58" si="10">H57*$S3</f>
-        <v>37.698879900242432</v>
-      </c>
-      <c r="I58" s="33">
-        <f t="shared" si="10"/>
-        <v>55.439529265062397</v>
-      </c>
-      <c r="J58" s="33">
-        <f t="shared" si="10"/>
-        <v>72.469972895506402</v>
-      </c>
-      <c r="K58" s="33">
-        <f t="shared" si="10"/>
-        <v>88.811241293512765</v>
-      </c>
-      <c r="L58" s="33">
-        <f t="shared" si="10"/>
-        <v>104.4838132864856</v>
-      </c>
-      <c r="M58" s="33">
-        <f t="shared" si="10"/>
-        <v>119.5076295760456</v>
-      </c>
-      <c r="N58" s="33">
-        <f t="shared" si="10"/>
-        <v>133.90210596755813</v>
-      </c>
-      <c r="O58" s="33">
-        <f t="shared" si="10"/>
-        <v>147.68614628774796</v>
-      </c>
-      <c r="P58" s="33">
-        <f t="shared" si="10"/>
-        <v>160.87815499754674</v>
-      </c>
-      <c r="Q58" s="33">
-        <f t="shared" si="10"/>
-        <v>173.49604950715826</v>
-      </c>
-      <c r="R58" s="33">
-        <f t="shared" si="10"/>
-        <v>185.55727220016925</v>
-      </c>
-      <c r="S58" s="33">
-        <f t="shared" si="10"/>
-        <v>197.07880217338243</v>
-      </c>
-      <c r="T58" s="33">
-        <f t="shared" si="10"/>
-        <v>208.07716669889544</v>
-      </c>
-      <c r="U58" s="33">
-        <f t="shared" si="10"/>
-        <v>218.5684524148061</v>
-      </c>
-      <c r="V58" s="33">
-        <f t="shared" si="10"/>
-        <v>222.85410834450821</v>
-      </c>
-      <c r="W58" s="33">
-        <f t="shared" si="10"/>
-        <v>226.88766686658079</v>
-      </c>
-      <c r="X58" s="33">
-        <f t="shared" si="10"/>
-        <v>230.6773664583973</v>
-      </c>
-      <c r="Y58" s="33">
-        <f t="shared" si="10"/>
-        <v>234.23121944305049</v>
-      </c>
-      <c r="Z58" s="33">
-        <f t="shared" si="10"/>
-        <v>237.55701769072056</v>
-      </c>
-      <c r="AA58" s="33">
-        <f t="shared" si="10"/>
-        <v>235.48680402892785</v>
-      </c>
-      <c r="AB58" s="33">
-        <f t="shared" si="10"/>
-        <v>233.4064422609498</v>
-      </c>
-      <c r="AC58" s="33">
-        <f t="shared" si="10"/>
-        <v>231.31712628163183</v>
-      </c>
-      <c r="AD58" s="33">
-        <f t="shared" si="10"/>
-        <v>229.22000706803067</v>
-      </c>
-      <c r="AE58" s="33">
-        <f t="shared" si="10"/>
-        <v>227.11619390345138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="9"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="9"/>
-      <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="9"/>
-      <c r="Y59" s="9"/>
-      <c r="Z59" s="9"/>
-      <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
-      <c r="AC59" s="9"/>
-      <c r="AD59" s="9"/>
-      <c r="AE59" s="9"/>
-    </row>
-    <row r="60" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C62">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>2023</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>2025</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>2026</v>
-      </c>
-      <c r="H62">
-        <v>2027</v>
-      </c>
-      <c r="I62">
-        <v>2028</v>
-      </c>
-      <c r="J62">
-        <v>2029</v>
-      </c>
-      <c r="K62">
-        <v>2030</v>
-      </c>
-      <c r="L62">
-        <v>2031</v>
-      </c>
-      <c r="M62">
-        <v>2032</v>
-      </c>
-      <c r="N62">
-        <v>2033</v>
-      </c>
-      <c r="O62">
-        <v>2034</v>
-      </c>
-      <c r="P62">
-        <v>2035</v>
-      </c>
-      <c r="Q62">
-        <v>2036</v>
-      </c>
-      <c r="R62">
-        <v>2037</v>
-      </c>
-      <c r="S62">
-        <v>2038</v>
-      </c>
-      <c r="T62">
-        <v>2039</v>
-      </c>
-      <c r="U62">
-        <v>2040</v>
-      </c>
-      <c r="V62">
-        <v>2041</v>
-      </c>
-      <c r="W62">
-        <v>2042</v>
-      </c>
-      <c r="X62">
-        <v>2043</v>
-      </c>
-      <c r="Y62">
-        <v>2044</v>
-      </c>
-      <c r="Z62">
-        <v>2045</v>
-      </c>
-      <c r="AA62">
-        <v>2046</v>
-      </c>
-      <c r="AB62">
-        <v>2047</v>
-      </c>
-      <c r="AC62">
-        <v>2048</v>
-      </c>
-      <c r="AD62">
-        <v>2049</v>
-      </c>
-      <c r="AE62">
-        <v>2050</v>
+        <v>0</v>
+      </c>
+      <c r="H62" s="31">
+        <f>H61/(1+0.02)^(H60-$D60)</f>
+        <v>46.192271301325711</v>
+      </c>
+      <c r="I62" s="31">
+        <f t="shared" ref="I62:AD62" si="10">I61/(1+0.02)^(I60-$D60)</f>
+        <v>67.929810737243685</v>
+      </c>
+      <c r="J62" s="31">
+        <f t="shared" si="10"/>
+        <v>88.797138218619196</v>
+      </c>
+      <c r="K62" s="31">
+        <f t="shared" si="10"/>
+        <v>108.82002232673923</v>
+      </c>
+      <c r="L62" s="31">
+        <f t="shared" si="10"/>
+        <v>128.02355567851674</v>
+      </c>
+      <c r="M62" s="31">
+        <f t="shared" si="10"/>
+        <v>146.43217152771521</v>
+      </c>
+      <c r="N62" s="31">
+        <f t="shared" si="10"/>
+        <v>164.06965997503107</v>
+      </c>
+      <c r="O62" s="31">
+        <f t="shared" si="10"/>
+        <v>180.95918379599019</v>
+      </c>
+      <c r="P62" s="31">
+        <f t="shared" si="10"/>
+        <v>197.12329389541409</v>
+      </c>
+      <c r="Q62" s="31">
+        <f t="shared" si="10"/>
+        <v>212.58394439701522</v>
+      </c>
+      <c r="R62" s="31">
+        <f t="shared" si="10"/>
+        <v>227.36250737648683</v>
+      </c>
+      <c r="S62" s="31">
+        <f t="shared" si="10"/>
+        <v>241.47978724626876</v>
+      </c>
+      <c r="T62" s="31">
+        <f t="shared" si="10"/>
+        <v>254.95603479998206</v>
+      </c>
+      <c r="U62" s="31">
+        <f t="shared" si="10"/>
+        <v>267.81096092435087</v>
+      </c>
+      <c r="V62" s="31">
+        <f t="shared" si="10"/>
+        <v>273.06215623659307</v>
+      </c>
+      <c r="W62" s="31">
+        <f t="shared" si="10"/>
+        <v>278.00445770693869</v>
+      </c>
+      <c r="X62" s="31">
+        <f t="shared" si="10"/>
+        <v>282.64795990538425</v>
+      </c>
+      <c r="Y62" s="31">
+        <f t="shared" si="10"/>
+        <v>287.00248029608349</v>
+      </c>
+      <c r="Z62" s="31">
+        <f t="shared" si="10"/>
+        <v>291.07756622320835</v>
+      </c>
+      <c r="AA62" s="31">
+        <f t="shared" si="10"/>
+        <v>288.54094255241796</v>
+      </c>
+      <c r="AB62" s="31">
+        <f t="shared" si="10"/>
+        <v>285.99188445186866</v>
+      </c>
+      <c r="AC62" s="31">
+        <f t="shared" si="10"/>
+        <v>283.43185479564988</v>
+      </c>
+      <c r="AD62" s="31">
+        <f t="shared" si="10"/>
+        <v>280.86226387087379</v>
+      </c>
+      <c r="AE62" s="31">
+        <f>AE61/(1+0.02)^(AE60-$D60)</f>
+        <v>278.28447087748242</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="33">
+        <f>C62*$P$4*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="D63" s="33">
+        <f>D62*$P$4*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="33">
+        <f>E62*$P$4*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="F63" s="33">
+        <f>F62*$P$4*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="33">
+        <f>G62*$P$4*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="33">
+        <f t="shared" ref="H63:AE63" si="11">H62*$S3</f>
+        <v>37.698879900242432</v>
+      </c>
+      <c r="I63" s="33">
+        <f t="shared" si="11"/>
+        <v>55.439529265062397</v>
+      </c>
+      <c r="J63" s="33">
+        <f t="shared" si="11"/>
+        <v>72.469972895506402</v>
+      </c>
+      <c r="K63" s="33">
+        <f t="shared" si="11"/>
+        <v>88.811241293512765</v>
+      </c>
+      <c r="L63" s="33">
+        <f t="shared" si="11"/>
+        <v>104.4838132864856</v>
+      </c>
+      <c r="M63" s="33">
+        <f t="shared" si="11"/>
+        <v>119.5076295760456</v>
+      </c>
+      <c r="N63" s="33">
+        <f t="shared" si="11"/>
+        <v>133.90210596755813</v>
+      </c>
+      <c r="O63" s="33">
+        <f t="shared" si="11"/>
+        <v>147.68614628774796</v>
+      </c>
+      <c r="P63" s="33">
+        <f t="shared" si="11"/>
+        <v>160.87815499754674</v>
+      </c>
+      <c r="Q63" s="33">
+        <f t="shared" si="11"/>
+        <v>173.49604950715826</v>
+      </c>
+      <c r="R63" s="33">
+        <f t="shared" si="11"/>
+        <v>185.55727220016925</v>
+      </c>
+      <c r="S63" s="33">
+        <f t="shared" si="11"/>
+        <v>197.07880217338243</v>
+      </c>
+      <c r="T63" s="33">
+        <f t="shared" si="11"/>
+        <v>208.07716669889544</v>
+      </c>
+      <c r="U63" s="33">
+        <f t="shared" si="11"/>
+        <v>218.5684524148061</v>
+      </c>
+      <c r="V63" s="33">
+        <f t="shared" si="11"/>
+        <v>222.85410834450821</v>
+      </c>
+      <c r="W63" s="33">
+        <f t="shared" si="11"/>
+        <v>226.88766686658079</v>
+      </c>
+      <c r="X63" s="33">
+        <f t="shared" si="11"/>
+        <v>230.6773664583973</v>
+      </c>
+      <c r="Y63" s="33">
+        <f t="shared" si="11"/>
+        <v>234.23121944305049</v>
+      </c>
+      <c r="Z63" s="33">
+        <f t="shared" si="11"/>
+        <v>237.55701769072056</v>
+      </c>
+      <c r="AA63" s="33">
+        <f t="shared" si="11"/>
+        <v>235.48680402892785</v>
+      </c>
+      <c r="AB63" s="33">
+        <f t="shared" si="11"/>
+        <v>233.4064422609498</v>
+      </c>
+      <c r="AC63" s="33">
+        <f t="shared" si="11"/>
+        <v>231.31712628163183</v>
+      </c>
+      <c r="AD63" s="33">
+        <f t="shared" si="11"/>
+        <v>229.22000706803067</v>
+      </c>
+      <c r="AE63" s="33">
+        <f t="shared" si="11"/>
+        <v>227.11619390345138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+    </row>
+    <row r="65" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>2022</v>
+      </c>
+      <c r="D67">
+        <v>2023</v>
+      </c>
+      <c r="E67">
+        <v>2024</v>
+      </c>
+      <c r="F67">
+        <v>2025</v>
+      </c>
+      <c r="G67">
+        <v>2026</v>
+      </c>
+      <c r="H67">
+        <v>2027</v>
+      </c>
+      <c r="I67">
+        <v>2028</v>
+      </c>
+      <c r="J67">
+        <v>2029</v>
+      </c>
+      <c r="K67">
+        <v>2030</v>
+      </c>
+      <c r="L67">
+        <v>2031</v>
+      </c>
+      <c r="M67">
+        <v>2032</v>
+      </c>
+      <c r="N67">
+        <v>2033</v>
+      </c>
+      <c r="O67">
+        <v>2034</v>
+      </c>
+      <c r="P67">
+        <v>2035</v>
+      </c>
+      <c r="Q67">
+        <v>2036</v>
+      </c>
+      <c r="R67">
+        <v>2037</v>
+      </c>
+      <c r="S67">
+        <v>2038</v>
+      </c>
+      <c r="T67">
+        <v>2039</v>
+      </c>
+      <c r="U67">
+        <v>2040</v>
+      </c>
+      <c r="V67">
+        <v>2041</v>
+      </c>
+      <c r="W67">
+        <v>2042</v>
+      </c>
+      <c r="X67">
+        <v>2043</v>
+      </c>
+      <c r="Y67">
+        <v>2044</v>
+      </c>
+      <c r="Z67">
+        <v>2045</v>
+      </c>
+      <c r="AA67">
+        <v>2046</v>
+      </c>
+      <c r="AB67">
+        <v>2047</v>
+      </c>
+      <c r="AC67">
+        <v>2048</v>
+      </c>
+      <c r="AD67">
+        <v>2049</v>
+      </c>
+      <c r="AE67">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="29">
-        <f t="shared" ref="C63:AE63" si="11">C22</f>
+      <c r="C68" s="29">
+        <f t="shared" ref="C68:AE68" si="12">C22</f>
         <v>43.130404778848849</v>
       </c>
-      <c r="D63" s="29">
-        <f t="shared" si="11"/>
+      <c r="D68" s="29">
+        <f t="shared" si="12"/>
         <v>43.130404778848849</v>
       </c>
-      <c r="E63" s="29">
-        <f t="shared" si="11"/>
+      <c r="E68" s="29">
+        <f t="shared" si="12"/>
         <v>43.130404778848849</v>
       </c>
-      <c r="F63" s="29">
-        <f t="shared" si="11"/>
+      <c r="F68" s="29">
+        <f t="shared" si="12"/>
         <v>43.130404778848849</v>
       </c>
-      <c r="G63" s="29">
-        <f t="shared" si="11"/>
+      <c r="G68" s="29">
+        <f t="shared" si="12"/>
         <v>46.806291549773469</v>
       </c>
-      <c r="H63" s="29">
-        <f t="shared" si="11"/>
+      <c r="H68" s="29">
+        <f t="shared" si="12"/>
         <v>50.48217832069809</v>
       </c>
-      <c r="I63" s="29">
-        <f t="shared" si="11"/>
+      <c r="I68" s="29">
+        <f t="shared" si="12"/>
         <v>54.280594650653519</v>
       </c>
-      <c r="J63" s="29">
-        <f t="shared" si="11"/>
+      <c r="J68" s="29">
+        <f t="shared" si="12"/>
         <v>57.95648142157814</v>
       </c>
-      <c r="K63" s="29">
-        <f t="shared" si="11"/>
+      <c r="K68" s="29">
+        <f t="shared" si="12"/>
         <v>61.632368192502753</v>
       </c>
-      <c r="L63" s="29">
-        <f t="shared" si="11"/>
+      <c r="L68" s="29">
+        <f t="shared" si="12"/>
         <v>64.082959373119166</v>
       </c>
-      <c r="M63" s="29">
-        <f t="shared" si="11"/>
+      <c r="M68" s="29">
+        <f t="shared" si="12"/>
         <v>66.53355055373558</v>
       </c>
-      <c r="N63" s="29">
-        <f t="shared" si="11"/>
+      <c r="N68" s="29">
+        <f t="shared" si="12"/>
         <v>68.984141734351994</v>
       </c>
-      <c r="O63" s="29">
-        <f t="shared" si="11"/>
+      <c r="O68" s="29">
+        <f t="shared" si="12"/>
         <v>71.434732914968407</v>
       </c>
-      <c r="P63" s="29">
-        <f t="shared" si="11"/>
+      <c r="P68" s="29">
+        <f t="shared" si="12"/>
         <v>73.885324095584821</v>
       </c>
-      <c r="Q63" s="29">
-        <f t="shared" si="11"/>
+      <c r="Q68" s="29">
+        <f t="shared" si="12"/>
         <v>76.458444835232044</v>
       </c>
-      <c r="R63" s="29">
-        <f t="shared" si="11"/>
+      <c r="R68" s="29">
+        <f t="shared" si="12"/>
         <v>78.909036015848471</v>
       </c>
-      <c r="S63" s="29">
-        <f t="shared" si="11"/>
+      <c r="S68" s="29">
+        <f t="shared" si="12"/>
         <v>81.359627196464885</v>
       </c>
-      <c r="T63" s="29">
-        <f t="shared" si="11"/>
+      <c r="T68" s="29">
+        <f t="shared" si="12"/>
         <v>83.810218377081299</v>
       </c>
-      <c r="U63" s="29">
-        <f t="shared" si="11"/>
+      <c r="U68" s="29">
+        <f t="shared" si="12"/>
         <v>86.260809557697698</v>
       </c>
-      <c r="V63" s="29">
-        <f t="shared" si="11"/>
+      <c r="V68" s="29">
+        <f t="shared" si="12"/>
         <v>88.711400738314111</v>
       </c>
-      <c r="W63" s="29">
-        <f t="shared" si="11"/>
+      <c r="W68" s="29">
+        <f t="shared" si="12"/>
         <v>91.161991918930525</v>
       </c>
-      <c r="X63" s="29">
-        <f t="shared" si="11"/>
+      <c r="X68" s="29">
+        <f t="shared" si="12"/>
         <v>93.612583099546939</v>
       </c>
-      <c r="Y63" s="29">
-        <f t="shared" si="11"/>
+      <c r="Y68" s="29">
+        <f t="shared" si="12"/>
         <v>96.063174280163352</v>
       </c>
-      <c r="Z63" s="29">
-        <f t="shared" si="11"/>
+      <c r="Z68" s="29">
+        <f t="shared" si="12"/>
         <v>98.636295019810575</v>
       </c>
-      <c r="AA63" s="29">
-        <f t="shared" si="11"/>
+      <c r="AA68" s="29">
+        <f t="shared" si="12"/>
         <v>101.08688620042699</v>
       </c>
-      <c r="AB63" s="29">
-        <f t="shared" si="11"/>
+      <c r="AB68" s="29">
+        <f t="shared" si="12"/>
         <v>103.5374773810434</v>
       </c>
-      <c r="AC63" s="29">
-        <f t="shared" si="11"/>
+      <c r="AC68" s="29">
+        <f t="shared" si="12"/>
         <v>105.98806856165982</v>
       </c>
-      <c r="AD63" s="29">
-        <f t="shared" si="11"/>
+      <c r="AD68" s="29">
+        <f t="shared" si="12"/>
         <v>108.43865974227623</v>
       </c>
-      <c r="AE63" s="29">
-        <f t="shared" si="11"/>
+      <c r="AE68" s="29">
+        <f t="shared" si="12"/>
         <v>110.88925092289264</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B64" t="s">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="34">
-        <f t="shared" ref="C64:AE64" si="12">MAX(C57,C30)</f>
+      <c r="C69" s="34">
+        <f t="shared" ref="C69:AE69" si="13">MAX(C62,C30)</f>
         <v>86.339434799999992</v>
       </c>
-      <c r="D64" s="34">
-        <f t="shared" si="12"/>
+      <c r="D69" s="34">
+        <f t="shared" si="13"/>
         <v>85</v>
       </c>
-      <c r="E64" s="34">
-        <f t="shared" si="12"/>
+      <c r="E69" s="34">
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
-      <c r="F64" s="34">
-        <f t="shared" si="12"/>
-        <v>67.724665391969438</v>
-      </c>
-      <c r="G64" s="34">
-        <f t="shared" si="12"/>
-        <v>80.262664165103189</v>
-      </c>
-      <c r="H64" s="34">
-        <f>MAX(H57,H30)</f>
-        <v>95.727440147329659</v>
-      </c>
-      <c r="I64" s="34">
-        <f t="shared" si="12"/>
+      <c r="F69" s="34">
+        <f t="shared" si="13"/>
+        <v>73.499043977055436</v>
+      </c>
+      <c r="G69" s="34">
+        <f t="shared" si="13"/>
+        <v>86.754221388367725</v>
+      </c>
+      <c r="H69" s="34">
+        <f>MAX(H62,H30)</f>
+        <v>102.33885819521178</v>
+      </c>
+      <c r="I69" s="34">
+        <f t="shared" si="13"/>
         <v>102.31464737793851</v>
       </c>
-      <c r="J64" s="34">
-        <f t="shared" si="12"/>
+      <c r="J69" s="34">
+        <f t="shared" si="13"/>
         <v>115.20426287744226</v>
       </c>
-      <c r="K64" s="34">
-        <f t="shared" si="12"/>
+      <c r="K69" s="34">
+        <f t="shared" si="13"/>
         <v>126.84118673647468</v>
       </c>
-      <c r="L64" s="34">
-        <f t="shared" si="12"/>
+      <c r="L69" s="34">
+        <f t="shared" si="13"/>
         <v>133.36052658215647</v>
       </c>
-      <c r="M64" s="34">
-        <f t="shared" si="12"/>
+      <c r="M69" s="34">
+        <f t="shared" si="13"/>
         <v>146.43217152771521</v>
       </c>
-      <c r="N64" s="34">
-        <f t="shared" si="12"/>
+      <c r="N69" s="34">
+        <f t="shared" si="13"/>
         <v>164.06965997503107</v>
       </c>
-      <c r="O64" s="34">
-        <f t="shared" si="12"/>
+      <c r="O69" s="34">
+        <f t="shared" si="13"/>
         <v>180.95918379599019</v>
       </c>
-      <c r="P64" s="34">
-        <f t="shared" si="12"/>
+      <c r="P69" s="34">
+        <f t="shared" si="13"/>
         <v>197.12329389541409</v>
       </c>
-      <c r="Q64" s="34">
-        <f t="shared" si="12"/>
+      <c r="Q69" s="34">
+        <f t="shared" si="13"/>
         <v>212.58394439701522</v>
       </c>
-      <c r="R64" s="34">
-        <f t="shared" si="12"/>
+      <c r="R69" s="34">
+        <f t="shared" si="13"/>
         <v>227.36250737648683</v>
       </c>
-      <c r="S64" s="34">
-        <f t="shared" si="12"/>
+      <c r="S69" s="34">
+        <f t="shared" si="13"/>
         <v>241.47978724626876</v>
       </c>
-      <c r="T64" s="34">
-        <f t="shared" si="12"/>
+      <c r="T69" s="34">
+        <f t="shared" si="13"/>
         <v>254.95603479998206</v>
       </c>
-      <c r="U64" s="34">
-        <f t="shared" si="12"/>
+      <c r="U69" s="34">
+        <f t="shared" si="13"/>
         <v>267.81096092435087</v>
       </c>
-      <c r="V64" s="34">
-        <f t="shared" si="12"/>
+      <c r="V69" s="34">
+        <f t="shared" si="13"/>
         <v>273.06215623659307</v>
       </c>
-      <c r="W64" s="34">
-        <f t="shared" si="12"/>
+      <c r="W69" s="34">
+        <f t="shared" si="13"/>
         <v>278.00445770693869</v>
       </c>
-      <c r="X64" s="34">
-        <f t="shared" si="12"/>
+      <c r="X69" s="34">
+        <f t="shared" si="13"/>
         <v>282.64795990538425</v>
       </c>
-      <c r="Y64" s="34">
-        <f t="shared" si="12"/>
+      <c r="Y69" s="34">
+        <f t="shared" si="13"/>
         <v>287.00248029608349</v>
       </c>
-      <c r="Z64" s="34">
-        <f t="shared" si="12"/>
+      <c r="Z69" s="34">
+        <f t="shared" si="13"/>
         <v>291.07756622320835</v>
       </c>
-      <c r="AA64" s="34">
-        <f t="shared" si="12"/>
+      <c r="AA69" s="34">
+        <f t="shared" si="13"/>
         <v>288.54094255241796</v>
       </c>
-      <c r="AB64" s="34">
-        <f t="shared" si="12"/>
+      <c r="AB69" s="34">
+        <f t="shared" si="13"/>
         <v>285.99188445186866</v>
       </c>
-      <c r="AC64" s="34">
-        <f t="shared" si="12"/>
+      <c r="AC69" s="34">
+        <f t="shared" si="13"/>
         <v>283.43185479564988</v>
       </c>
-      <c r="AD64" s="34">
-        <f t="shared" si="12"/>
+      <c r="AD69" s="34">
+        <f t="shared" si="13"/>
         <v>280.86226387087379</v>
       </c>
-      <c r="AE64" s="34">
-        <f t="shared" si="12"/>
+      <c r="AE69" s="34">
+        <f t="shared" si="13"/>
         <v>278.28447087748242</v>
       </c>
     </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
         <v>32</v>
       </c>
-      <c r="C65">
-        <f t="shared" ref="C65:AE65" si="13">C30/C64</f>
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M65" s="35">
-        <f>M30/M64</f>
+      <c r="C70">
+        <f t="shared" ref="C70:AE70" si="14">C30/C69</f>
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M70" s="35">
+        <f>M30/M69</f>
         <v>0.91911276045243906</v>
       </c>
-      <c r="N65">
-        <f t="shared" si="13"/>
+      <c r="N70">
+        <f t="shared" si="14"/>
         <v>0.82015499738072961</v>
       </c>
-      <c r="O65">
-        <f t="shared" si="13"/>
+      <c r="O70">
+        <f t="shared" si="14"/>
         <v>0.76702920449344913</v>
       </c>
-      <c r="P65">
-        <f t="shared" si="13"/>
+      <c r="P70">
+        <f t="shared" si="14"/>
         <v>0.71887152156448098</v>
       </c>
-      <c r="Q65" s="35">
-        <f t="shared" si="13"/>
+      <c r="Q70" s="35">
+        <f t="shared" si="14"/>
         <v>0.68980453195441105</v>
       </c>
-      <c r="R65">
-        <f t="shared" si="13"/>
+      <c r="R70">
+        <f t="shared" si="14"/>
         <v>0.66563926421639297</v>
       </c>
-      <c r="S65">
-        <f t="shared" si="13"/>
+      <c r="S70">
+        <f t="shared" si="14"/>
         <v>0.64618847711678717</v>
       </c>
-      <c r="T65">
-        <f t="shared" si="13"/>
+      <c r="T70">
+        <f t="shared" si="14"/>
         <v>0.6304675233748841</v>
       </c>
-      <c r="U65">
-        <f t="shared" si="13"/>
+      <c r="U70">
+        <f t="shared" si="14"/>
         <v>0.61775493845911467</v>
       </c>
-      <c r="V65">
-        <f t="shared" si="13"/>
+      <c r="V70">
+        <f t="shared" si="14"/>
         <v>0.62308739476792896</v>
       </c>
-      <c r="W65">
-        <f t="shared" si="13"/>
+      <c r="W70">
+        <f t="shared" si="14"/>
         <v>0.62891664700627326</v>
       </c>
-      <c r="X65">
-        <f t="shared" si="13"/>
+      <c r="X70">
+        <f t="shared" si="14"/>
         <v>0.63521305905982683</v>
       </c>
-      <c r="Y65">
-        <f t="shared" si="13"/>
+      <c r="Y70">
+        <f t="shared" si="14"/>
         <v>0.641951661578396</v>
       </c>
-      <c r="Z65">
-        <f t="shared" si="13"/>
+      <c r="Z70">
+        <f t="shared" si="14"/>
         <v>0.64991874023548524</v>
       </c>
-      <c r="AA65">
-        <f t="shared" si="13"/>
+      <c r="AA70">
+        <f t="shared" si="14"/>
         <v>0.6719213131081081</v>
       </c>
-      <c r="AB65">
-        <f t="shared" si="13"/>
+      <c r="AB70">
+        <f t="shared" si="14"/>
         <v>0.69434436309455783</v>
       </c>
-      <c r="AC65">
-        <f t="shared" si="13"/>
+      <c r="AC70">
+        <f t="shared" si="14"/>
         <v>0.71719848448643142</v>
       </c>
-      <c r="AD65">
-        <f t="shared" si="13"/>
+      <c r="AD70">
+        <f t="shared" si="14"/>
         <v>0.74049442492889994</v>
       </c>
-      <c r="AE65">
-        <f t="shared" si="13"/>
+      <c r="AE70">
+        <f t="shared" si="14"/>
         <v>0.76424309180226624</v>
       </c>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B66" t="s">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
         <v>33</v>
       </c>
-      <c r="C66">
-        <f t="shared" ref="C66:AE66" si="14">C57/C64</f>
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <f>H57/H64</f>
-        <v>0.4825395020511708</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="14"/>
+      <c r="C71">
+        <f t="shared" ref="C71:AE71" si="15">C62/C69</f>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f>H62/H69</f>
+        <v>0.45136590456397085</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="15"/>
         <v>0.66393045842516363</v>
       </c>
-      <c r="J66">
-        <f t="shared" si="14"/>
+      <c r="J71">
+        <f t="shared" si="15"/>
         <v>0.77077996942773064</v>
       </c>
-      <c r="K66">
-        <f t="shared" si="14"/>
+      <c r="K71">
+        <f t="shared" si="15"/>
         <v>0.85792340111752319</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="14"/>
+      <c r="L71">
+        <f t="shared" si="15"/>
         <v>0.95998088009684113</v>
       </c>
-      <c r="M66">
-        <f>M57/M64</f>
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="S66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="T66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="U66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="V66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="W66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="X66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Z66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AA66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AB66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AC66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AE66">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
+      <c r="M71">
+        <f>M62/M69</f>
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="29">
-        <f>C64-C63</f>
+      <c r="C73" s="29">
+        <f>C69-C68</f>
         <v>43.209030021151143</v>
       </c>
-      <c r="D68" s="29">
-        <f t="shared" ref="D68:AE68" si="15">D64-D63</f>
+      <c r="D73" s="29">
+        <f t="shared" ref="D73:AE73" si="16">D69-D68</f>
         <v>41.869595221151151</v>
       </c>
-      <c r="E68" s="29">
-        <f t="shared" si="15"/>
+      <c r="E73" s="29">
+        <f t="shared" si="16"/>
         <v>21.869595221151151</v>
       </c>
-      <c r="F68" s="29">
-        <f t="shared" si="15"/>
-        <v>24.594260613120589</v>
-      </c>
-      <c r="G68" s="29">
-        <f t="shared" si="15"/>
-        <v>33.45637261532972</v>
-      </c>
-      <c r="H68" s="29">
-        <f t="shared" si="15"/>
-        <v>45.24526182663157</v>
-      </c>
-      <c r="I68" s="29">
-        <f t="shared" si="15"/>
+      <c r="F73" s="29">
+        <f t="shared" si="16"/>
+        <v>30.368639198206587</v>
+      </c>
+      <c r="G73" s="29">
+        <f t="shared" si="16"/>
+        <v>39.947929838594256</v>
+      </c>
+      <c r="H73" s="29">
+        <f t="shared" si="16"/>
+        <v>51.856679874513695</v>
+      </c>
+      <c r="I73" s="29">
+        <f t="shared" si="16"/>
         <v>48.034052727284994</v>
       </c>
-      <c r="J68" s="29">
-        <f t="shared" si="15"/>
+      <c r="J73" s="29">
+        <f t="shared" si="16"/>
         <v>57.247781455864121</v>
       </c>
-      <c r="K68" s="29">
-        <f t="shared" si="15"/>
+      <c r="K73" s="29">
+        <f t="shared" si="16"/>
         <v>65.20881854397193</v>
       </c>
-      <c r="L68" s="29">
-        <f t="shared" si="15"/>
+      <c r="L73" s="29">
+        <f t="shared" si="16"/>
         <v>69.277567209037301</v>
       </c>
-      <c r="M68" s="29">
-        <f t="shared" si="15"/>
+      <c r="M73" s="29">
+        <f t="shared" si="16"/>
         <v>79.898620973979632</v>
       </c>
-      <c r="N68" s="29">
-        <f t="shared" si="15"/>
+      <c r="N73" s="29">
+        <f t="shared" si="16"/>
         <v>95.085518240679079</v>
       </c>
-      <c r="O68" s="29">
-        <f t="shared" si="15"/>
+      <c r="O73" s="29">
+        <f t="shared" si="16"/>
         <v>109.52445088102178</v>
       </c>
-      <c r="P68" s="29">
-        <f t="shared" si="15"/>
+      <c r="P73" s="29">
+        <f t="shared" si="16"/>
         <v>123.23796979982927</v>
       </c>
-      <c r="Q68" s="29">
-        <f t="shared" si="15"/>
+      <c r="Q73" s="29">
+        <f t="shared" si="16"/>
         <v>136.12549956178316</v>
       </c>
-      <c r="R68" s="29">
-        <f t="shared" si="15"/>
+      <c r="R73" s="29">
+        <f t="shared" si="16"/>
         <v>148.45347136063836</v>
       </c>
-      <c r="S68" s="29">
-        <f t="shared" si="15"/>
+      <c r="S73" s="29">
+        <f t="shared" si="16"/>
         <v>160.12016004980387</v>
       </c>
-      <c r="T68" s="29">
-        <f t="shared" si="15"/>
+      <c r="T73" s="29">
+        <f t="shared" si="16"/>
         <v>171.14581642290077</v>
       </c>
-      <c r="U68" s="29">
-        <f t="shared" si="15"/>
+      <c r="U73" s="29">
+        <f t="shared" si="16"/>
         <v>181.55015136665315</v>
       </c>
-      <c r="V68" s="29">
-        <f t="shared" si="15"/>
+      <c r="V73" s="29">
+        <f t="shared" si="16"/>
         <v>184.35075549827894</v>
       </c>
-      <c r="W68" s="29">
-        <f t="shared" si="15"/>
+      <c r="W73" s="29">
+        <f t="shared" si="16"/>
         <v>186.84246578800816</v>
       </c>
-      <c r="X68" s="29">
-        <f t="shared" si="15"/>
+      <c r="X73" s="29">
+        <f t="shared" si="16"/>
         <v>189.0353768058373</v>
       </c>
-      <c r="Y68" s="29">
-        <f t="shared" si="15"/>
+      <c r="Y73" s="29">
+        <f t="shared" si="16"/>
         <v>190.93930601592012</v>
       </c>
-      <c r="Z68" s="29">
-        <f t="shared" si="15"/>
+      <c r="Z73" s="29">
+        <f t="shared" si="16"/>
         <v>192.44127120339778</v>
       </c>
-      <c r="AA68" s="29">
-        <f t="shared" si="15"/>
+      <c r="AA73" s="29">
+        <f t="shared" si="16"/>
         <v>187.45405635199097</v>
       </c>
-      <c r="AB68" s="29">
-        <f t="shared" si="15"/>
+      <c r="AB73" s="29">
+        <f t="shared" si="16"/>
         <v>182.45440707082525</v>
       </c>
-      <c r="AC68" s="29">
-        <f t="shared" si="15"/>
+      <c r="AC73" s="29">
+        <f t="shared" si="16"/>
         <v>177.44378623399007</v>
       </c>
-      <c r="AD68" s="29">
-        <f t="shared" si="15"/>
+      <c r="AD73" s="29">
+        <f t="shared" si="16"/>
         <v>172.42360412859756</v>
       </c>
-      <c r="AE68" s="29">
-        <f t="shared" si="15"/>
+      <c r="AE73" s="29">
+        <f t="shared" si="16"/>
         <v>167.39521995458978</v>
       </c>
     </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="B69" t="s">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
         <v>65</v>
       </c>
-      <c r="C69">
+      <c r="C74">
         <f>C31/MAX($C31:$AE31)</f>
         <v>0.40596510729099416</v>
       </c>
-      <c r="D69">
-        <f t="shared" ref="D69:AE69" si="16">D31/MAX($C31:$AE31)</f>
+      <c r="D74">
+        <f t="shared" ref="D74:AE74" si="17">D31/MAX($C31:$AE31)</f>
         <v>0.39966713008566629</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="16"/>
+      <c r="E74">
+        <f t="shared" si="17"/>
         <v>0.30562780535962719</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="16"/>
-        <v>0.3184390900378879</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="16"/>
-        <v>0.37739233693995816</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="16"/>
-        <v>0.45010719146036049</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="16"/>
+      <c r="F74">
+        <f t="shared" si="17"/>
+        <v>0.34559002318058735</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="17"/>
+        <v>0.40791541982477014</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="17"/>
+        <v>0.48119385589557961</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="17"/>
         <v>0.48108001745020745</v>
       </c>
-      <c r="J69">
-        <f t="shared" si="16"/>
+      <c r="J74">
+        <f t="shared" si="17"/>
         <v>0.54168655432778845</v>
       </c>
-      <c r="K69">
-        <f t="shared" si="16"/>
+      <c r="K74">
+        <f t="shared" si="17"/>
         <v>0.59640297740737558</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="16"/>
+      <c r="L74">
+        <f t="shared" si="17"/>
         <v>0.62705669324474933</v>
       </c>
-      <c r="M69">
-        <f t="shared" si="16"/>
+      <c r="M74">
+        <f t="shared" si="17"/>
         <v>0.63282671491893583</v>
       </c>
-      <c r="N69">
-        <f t="shared" si="16"/>
+      <c r="N74">
+        <f t="shared" si="17"/>
         <v>0.63270857404500624</v>
       </c>
-      <c r="O69">
-        <f t="shared" si="16"/>
+      <c r="O74">
+        <f t="shared" si="17"/>
         <v>0.65263751584951402</v>
       </c>
-      <c r="P69">
-        <f t="shared" si="16"/>
+      <c r="P74">
+        <f t="shared" si="17"/>
         <v>0.66629834254143649</v>
       </c>
-      <c r="Q69">
-        <f t="shared" si="16"/>
+      <c r="Q74">
+        <f t="shared" si="17"/>
         <v>0.68950276243093922</v>
       </c>
-      <c r="R69">
-        <f t="shared" si="16"/>
+      <c r="R74">
+        <f t="shared" si="17"/>
         <v>0.71160220994475143</v>
       </c>
-      <c r="S69">
-        <f t="shared" si="16"/>
+      <c r="S74">
+        <f t="shared" si="17"/>
         <v>0.73370165745856375</v>
       </c>
-      <c r="T69">
-        <f t="shared" si="16"/>
+      <c r="T74">
+        <f t="shared" si="17"/>
         <v>0.75580110497237596</v>
       </c>
-      <c r="U69">
-        <f t="shared" si="16"/>
+      <c r="U74">
+        <f t="shared" si="17"/>
         <v>0.77790055248618817</v>
       </c>
-      <c r="V69">
-        <f t="shared" si="16"/>
+      <c r="V74">
+        <f t="shared" si="17"/>
         <v>0.80000000000000027</v>
       </c>
-      <c r="W69">
-        <f t="shared" si="16"/>
+      <c r="W74">
+        <f t="shared" si="17"/>
         <v>0.82209944751381225</v>
       </c>
-      <c r="X69">
-        <f t="shared" si="16"/>
+      <c r="X74">
+        <f t="shared" si="17"/>
         <v>0.84419889502762435</v>
       </c>
-      <c r="Y69">
-        <f t="shared" si="16"/>
+      <c r="Y74">
+        <f t="shared" si="17"/>
         <v>0.86629834254143645</v>
       </c>
-      <c r="Z69">
-        <f t="shared" si="16"/>
+      <c r="Z74">
+        <f t="shared" si="17"/>
         <v>0.88950276243093918</v>
       </c>
-      <c r="AA69">
-        <f t="shared" si="16"/>
+      <c r="AA74">
+        <f t="shared" si="17"/>
         <v>0.91160220994475138</v>
       </c>
-      <c r="AB69">
-        <f t="shared" si="16"/>
+      <c r="AB74">
+        <f t="shared" si="17"/>
         <v>0.93370165745856359</v>
       </c>
-      <c r="AC69">
-        <f t="shared" si="16"/>
+      <c r="AC74">
+        <f t="shared" si="17"/>
         <v>0.95580110497237569</v>
       </c>
-      <c r="AD69">
-        <f t="shared" si="16"/>
+      <c r="AD74">
+        <f t="shared" si="17"/>
         <v>0.9779005524861879</v>
       </c>
-      <c r="AE69">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.35">
-      <c r="C70" t="str">
-        <f>"("&amp;C62&amp;","&amp;ROUND(C68/MAX($C68:$AE68),3)&amp;"),"</f>
+      <c r="AE74">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="C75" t="str">
+        <f>"("&amp;C67&amp;","&amp;ROUND(C73/MAX($C73:$AE73),3)&amp;"),"</f>
         <v>(2022,0.225),</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" ref="D70:AE70" si="17">"("&amp;D62&amp;","&amp;ROUND(D68/MAX($C68:$AE68),3)&amp;"),"</f>
+      <c r="D75" t="str">
+        <f t="shared" ref="D75:AE75" si="18">"("&amp;D67&amp;","&amp;ROUND(D73/MAX($C73:$AE73),3)&amp;"),"</f>
         <v>(2023,0.218),</v>
       </c>
-      <c r="E70" t="str">
-        <f t="shared" si="17"/>
+      <c r="E75" t="str">
+        <f t="shared" si="18"/>
         <v>(2024,0.114),</v>
       </c>
-      <c r="F70" t="str">
-        <f t="shared" si="17"/>
-        <v>(2025,0.128),</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="17"/>
-        <v>(2026,0.174),</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="17"/>
-        <v>(2027,0.235),</v>
-      </c>
-      <c r="I70" t="str">
-        <f t="shared" si="17"/>
+      <c r="F75" t="str">
+        <f t="shared" si="18"/>
+        <v>(2025,0.158),</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="18"/>
+        <v>(2026,0.208),</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="18"/>
+        <v>(2027,0.269),</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="18"/>
         <v>(2028,0.25),</v>
       </c>
-      <c r="J70" t="str">
-        <f t="shared" si="17"/>
+      <c r="J75" t="str">
+        <f t="shared" si="18"/>
         <v>(2029,0.297),</v>
       </c>
-      <c r="K70" t="str">
-        <f t="shared" si="17"/>
+      <c r="K75" t="str">
+        <f t="shared" si="18"/>
         <v>(2030,0.339),</v>
       </c>
-      <c r="L70" t="str">
-        <f t="shared" si="17"/>
+      <c r="L75" t="str">
+        <f t="shared" si="18"/>
         <v>(2031,0.36),</v>
       </c>
-      <c r="M70" t="str">
-        <f t="shared" si="17"/>
+      <c r="M75" t="str">
+        <f t="shared" si="18"/>
         <v>(2032,0.415),</v>
       </c>
-      <c r="N70" t="str">
-        <f t="shared" si="17"/>
+      <c r="N75" t="str">
+        <f t="shared" si="18"/>
         <v>(2033,0.494),</v>
       </c>
-      <c r="O70" t="str">
-        <f t="shared" si="17"/>
+      <c r="O75" t="str">
+        <f t="shared" si="18"/>
         <v>(2034,0.569),</v>
       </c>
-      <c r="P70" t="str">
-        <f t="shared" si="17"/>
+      <c r="P75" t="str">
+        <f t="shared" si="18"/>
         <v>(2035,0.64),</v>
       </c>
-      <c r="Q70" t="str">
-        <f t="shared" si="17"/>
+      <c r="Q75" t="str">
+        <f t="shared" si="18"/>
         <v>(2036,0.707),</v>
       </c>
-      <c r="R70" t="str">
-        <f t="shared" si="17"/>
+      <c r="R75" t="str">
+        <f t="shared" si="18"/>
         <v>(2037,0.771),</v>
       </c>
-      <c r="S70" t="str">
-        <f t="shared" si="17"/>
+      <c r="S75" t="str">
+        <f t="shared" si="18"/>
         <v>(2038,0.832),</v>
       </c>
-      <c r="T70" t="str">
-        <f t="shared" si="17"/>
+      <c r="T75" t="str">
+        <f t="shared" si="18"/>
         <v>(2039,0.889),</v>
       </c>
-      <c r="U70" t="str">
-        <f t="shared" si="17"/>
+      <c r="U75" t="str">
+        <f t="shared" si="18"/>
         <v>(2040,0.943),</v>
       </c>
-      <c r="V70" t="str">
-        <f t="shared" si="17"/>
+      <c r="V75" t="str">
+        <f t="shared" si="18"/>
         <v>(2041,0.958),</v>
       </c>
-      <c r="W70" t="str">
-        <f t="shared" si="17"/>
+      <c r="W75" t="str">
+        <f t="shared" si="18"/>
         <v>(2042,0.971),</v>
       </c>
-      <c r="X70" t="str">
-        <f t="shared" si="17"/>
+      <c r="X75" t="str">
+        <f t="shared" si="18"/>
         <v>(2043,0.982),</v>
       </c>
-      <c r="Y70" t="str">
-        <f t="shared" si="17"/>
+      <c r="Y75" t="str">
+        <f t="shared" si="18"/>
         <v>(2044,0.992),</v>
       </c>
-      <c r="Z70" t="str">
-        <f t="shared" si="17"/>
+      <c r="Z75" t="str">
+        <f t="shared" si="18"/>
         <v>(2045,1),</v>
       </c>
-      <c r="AA70" t="str">
-        <f t="shared" si="17"/>
+      <c r="AA75" t="str">
+        <f t="shared" si="18"/>
         <v>(2046,0.974),</v>
       </c>
-      <c r="AB70" t="str">
-        <f t="shared" si="17"/>
+      <c r="AB75" t="str">
+        <f t="shared" si="18"/>
         <v>(2047,0.948),</v>
       </c>
-      <c r="AC70" t="str">
-        <f t="shared" si="17"/>
+      <c r="AC75" t="str">
+        <f t="shared" si="18"/>
         <v>(2048,0.922),</v>
       </c>
-      <c r="AD70" t="str">
-        <f t="shared" si="17"/>
+      <c r="AD75" t="str">
+        <f t="shared" si="18"/>
         <v>(2049,0.896),</v>
       </c>
-      <c r="AE70" t="str">
-        <f t="shared" si="17"/>
+      <c r="AE75" t="str">
+        <f t="shared" si="18"/>
         <v>(2050,0.87),</v>
       </c>
     </row>
@@ -5996,119 +6061,119 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <f>'ETS Projections'!C66</f>
+        <f>'ETS Projections'!C71</f>
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <f>'ETS Projections'!D66</f>
+        <f>'ETS Projections'!D71</f>
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <f>'ETS Projections'!E66</f>
+        <f>'ETS Projections'!E71</f>
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <f>'ETS Projections'!F66</f>
+        <f>'ETS Projections'!F71</f>
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <f>'ETS Projections'!G66</f>
+        <f>'ETS Projections'!G71</f>
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <f>'ETS Projections'!H66</f>
-        <v>0.4825395020511708</v>
+        <f>'ETS Projections'!H71</f>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I3" s="3">
-        <f>'ETS Projections'!I66</f>
+        <f>'ETS Projections'!I71</f>
         <v>0.66393045842516363</v>
       </c>
       <c r="J3" s="3">
-        <f>'ETS Projections'!J66</f>
+        <f>'ETS Projections'!J71</f>
         <v>0.77077996942773064</v>
       </c>
       <c r="K3" s="3">
-        <f>'ETS Projections'!K66</f>
+        <f>'ETS Projections'!K71</f>
         <v>0.85792340111752319</v>
       </c>
       <c r="L3" s="3">
-        <f>'ETS Projections'!L66</f>
+        <f>'ETS Projections'!L71</f>
         <v>0.95998088009684113</v>
       </c>
       <c r="M3" s="3">
-        <f>'ETS Projections'!M66</f>
+        <f>'ETS Projections'!M71</f>
         <v>1</v>
       </c>
       <c r="N3" s="3">
-        <f>'ETS Projections'!N66</f>
+        <f>'ETS Projections'!N71</f>
         <v>1</v>
       </c>
       <c r="O3" s="3">
-        <f>'ETS Projections'!O66</f>
+        <f>'ETS Projections'!O71</f>
         <v>1</v>
       </c>
       <c r="P3" s="3">
-        <f>'ETS Projections'!P66</f>
+        <f>'ETS Projections'!P71</f>
         <v>1</v>
       </c>
       <c r="Q3" s="3">
-        <f>'ETS Projections'!Q66</f>
+        <f>'ETS Projections'!Q71</f>
         <v>1</v>
       </c>
       <c r="R3" s="3">
-        <f>'ETS Projections'!R66</f>
+        <f>'ETS Projections'!R71</f>
         <v>1</v>
       </c>
       <c r="S3" s="3">
-        <f>'ETS Projections'!S66</f>
+        <f>'ETS Projections'!S71</f>
         <v>1</v>
       </c>
       <c r="T3" s="3">
-        <f>'ETS Projections'!T66</f>
+        <f>'ETS Projections'!T71</f>
         <v>1</v>
       </c>
       <c r="U3" s="3">
-        <f>'ETS Projections'!U66</f>
+        <f>'ETS Projections'!U71</f>
         <v>1</v>
       </c>
       <c r="V3" s="3">
-        <f>'ETS Projections'!V66</f>
+        <f>'ETS Projections'!V71</f>
         <v>1</v>
       </c>
       <c r="W3" s="3">
-        <f>'ETS Projections'!W66</f>
+        <f>'ETS Projections'!W71</f>
         <v>1</v>
       </c>
       <c r="X3" s="3">
-        <f>'ETS Projections'!X66</f>
+        <f>'ETS Projections'!X71</f>
         <v>1</v>
       </c>
       <c r="Y3" s="3">
-        <f>'ETS Projections'!Y66</f>
+        <f>'ETS Projections'!Y71</f>
         <v>1</v>
       </c>
       <c r="Z3" s="3">
-        <f>'ETS Projections'!Z66</f>
+        <f>'ETS Projections'!Z71</f>
         <v>1</v>
       </c>
       <c r="AA3" s="3">
-        <f>'ETS Projections'!AA66</f>
+        <f>'ETS Projections'!AA71</f>
         <v>1</v>
       </c>
       <c r="AB3" s="3">
-        <f>'ETS Projections'!AB66</f>
+        <f>'ETS Projections'!AB71</f>
         <v>1</v>
       </c>
       <c r="AC3" s="3">
-        <f>'ETS Projections'!AC66</f>
+        <f>'ETS Projections'!AC71</f>
         <v>1</v>
       </c>
       <c r="AD3" s="3">
-        <f>'ETS Projections'!AD66</f>
+        <f>'ETS Projections'!AD71</f>
         <v>1</v>
       </c>
       <c r="AE3" s="3">
-        <f>'ETS Projections'!AE66</f>
+        <f>'ETS Projections'!AE71</f>
         <v>1</v>
       </c>
     </row>
@@ -6141,7 +6206,7 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" si="0"/>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="0"/>
@@ -6245,119 +6310,119 @@
         <v>0.18000000000000005</v>
       </c>
       <c r="C5" s="9">
-        <f>(1-Data!$A3)*'ETS Projections'!C65</f>
+        <f>(1-Data!$A3)*'ETS Projections'!C70</f>
         <v>0.18000000000000005</v>
       </c>
       <c r="D5" s="9">
-        <f>(1-Data!$A3)*'ETS Projections'!D65</f>
+        <f>(1-Data!$A3)*'ETS Projections'!D70</f>
         <v>0.18000000000000005</v>
       </c>
       <c r="E5" s="9">
-        <f>(1-Data!A8)*'ETS Projections'!E65</f>
+        <f>(1-Data!A8)*'ETS Projections'!E70</f>
         <v>0.25</v>
       </c>
       <c r="F5" s="9">
-        <f>(1-Data!A9)*'ETS Projections'!F65</f>
+        <f>(1-Data!A9)*'ETS Projections'!F70</f>
         <v>0.5</v>
       </c>
       <c r="G5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!G65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!G70</f>
         <v>1</v>
       </c>
       <c r="H5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!H65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!H70</f>
         <v>1</v>
       </c>
       <c r="I5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!I65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!I70</f>
         <v>1</v>
       </c>
       <c r="J5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!J65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!J70</f>
         <v>1</v>
       </c>
       <c r="K5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!K65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!K70</f>
         <v>1</v>
       </c>
       <c r="L5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!L65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!L70</f>
         <v>1</v>
       </c>
       <c r="M5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!M65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!M70</f>
         <v>0.91911276045243906</v>
       </c>
       <c r="N5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!N65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!N70</f>
         <v>0.82015499738072961</v>
       </c>
       <c r="O5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!O65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!O70</f>
         <v>0.76702920449344913</v>
       </c>
       <c r="P5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!P65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!P70</f>
         <v>0.71887152156448098</v>
       </c>
       <c r="Q5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!Q65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!Q70</f>
         <v>0.68980453195441105</v>
       </c>
       <c r="R5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!R65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!R70</f>
         <v>0.66563926421639297</v>
       </c>
       <c r="S5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!S65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!S70</f>
         <v>0.64618847711678717</v>
       </c>
       <c r="T5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!T65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!T70</f>
         <v>0.6304675233748841</v>
       </c>
       <c r="U5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!U65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!U70</f>
         <v>0.61775493845911467</v>
       </c>
       <c r="V5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!V65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!V70</f>
         <v>0.62308739476792896</v>
       </c>
       <c r="W5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!W65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!W70</f>
         <v>0.62891664700627326</v>
       </c>
       <c r="X5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!X65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!X70</f>
         <v>0.63521305905982683</v>
       </c>
       <c r="Y5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!Y65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!Y70</f>
         <v>0.641951661578396</v>
       </c>
       <c r="Z5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!Z65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!Z70</f>
         <v>0.64991874023548524</v>
       </c>
       <c r="AA5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!AA65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!AA70</f>
         <v>0.6719213131081081</v>
       </c>
       <c r="AB5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!AB65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!AB70</f>
         <v>0.69434436309455783</v>
       </c>
       <c r="AC5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!AC65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!AC70</f>
         <v>0.71719848448643142</v>
       </c>
       <c r="AD5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!AD65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!AD70</f>
         <v>0.74049442492889994</v>
       </c>
       <c r="AE5" s="9">
-        <f>(1-Data!$A10)*'ETS Projections'!AE65</f>
+        <f>(1-Data!$A10)*'ETS Projections'!AE70</f>
         <v>0.76424309180226624</v>
       </c>
     </row>
@@ -6470,111 +6535,111 @@
         <v>0</v>
       </c>
       <c r="E7" s="9">
-        <f>'ETS Projections'!E65*Data!$A14</f>
+        <f>'ETS Projections'!E70*Data!$A14</f>
         <v>0.4</v>
       </c>
       <c r="F7" s="9">
-        <f>'ETS Projections'!F65*Data!$A15</f>
+        <f>'ETS Projections'!F70*Data!$A15</f>
         <v>0.7</v>
       </c>
       <c r="G7" s="9">
-        <f>'ETS Projections'!G65*Data!$A16</f>
+        <f>'ETS Projections'!G70*Data!$A16</f>
         <v>1</v>
       </c>
       <c r="H7" s="9">
-        <f>'ETS Projections'!H65*Data!$A16</f>
+        <f>'ETS Projections'!H70*Data!$A16</f>
         <v>1</v>
       </c>
       <c r="I7" s="9">
-        <f>'ETS Projections'!I65*Data!$A16</f>
+        <f>'ETS Projections'!I70*Data!$A16</f>
         <v>1</v>
       </c>
       <c r="J7" s="9">
-        <f>'ETS Projections'!J65*Data!$A16</f>
+        <f>'ETS Projections'!J70*Data!$A16</f>
         <v>1</v>
       </c>
       <c r="K7" s="9">
-        <f>'ETS Projections'!K65*Data!$A16</f>
+        <f>'ETS Projections'!K70*Data!$A16</f>
         <v>1</v>
       </c>
       <c r="L7" s="9">
-        <f>'ETS Projections'!L65*Data!$A16</f>
+        <f>'ETS Projections'!L70*Data!$A16</f>
         <v>1</v>
       </c>
       <c r="M7" s="9">
-        <f>'ETS Projections'!M65*Data!$A16</f>
+        <f>'ETS Projections'!M70*Data!$A16</f>
         <v>0.91911276045243906</v>
       </c>
       <c r="N7" s="9">
-        <f>'ETS Projections'!N65*Data!$A16</f>
+        <f>'ETS Projections'!N70*Data!$A16</f>
         <v>0.82015499738072961</v>
       </c>
       <c r="O7" s="9">
-        <f>'ETS Projections'!O65*Data!$A16</f>
+        <f>'ETS Projections'!O70*Data!$A16</f>
         <v>0.76702920449344913</v>
       </c>
       <c r="P7" s="9">
-        <f>'ETS Projections'!P65*Data!$A16</f>
+        <f>'ETS Projections'!P70*Data!$A16</f>
         <v>0.71887152156448098</v>
       </c>
       <c r="Q7" s="9">
-        <f>'ETS Projections'!Q65*Data!$A16</f>
+        <f>'ETS Projections'!Q70*Data!$A16</f>
         <v>0.68980453195441105</v>
       </c>
       <c r="R7" s="9">
-        <f>'ETS Projections'!R65*Data!$A16</f>
+        <f>'ETS Projections'!R70*Data!$A16</f>
         <v>0.66563926421639297</v>
       </c>
       <c r="S7" s="9">
-        <f>'ETS Projections'!S65*Data!$A16</f>
+        <f>'ETS Projections'!S70*Data!$A16</f>
         <v>0.64618847711678717</v>
       </c>
       <c r="T7" s="9">
-        <f>'ETS Projections'!T65*Data!$A16</f>
+        <f>'ETS Projections'!T70*Data!$A16</f>
         <v>0.6304675233748841</v>
       </c>
       <c r="U7" s="9">
-        <f>'ETS Projections'!U65*Data!$A16</f>
+        <f>'ETS Projections'!U70*Data!$A16</f>
         <v>0.61775493845911467</v>
       </c>
       <c r="V7" s="9">
-        <f>'ETS Projections'!V65*Data!$A16</f>
+        <f>'ETS Projections'!V70*Data!$A16</f>
         <v>0.62308739476792896</v>
       </c>
       <c r="W7" s="9">
-        <f>'ETS Projections'!W65*Data!$A16</f>
+        <f>'ETS Projections'!W70*Data!$A16</f>
         <v>0.62891664700627326</v>
       </c>
       <c r="X7" s="9">
-        <f>'ETS Projections'!X65*Data!$A16</f>
+        <f>'ETS Projections'!X70*Data!$A16</f>
         <v>0.63521305905982683</v>
       </c>
       <c r="Y7" s="9">
-        <f>'ETS Projections'!Y65*Data!$A16</f>
+        <f>'ETS Projections'!Y70*Data!$A16</f>
         <v>0.641951661578396</v>
       </c>
       <c r="Z7" s="9">
-        <f>'ETS Projections'!Z65*Data!$A16</f>
+        <f>'ETS Projections'!Z70*Data!$A16</f>
         <v>0.64991874023548524</v>
       </c>
       <c r="AA7" s="9">
-        <f>'ETS Projections'!AA65*Data!$A16</f>
+        <f>'ETS Projections'!AA70*Data!$A16</f>
         <v>0.6719213131081081</v>
       </c>
       <c r="AB7" s="9">
-        <f>'ETS Projections'!AB65*Data!$A16</f>
+        <f>'ETS Projections'!AB70*Data!$A16</f>
         <v>0.69434436309455783</v>
       </c>
       <c r="AC7" s="9">
-        <f>'ETS Projections'!AC65*Data!$A16</f>
+        <f>'ETS Projections'!AC70*Data!$A16</f>
         <v>0.71719848448643142</v>
       </c>
       <c r="AD7" s="9">
-        <f>'ETS Projections'!AD65*Data!$A16</f>
+        <f>'ETS Projections'!AD70*Data!$A16</f>
         <v>0.74049442492889994</v>
       </c>
       <c r="AE7" s="9">
-        <f>'ETS Projections'!AE65*Data!$A16</f>
+        <f>'ETS Projections'!AE70*Data!$A16</f>
         <v>0.76424309180226624</v>
       </c>
     </row>
@@ -6608,7 +6673,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="1"/>
@@ -7463,7 +7528,7 @@
       </c>
       <c r="H2" s="3">
         <f>calcs!H3</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I2" s="3">
         <f>calcs!I3</f>
@@ -7588,7 +7653,7 @@
       </c>
       <c r="H3" s="3">
         <f>calcs!H4</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I3" s="3">
         <f>calcs!I4</f>
@@ -8088,7 +8153,7 @@
       </c>
       <c r="H7" s="3">
         <f>calcs!H8</f>
-        <v>0.4825395020511708</v>
+        <v>0.45136590456397085</v>
       </c>
       <c r="I7" s="3">
         <f>calcs!I8</f>
